--- a/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,34 +656,34 @@
         <v>1.002956515693745</v>
       </c>
       <c r="D3">
+        <v>1.002956515693745</v>
+      </c>
+      <c r="E3">
+        <v>0.9989043638103726</v>
+      </c>
+      <c r="F3">
+        <v>1.00336911025281</v>
+      </c>
+      <c r="G3">
+        <v>1.002067388517224</v>
+      </c>
+      <c r="H3">
+        <v>0.9934013853166581</v>
+      </c>
+      <c r="I3">
         <v>0.9869969083045339</v>
       </c>
-      <c r="E3">
+      <c r="J3">
+        <v>0.9999992269728181</v>
+      </c>
+      <c r="K3">
         <v>1.003832373476865</v>
       </c>
-      <c r="F3">
+      <c r="L3">
+        <v>0.9869969083045339</v>
+      </c>
+      <c r="M3">
         <v>1.002956515693745</v>
-      </c>
-      <c r="G3">
-        <v>0.9989043638103726</v>
-      </c>
-      <c r="H3">
-        <v>1.00336911025281</v>
-      </c>
-      <c r="I3">
-        <v>1.002956515693745</v>
-      </c>
-      <c r="J3">
-        <v>0.9869969083045339</v>
-      </c>
-      <c r="K3">
-        <v>0.9999992269728181</v>
-      </c>
-      <c r="L3">
-        <v>1.002067388517224</v>
-      </c>
-      <c r="M3">
-        <v>0.9934013853166579</v>
       </c>
       <c r="N3">
         <v>1.002956515693745</v>
@@ -764,7 +716,7 @@
         <v>0.9989409090431283</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,34 +727,34 @@
         <v>1.006016893639718</v>
       </c>
       <c r="D4">
+        <v>1.006016893639718</v>
+      </c>
+      <c r="E4">
+        <v>0.9978123720790359</v>
+      </c>
+      <c r="F4">
+        <v>1.006504986394483</v>
+      </c>
+      <c r="G4">
+        <v>1.004027148601372</v>
+      </c>
+      <c r="H4">
+        <v>0.9873367247666035</v>
+      </c>
+      <c r="I4">
         <v>0.9752956389863869</v>
       </c>
-      <c r="E4">
+      <c r="J4">
+        <v>0.9997965502323951</v>
+      </c>
+      <c r="K4">
         <v>1.007232664875254</v>
       </c>
-      <c r="F4">
+      <c r="L4">
+        <v>0.9752956389863869</v>
+      </c>
+      <c r="M4">
         <v>1.006016893639718</v>
-      </c>
-      <c r="G4">
-        <v>0.9978123720790359</v>
-      </c>
-      <c r="H4">
-        <v>1.006504986394483</v>
-      </c>
-      <c r="I4">
-        <v>1.006016893639718</v>
-      </c>
-      <c r="J4">
-        <v>0.9752956389863869</v>
-      </c>
-      <c r="K4">
-        <v>0.9997965502323951</v>
-      </c>
-      <c r="L4">
-        <v>1.004027148601372</v>
-      </c>
-      <c r="M4">
-        <v>0.9873367247666035</v>
       </c>
       <c r="N4">
         <v>1.006016893639718</v>
@@ -835,7 +787,7 @@
         <v>0.9980028724469061</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.011312838154048</v>
       </c>
       <c r="D5">
+        <v>1.011312838154048</v>
+      </c>
+      <c r="E5">
+        <v>0.9959928421298179</v>
+      </c>
+      <c r="F5">
+        <v>1.012361298605362</v>
+      </c>
+      <c r="G5">
+        <v>1.00781371654569</v>
+      </c>
+      <c r="H5">
+        <v>0.975689755795913</v>
+      </c>
+      <c r="I5">
         <v>0.952217909665286</v>
       </c>
-      <c r="E5">
+      <c r="J5">
+        <v>0.9997715883621379</v>
+      </c>
+      <c r="K5">
         <v>1.013789444209849</v>
       </c>
-      <c r="F5">
+      <c r="L5">
+        <v>0.952217909665286</v>
+      </c>
+      <c r="M5">
         <v>1.011312838154048</v>
-      </c>
-      <c r="G5">
-        <v>0.9959928421298179</v>
-      </c>
-      <c r="H5">
-        <v>1.012361298605362</v>
-      </c>
-      <c r="I5">
-        <v>1.011312838154048</v>
-      </c>
-      <c r="J5">
-        <v>0.952217909665286</v>
-      </c>
-      <c r="K5">
-        <v>0.9997715883621379</v>
-      </c>
-      <c r="L5">
-        <v>1.00781371654569</v>
-      </c>
-      <c r="M5">
-        <v>0.975689755795913</v>
       </c>
       <c r="N5">
         <v>1.011312838154048</v>
@@ -906,7 +858,7 @@
         <v>0.996118674183513</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,34 +869,34 @@
         <v>1.01732324580489</v>
       </c>
       <c r="D6">
+        <v>1.01732324580489</v>
+      </c>
+      <c r="E6">
+        <v>0.9939570538572485</v>
+      </c>
+      <c r="F6">
+        <v>1.017758024603245</v>
+      </c>
+      <c r="G6">
+        <v>1.011233696438057</v>
+      </c>
+      <c r="H6">
+        <v>0.9642637848614346</v>
+      </c>
+      <c r="I6">
         <v>0.929668471180939</v>
       </c>
-      <c r="E6">
+      <c r="J6">
+        <v>1.000142054010323</v>
+      </c>
+      <c r="K6">
         <v>1.020171649120035</v>
       </c>
-      <c r="F6">
+      <c r="L6">
+        <v>0.929668471180939</v>
+      </c>
+      <c r="M6">
         <v>1.01732324580489</v>
-      </c>
-      <c r="G6">
-        <v>0.9939570538572485</v>
-      </c>
-      <c r="H6">
-        <v>1.017758024603245</v>
-      </c>
-      <c r="I6">
-        <v>1.01732324580489</v>
-      </c>
-      <c r="J6">
-        <v>0.929668471180939</v>
-      </c>
-      <c r="K6">
-        <v>1.000142054010323</v>
-      </c>
-      <c r="L6">
-        <v>1.011233696438057</v>
-      </c>
-      <c r="M6">
-        <v>0.9642637848614346</v>
       </c>
       <c r="N6">
         <v>1.01732324580489</v>
@@ -977,7 +929,7 @@
         <v>0.9943147474845215</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -988,34 +940,34 @@
         <v>1.0008708982998</v>
       </c>
       <c r="D7">
-        <v>0.9992412515377893</v>
+        <v>1.0008708982998</v>
       </c>
       <c r="E7">
+        <v>0.9999329075164985</v>
+      </c>
+      <c r="F7">
+        <v>1.000164127330511</v>
+      </c>
+      <c r="G7">
+        <v>1.000387199837107</v>
+      </c>
+      <c r="H7">
+        <v>0.9995362526252539</v>
+      </c>
+      <c r="I7">
+        <v>0.9992412515377891</v>
+      </c>
+      <c r="J7">
+        <v>0.9997047074823391</v>
+      </c>
+      <c r="K7">
         <v>0.9997991618690032</v>
       </c>
-      <c r="F7">
+      <c r="L7">
+        <v>0.9992412515377891</v>
+      </c>
+      <c r="M7">
         <v>1.0008708982998</v>
-      </c>
-      <c r="G7">
-        <v>0.9999329075164989</v>
-      </c>
-      <c r="H7">
-        <v>1.00016412733051</v>
-      </c>
-      <c r="I7">
-        <v>1.0008708982998</v>
-      </c>
-      <c r="J7">
-        <v>0.9992412515377893</v>
-      </c>
-      <c r="K7">
-        <v>0.9997047074823392</v>
-      </c>
-      <c r="L7">
-        <v>1.000387199837107</v>
-      </c>
-      <c r="M7">
-        <v>0.999536252625254</v>
       </c>
       <c r="N7">
         <v>1.0008708982998</v>
@@ -1024,31 +976,31 @@
         <v>0.9997991618690032</v>
       </c>
       <c r="P7">
-        <v>0.9995202067033963</v>
+        <v>0.9995202067033961</v>
       </c>
       <c r="Q7">
-        <v>0.999866034692751</v>
+        <v>0.9998660346927508</v>
       </c>
       <c r="R7">
-        <v>0.999970437235531</v>
+        <v>0.9999704372355308</v>
       </c>
       <c r="S7">
-        <v>0.9996577736410971</v>
+        <v>0.999657773641097</v>
       </c>
       <c r="T7">
-        <v>0.999970437235531</v>
+        <v>0.9999704372355307</v>
       </c>
       <c r="U7">
-        <v>0.9999610548057729</v>
+        <v>0.9999610548057727</v>
       </c>
       <c r="V7">
-        <v>1.000143023504579</v>
+        <v>1.000143023504578</v>
       </c>
       <c r="W7">
-        <v>0.9999545633122877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999545633122876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,43 +1011,43 @@
         <v>1.002661933091686</v>
       </c>
       <c r="D8">
-        <v>0.9978385087582406</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="E8">
-        <v>0.99942650876887</v>
+        <v>0.9997384173394929</v>
       </c>
       <c r="F8">
+        <v>1.00051383515951</v>
+      </c>
+      <c r="G8">
+        <v>1.001118629263254</v>
+      </c>
+      <c r="H8">
+        <v>0.9986159617837161</v>
+      </c>
+      <c r="I8">
+        <v>0.9978385087582404</v>
+      </c>
+      <c r="J8">
+        <v>0.9990988565145386</v>
+      </c>
+      <c r="K8">
+        <v>0.9994265087688696</v>
+      </c>
+      <c r="L8">
+        <v>0.9978385087582404</v>
+      </c>
+      <c r="M8">
         <v>1.002661933091686</v>
-      </c>
-      <c r="G8">
-        <v>0.9997384173394925</v>
-      </c>
-      <c r="H8">
-        <v>1.00051383515951</v>
-      </c>
-      <c r="I8">
-        <v>1.002661933091686</v>
-      </c>
-      <c r="J8">
-        <v>0.9978385087582406</v>
-      </c>
-      <c r="K8">
-        <v>0.9990988565145389</v>
-      </c>
-      <c r="L8">
-        <v>1.001118629263255</v>
-      </c>
-      <c r="M8">
-        <v>0.9986159617837158</v>
       </c>
       <c r="N8">
         <v>1.002661933091686</v>
       </c>
       <c r="O8">
-        <v>0.99942650876887</v>
+        <v>0.9994265087688696</v>
       </c>
       <c r="P8">
-        <v>0.9986325087635552</v>
+        <v>0.998632508763555</v>
       </c>
       <c r="Q8">
         <v>0.9995824630541812</v>
@@ -1107,7 +1059,7 @@
         <v>0.9990011449555344</v>
       </c>
       <c r="T8">
-        <v>0.9999756502062657</v>
+        <v>0.9999756502062654</v>
       </c>
       <c r="U8">
         <v>0.9999163419895724</v>
@@ -1119,7 +1071,7 @@
         <v>0.9998765813349135</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1130,34 +1082,34 @@
         <v>1.004572544922851</v>
       </c>
       <c r="D9">
+        <v>1.004572544922851</v>
+      </c>
+      <c r="E9">
+        <v>0.999426481019796</v>
+      </c>
+      <c r="F9">
+        <v>1.000826679798017</v>
+      </c>
+      <c r="G9">
+        <v>1.001663148757902</v>
+      </c>
+      <c r="H9">
+        <v>0.9978368948471185</v>
+      </c>
+      <c r="I9">
         <v>0.9968152682467116</v>
       </c>
-      <c r="E9">
+      <c r="J9">
+        <v>0.9985191782112194</v>
+      </c>
+      <c r="K9">
         <v>0.9991023983159563</v>
       </c>
-      <c r="F9">
+      <c r="L9">
+        <v>0.9968152682467116</v>
+      </c>
+      <c r="M9">
         <v>1.004572544922851</v>
-      </c>
-      <c r="G9">
-        <v>0.999426481019796</v>
-      </c>
-      <c r="H9">
-        <v>1.000826679798017</v>
-      </c>
-      <c r="I9">
-        <v>1.004572544922851</v>
-      </c>
-      <c r="J9">
-        <v>0.9968152682467116</v>
-      </c>
-      <c r="K9">
-        <v>0.9985191782112194</v>
-      </c>
-      <c r="L9">
-        <v>1.001663148757902</v>
-      </c>
-      <c r="M9">
-        <v>0.9978368948471185</v>
       </c>
       <c r="N9">
         <v>1.004572544922851</v>
@@ -1190,7 +1142,7 @@
         <v>0.9998453242649463</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1201,34 +1153,34 @@
         <v>1.008944120282477</v>
       </c>
       <c r="D10">
+        <v>1.008944120282477</v>
+      </c>
+      <c r="E10">
+        <v>0.9989887400122766</v>
+      </c>
+      <c r="F10">
+        <v>1.001684981202122</v>
+      </c>
+      <c r="G10">
+        <v>1.003475647236108</v>
+      </c>
+      <c r="H10">
+        <v>0.9955145836906326</v>
+      </c>
+      <c r="I10">
         <v>0.9930958968393968</v>
       </c>
-      <c r="E10">
+      <c r="J10">
+        <v>0.9970971378349336</v>
+      </c>
+      <c r="K10">
         <v>0.9982369127921441</v>
       </c>
-      <c r="F10">
+      <c r="L10">
+        <v>0.9930958968393968</v>
+      </c>
+      <c r="M10">
         <v>1.008944120282477</v>
-      </c>
-      <c r="G10">
-        <v>0.9989887400122766</v>
-      </c>
-      <c r="H10">
-        <v>1.001684981202122</v>
-      </c>
-      <c r="I10">
-        <v>1.008944120282477</v>
-      </c>
-      <c r="J10">
-        <v>0.9930958968393968</v>
-      </c>
-      <c r="K10">
-        <v>0.9970971378349336</v>
-      </c>
-      <c r="L10">
-        <v>1.003475647236108</v>
-      </c>
-      <c r="M10">
-        <v>0.9955145836906326</v>
       </c>
       <c r="N10">
         <v>1.008944120282477</v>
@@ -1261,7 +1213,7 @@
         <v>0.9996297524862612</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,34 +1224,34 @@
         <v>1.017133997421867</v>
       </c>
       <c r="D11">
-        <v>0.9884218430270315</v>
+        <v>1.017133997421867</v>
       </c>
       <c r="E11">
+        <v>0.9979216079872988</v>
+      </c>
+      <c r="F11">
+        <v>1.002949716216169</v>
+      </c>
+      <c r="G11">
+        <v>1.006231951801949</v>
+      </c>
+      <c r="H11">
+        <v>0.9920939701832984</v>
+      </c>
+      <c r="I11">
+        <v>0.9884218430270313</v>
+      </c>
+      <c r="J11">
+        <v>0.9944335533590142</v>
+      </c>
+      <c r="K11">
         <v>0.996396636037419</v>
       </c>
-      <c r="F11">
+      <c r="L11">
+        <v>0.9884218430270313</v>
+      </c>
+      <c r="M11">
         <v>1.017133997421867</v>
-      </c>
-      <c r="G11">
-        <v>0.9979216079872987</v>
-      </c>
-      <c r="H11">
-        <v>1.002949716216169</v>
-      </c>
-      <c r="I11">
-        <v>1.017133997421867</v>
-      </c>
-      <c r="J11">
-        <v>0.9884218430270315</v>
-      </c>
-      <c r="K11">
-        <v>0.9944335533590142</v>
-      </c>
-      <c r="L11">
-        <v>1.006231951801949</v>
-      </c>
-      <c r="M11">
-        <v>0.9920939701832984</v>
       </c>
       <c r="N11">
         <v>1.017133997421867</v>
@@ -1308,10 +1260,10 @@
         <v>0.996396636037419</v>
       </c>
       <c r="P11">
-        <v>0.9924092395322253</v>
+        <v>0.9924092395322252</v>
       </c>
       <c r="Q11">
-        <v>0.9971591220123588</v>
+        <v>0.9971591220123589</v>
       </c>
       <c r="R11">
         <v>1.000650825495439</v>
@@ -1323,7 +1275,7 @@
         <v>1.000650825495439</v>
       </c>
       <c r="U11">
-        <v>0.9999685211184041</v>
+        <v>0.9999685211184042</v>
       </c>
       <c r="V11">
         <v>1.003401616379097</v>
@@ -1332,7 +1284,7 @@
         <v>0.9994479095042559</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,34 +1295,34 @@
         <v>0.8743057963633019</v>
       </c>
       <c r="D12">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="E12">
+        <v>1.063588675254941</v>
+      </c>
+      <c r="F12">
+        <v>0.9311903311937384</v>
+      </c>
+      <c r="G12">
+        <v>0.9846354010220275</v>
+      </c>
+      <c r="H12">
+        <v>1.090384057009017</v>
+      </c>
+      <c r="I12">
         <v>1.077848287530474</v>
       </c>
-      <c r="E12">
+      <c r="J12">
+        <v>1.045309007642355</v>
+      </c>
+      <c r="K12">
         <v>0.9423442047973815</v>
       </c>
-      <c r="F12">
+      <c r="L12">
+        <v>1.077848287530474</v>
+      </c>
+      <c r="M12">
         <v>0.8743057963633019</v>
-      </c>
-      <c r="G12">
-        <v>1.063588675254941</v>
-      </c>
-      <c r="H12">
-        <v>0.9311903311937384</v>
-      </c>
-      <c r="I12">
-        <v>0.8743057963633019</v>
-      </c>
-      <c r="J12">
-        <v>1.077848287530474</v>
-      </c>
-      <c r="K12">
-        <v>1.045309007642355</v>
-      </c>
-      <c r="L12">
-        <v>0.9846354010220275</v>
-      </c>
-      <c r="M12">
-        <v>1.090384057009017</v>
       </c>
       <c r="N12">
         <v>0.8743057963633019</v>
@@ -1403,7 +1355,7 @@
         <v>1.001200720101655</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1414,34 +1366,34 @@
         <v>1.004824134484926</v>
       </c>
       <c r="D13">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="E13">
+        <v>0.966640151501355</v>
+      </c>
+      <c r="F13">
+        <v>1.007839094371018</v>
+      </c>
+      <c r="G13">
+        <v>0.9624409191507911</v>
+      </c>
+      <c r="H13">
+        <v>1.024858044456502</v>
+      </c>
+      <c r="I13">
         <v>1.109876416108743</v>
       </c>
-      <c r="E13">
+      <c r="J13">
+        <v>0.9915174289986017</v>
+      </c>
+      <c r="K13">
         <v>1.025922240914058</v>
       </c>
-      <c r="F13">
+      <c r="L13">
+        <v>1.109876416108743</v>
+      </c>
+      <c r="M13">
         <v>1.004824134484926</v>
-      </c>
-      <c r="G13">
-        <v>0.966640151501355</v>
-      </c>
-      <c r="H13">
-        <v>1.007839094371018</v>
-      </c>
-      <c r="I13">
-        <v>1.004824134484926</v>
-      </c>
-      <c r="J13">
-        <v>1.109876416108743</v>
-      </c>
-      <c r="K13">
-        <v>0.9915174289986018</v>
-      </c>
-      <c r="L13">
-        <v>0.9624409191507911</v>
-      </c>
-      <c r="M13">
-        <v>1.024858044456502</v>
       </c>
       <c r="N13">
         <v>1.004824134484926</v>
@@ -1450,10 +1402,10 @@
         <v>1.025922240914058</v>
       </c>
       <c r="P13">
-        <v>1.0678993285114</v>
+        <v>1.067899328511401</v>
       </c>
       <c r="Q13">
-        <v>0.9962811962077066</v>
+        <v>0.9962811962077067</v>
       </c>
       <c r="R13">
         <v>1.046874263835909</v>
@@ -1474,7 +1426,7 @@
         <v>1.011739803748249</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.90878805919942</v>
+        <v>0.9087880591994199</v>
       </c>
       <c r="D14">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="E14">
+        <v>0.838933621594107</v>
+      </c>
+      <c r="F14">
+        <v>1.300853129480476</v>
+      </c>
+      <c r="G14">
+        <v>0.9679033127066247</v>
+      </c>
+      <c r="H14">
+        <v>0.6212119471671718</v>
+      </c>
+      <c r="I14">
         <v>0.3997616772347007</v>
       </c>
-      <c r="E14">
+      <c r="J14">
+        <v>1.052605284117847</v>
+      </c>
+      <c r="K14">
         <v>1.511779163827498</v>
       </c>
-      <c r="F14">
-        <v>0.90878805919942</v>
-      </c>
-      <c r="G14">
-        <v>0.838933621594107</v>
-      </c>
-      <c r="H14">
-        <v>1.300853129480476</v>
-      </c>
-      <c r="I14">
-        <v>0.90878805919942</v>
-      </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.3997616772347007</v>
       </c>
-      <c r="K14">
-        <v>1.052605284117847</v>
-      </c>
-      <c r="L14">
-        <v>0.9679033127066247</v>
-      </c>
       <c r="M14">
-        <v>0.6212119471671719</v>
+        <v>0.9087880591994199</v>
       </c>
       <c r="N14">
-        <v>0.90878805919942</v>
+        <v>0.9087880591994199</v>
       </c>
       <c r="O14">
         <v>1.511779163827498</v>
@@ -1545,7 +1497,7 @@
         <v>0.9502295244159807</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,34 +1508,34 @@
         <v>1.221534064635412</v>
       </c>
       <c r="D15">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="E15">
+        <v>1.032031689822053</v>
+      </c>
+      <c r="F15">
+        <v>0.9689806783205963</v>
+      </c>
+      <c r="G15">
+        <v>1.108543999367504</v>
+      </c>
+      <c r="H15">
+        <v>0.962826678194716</v>
+      </c>
+      <c r="I15">
         <v>0.8981189257257405</v>
       </c>
-      <c r="E15">
+      <c r="J15">
+        <v>0.9297425911601358</v>
+      </c>
+      <c r="K15">
         <v>0.8338698244311145</v>
       </c>
-      <c r="F15">
+      <c r="L15">
+        <v>0.8981189257257405</v>
+      </c>
+      <c r="M15">
         <v>1.221534064635412</v>
-      </c>
-      <c r="G15">
-        <v>1.032031689822053</v>
-      </c>
-      <c r="H15">
-        <v>0.9689806783205963</v>
-      </c>
-      <c r="I15">
-        <v>1.221534064635412</v>
-      </c>
-      <c r="J15">
-        <v>0.8981189257257405</v>
-      </c>
-      <c r="K15">
-        <v>0.9297425911601358</v>
-      </c>
-      <c r="L15">
-        <v>1.108543999367504</v>
-      </c>
-      <c r="M15">
-        <v>0.962826678194716</v>
       </c>
       <c r="N15">
         <v>1.221534064635412</v>
@@ -1616,7 +1568,7 @@
         <v>0.994456056457159</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9987642202217908</v>
+        <v>1.063186583948774</v>
       </c>
       <c r="D16">
-        <v>0.9995232123082506</v>
+        <v>1.063186583948774</v>
       </c>
       <c r="E16">
-        <v>1.001327499115208</v>
+        <v>0.9765450023083503</v>
       </c>
       <c r="F16">
-        <v>0.9987642202217908</v>
+        <v>1.066471066128814</v>
       </c>
       <c r="G16">
-        <v>0.9997630810529149</v>
+        <v>1.040699364707289</v>
       </c>
       <c r="H16">
-        <v>1.00048568393452</v>
+        <v>0.8725491750273999</v>
       </c>
       <c r="I16">
-        <v>0.9987642202217908</v>
+        <v>0.7551988162401087</v>
       </c>
       <c r="J16">
-        <v>0.9995232123082506</v>
+        <v>0.9957266857953674</v>
       </c>
       <c r="K16">
-        <v>1.000402119546383</v>
+        <v>1.072272029962238</v>
       </c>
       <c r="L16">
-        <v>0.9995621495063767</v>
+        <v>0.7551988162401087</v>
       </c>
       <c r="M16">
-        <v>0.999673005436208</v>
+        <v>1.063186583948774</v>
       </c>
       <c r="N16">
-        <v>0.9987642202217908</v>
+        <v>1.063186583948774</v>
       </c>
       <c r="O16">
-        <v>1.001327499115208</v>
+        <v>1.072272029962238</v>
       </c>
       <c r="P16">
-        <v>1.000425355711729</v>
+        <v>0.9137354231011732</v>
       </c>
       <c r="Q16">
-        <v>1.000545290084061</v>
+        <v>1.024408516135294</v>
       </c>
       <c r="R16">
-        <v>0.9998716438817498</v>
+        <v>0.9635524767170401</v>
       </c>
       <c r="S16">
-        <v>1.000204597492124</v>
+        <v>0.9346719495035655</v>
       </c>
       <c r="T16">
-        <v>0.9998716438817498</v>
+        <v>0.9635524767170401</v>
       </c>
       <c r="U16">
-        <v>0.999844503174541</v>
+        <v>0.9668006081148677</v>
       </c>
       <c r="V16">
-        <v>0.999628446583991</v>
+        <v>0.9860778032816491</v>
       </c>
       <c r="W16">
-        <v>0.9999376213902065</v>
+        <v>0.9803310905147926</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002764718166571</v>
+        <v>1.066795255109263</v>
       </c>
       <c r="D17">
-        <v>0.9999899090123413</v>
+        <v>1.066795255109263</v>
       </c>
       <c r="E17">
-        <v>0.9976740031647002</v>
+        <v>0.9816246153232024</v>
       </c>
       <c r="F17">
-        <v>1.002764718166571</v>
+        <v>1.050862880304247</v>
       </c>
       <c r="G17">
-        <v>1.000355364673734</v>
+        <v>1.038399743003107</v>
       </c>
       <c r="H17">
-        <v>0.9994057223182539</v>
+        <v>0.8992036782819388</v>
       </c>
       <c r="I17">
-        <v>1.002764718166571</v>
+        <v>0.8106858539714256</v>
       </c>
       <c r="J17">
-        <v>0.9999899090123413</v>
+        <v>0.9888976860964304</v>
       </c>
       <c r="K17">
-        <v>0.9990184180595196</v>
+        <v>1.045142227259643</v>
       </c>
       <c r="L17">
-        <v>1.001140027936693</v>
+        <v>0.8106858539714256</v>
       </c>
       <c r="M17">
-        <v>1.000054985268714</v>
+        <v>1.066795255109263</v>
       </c>
       <c r="N17">
-        <v>1.002764718166571</v>
+        <v>1.066795255109263</v>
       </c>
       <c r="O17">
-        <v>0.9976740031647002</v>
+        <v>1.045142227259643</v>
       </c>
       <c r="P17">
-        <v>0.9988319560885208</v>
+        <v>0.9279140406155344</v>
       </c>
       <c r="Q17">
-        <v>0.9990146839192171</v>
+        <v>1.013383421291423</v>
       </c>
       <c r="R17">
-        <v>1.000142876781204</v>
+        <v>0.9742077787801108</v>
       </c>
       <c r="S17">
-        <v>0.9993397589502585</v>
+        <v>0.9458175655180904</v>
       </c>
       <c r="T17">
-        <v>1.000142876781204</v>
+        <v>0.9742077787801108</v>
       </c>
       <c r="U17">
-        <v>1.000195998754337</v>
+        <v>0.9760619879158836</v>
       </c>
       <c r="V17">
-        <v>1.000709742636783</v>
+        <v>0.9942086413545596</v>
       </c>
       <c r="W17">
-        <v>1.000050393575066</v>
+        <v>0.9852014924186572</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9967708190545276</v>
+        <v>1.074440647955978</v>
       </c>
       <c r="D18">
-        <v>0.9945819883492327</v>
+        <v>1.074440647955978</v>
       </c>
       <c r="E18">
-        <v>1.00570606597644</v>
+        <v>0.991550630818366</v>
       </c>
       <c r="F18">
-        <v>0.9967708190545276</v>
+        <v>1.019830056770532</v>
       </c>
       <c r="G18">
-        <v>0.9988455290386097</v>
+        <v>1.033755349226515</v>
       </c>
       <c r="H18">
-        <v>1.002632602441451</v>
+        <v>0.9522587959098618</v>
       </c>
       <c r="I18">
-        <v>0.9967708190545276</v>
+        <v>0.9214083672947762</v>
       </c>
       <c r="J18">
-        <v>0.9945819883492327</v>
+        <v>0.9751845801821827</v>
       </c>
       <c r="K18">
-        <v>1.001363640962957</v>
+        <v>0.9911069354233498</v>
       </c>
       <c r="L18">
-        <v>0.9990746075760339</v>
+        <v>0.9214083672947762</v>
       </c>
       <c r="M18">
-        <v>0.9969648206489499</v>
+        <v>1.074440647955978</v>
       </c>
       <c r="N18">
-        <v>0.9967708190545276</v>
+        <v>1.074440647955978</v>
       </c>
       <c r="O18">
-        <v>1.00570606597644</v>
+        <v>0.9911069354233498</v>
       </c>
       <c r="P18">
-        <v>1.000144027162836</v>
+        <v>0.956257651359063</v>
       </c>
       <c r="Q18">
-        <v>1.002275797507525</v>
+        <v>0.9913287831208579</v>
       </c>
       <c r="R18">
-        <v>0.9990196244600668</v>
+        <v>0.9956519835580346</v>
       </c>
       <c r="S18">
-        <v>0.9997111944547608</v>
+        <v>0.9680219778454974</v>
       </c>
       <c r="T18">
-        <v>0.9990196244600668</v>
+        <v>0.9956519835580346</v>
       </c>
       <c r="U18">
-        <v>0.9989761006047024</v>
+        <v>0.9946266453731175</v>
       </c>
       <c r="V18">
-        <v>0.9985350442946676</v>
+        <v>1.01058944588969</v>
       </c>
       <c r="W18">
-        <v>0.9994925092560252</v>
+        <v>0.9949419204476952</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="D19">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="E19">
+        <v>0.9970793604319512</v>
+      </c>
+      <c r="F19">
+        <v>1.016643847264671</v>
+      </c>
+      <c r="G19">
+        <v>1.042086876695466</v>
+      </c>
+      <c r="H19">
+        <v>0.9499456887121231</v>
+      </c>
+      <c r="I19">
+        <v>0.9092074729069566</v>
+      </c>
+      <c r="J19">
+        <v>0.972977254368005</v>
+      </c>
+      <c r="K19">
+        <v>0.9801227376046059</v>
+      </c>
+      <c r="L19">
+        <v>0.9092074729069566</v>
+      </c>
+      <c r="M19">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="N19">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="O19">
+        <v>0.9801227376046059</v>
+      </c>
+      <c r="P19">
+        <v>0.9446651052557813</v>
+      </c>
+      <c r="Q19">
+        <v>0.9886010490182786</v>
+      </c>
+      <c r="R19">
+        <v>0.9904174021773583</v>
+      </c>
+      <c r="S19">
+        <v>0.962136523647838</v>
+      </c>
+      <c r="T19">
+        <v>0.9904174021773583</v>
+      </c>
+      <c r="U19">
+        <v>0.9920828917410065</v>
+      </c>
+      <c r="V19">
+        <v>1.010050712596908</v>
+      </c>
+      <c r="W19">
+        <v>0.9937481542505364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="D20">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="E20">
+        <v>0.9997630810529149</v>
+      </c>
+      <c r="F20">
+        <v>1.00048568393452</v>
+      </c>
+      <c r="G20">
+        <v>0.9995621495063767</v>
+      </c>
+      <c r="H20">
+        <v>0.999673005436208</v>
+      </c>
+      <c r="I20">
+        <v>0.9995232123082503</v>
+      </c>
+      <c r="J20">
+        <v>1.000402119546383</v>
+      </c>
+      <c r="K20">
+        <v>1.001327499115208</v>
+      </c>
+      <c r="L20">
+        <v>0.9995232123082503</v>
+      </c>
+      <c r="M20">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="N20">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="O20">
+        <v>1.001327499115208</v>
+      </c>
+      <c r="P20">
+        <v>1.000425355711729</v>
+      </c>
+      <c r="Q20">
+        <v>1.000545290084061</v>
+      </c>
+      <c r="R20">
+        <v>0.9998716438817494</v>
+      </c>
+      <c r="S20">
+        <v>1.000204597492124</v>
+      </c>
+      <c r="T20">
+        <v>0.9998716438817495</v>
+      </c>
+      <c r="U20">
+        <v>0.9998445031745409</v>
+      </c>
+      <c r="V20">
+        <v>0.9996284465839909</v>
+      </c>
+      <c r="W20">
+        <v>0.9999376213902064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="D21">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="E21">
+        <v>1.000355364673734</v>
+      </c>
+      <c r="F21">
+        <v>0.9994057223182539</v>
+      </c>
+      <c r="G21">
+        <v>1.001140027936693</v>
+      </c>
+      <c r="H21">
+        <v>1.000054985268714</v>
+      </c>
+      <c r="I21">
+        <v>0.9999899090123414</v>
+      </c>
+      <c r="J21">
+        <v>0.99901841805952</v>
+      </c>
+      <c r="K21">
+        <v>0.9976740031647002</v>
+      </c>
+      <c r="L21">
+        <v>0.9999899090123414</v>
+      </c>
+      <c r="M21">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="N21">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="O21">
+        <v>0.9976740031647002</v>
+      </c>
+      <c r="P21">
+        <v>0.9988319560885208</v>
+      </c>
+      <c r="Q21">
+        <v>0.9990146839192171</v>
+      </c>
+      <c r="R21">
+        <v>1.000142876781204</v>
+      </c>
+      <c r="S21">
+        <v>0.9993397589502585</v>
+      </c>
+      <c r="T21">
+        <v>1.000142876781204</v>
+      </c>
+      <c r="U21">
+        <v>1.000195998754337</v>
+      </c>
+      <c r="V21">
+        <v>1.000709742636783</v>
+      </c>
+      <c r="W21">
+        <v>1.000050393575066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="D22">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="E22">
+        <v>0.9988455290386092</v>
+      </c>
+      <c r="F22">
+        <v>1.002632602441451</v>
+      </c>
+      <c r="G22">
+        <v>0.9990746075760339</v>
+      </c>
+      <c r="H22">
+        <v>0.9969648206489499</v>
+      </c>
+      <c r="I22">
+        <v>0.9945819883492327</v>
+      </c>
+      <c r="J22">
+        <v>1.001363640962956</v>
+      </c>
+      <c r="K22">
+        <v>1.00570606597644</v>
+      </c>
+      <c r="L22">
+        <v>0.9945819883492327</v>
+      </c>
+      <c r="M22">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="N22">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="O22">
+        <v>1.00570606597644</v>
+      </c>
+      <c r="P22">
+        <v>1.000144027162836</v>
+      </c>
+      <c r="Q22">
+        <v>1.002275797507524</v>
+      </c>
+      <c r="R22">
+        <v>0.9990196244600665</v>
+      </c>
+      <c r="S22">
+        <v>0.9997111944547604</v>
+      </c>
+      <c r="T22">
+        <v>0.9990196244600668</v>
+      </c>
+      <c r="U22">
+        <v>0.9989761006047023</v>
+      </c>
+      <c r="V22">
+        <v>0.9985350442946673</v>
+      </c>
+      <c r="W22">
+        <v>0.9994925092560252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9842761149165067</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9842761149165067</v>
+      </c>
+      <c r="E23">
+        <v>0.9957045602694268</v>
+      </c>
+      <c r="F23">
+        <v>1.0091339203429</v>
+      </c>
+      <c r="G23">
+        <v>0.9947040013074301</v>
+      </c>
+      <c r="H23">
+        <v>0.9908136732336565</v>
+      </c>
+      <c r="I23">
         <v>0.9838885254766885</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>1.006346834790641</v>
+      </c>
+      <c r="K23">
         <v>1.02184816334801</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>0.9838885254766885</v>
+      </c>
+      <c r="M23">
         <v>0.9842761149165067</v>
       </c>
-      <c r="G19">
-        <v>0.9957045602694269</v>
-      </c>
-      <c r="H19">
-        <v>1.0091339203429</v>
-      </c>
-      <c r="I19">
+      <c r="N23">
         <v>0.9842761149165067</v>
       </c>
-      <c r="J19">
-        <v>0.9838885254766885</v>
-      </c>
-      <c r="K19">
-        <v>1.006346834790641</v>
-      </c>
-      <c r="L19">
-        <v>0.9947040013074299</v>
-      </c>
-      <c r="M19">
-        <v>0.9908136732336565</v>
-      </c>
-      <c r="N19">
-        <v>0.9842761149165067</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.02184816334801</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.002868344412349</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.008776361808719</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9966709345804018</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000480416364709</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9966709345804018</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.996429341002658</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9939986957854277</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9983394742106575</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002956515693745</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="D3">
-        <v>1.002956515693745</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="E3">
-        <v>0.9989043638103726</v>
+        <v>0.9909615294092227</v>
       </c>
       <c r="F3">
-        <v>1.00336911025281</v>
+        <v>1.022785186073484</v>
       </c>
       <c r="G3">
-        <v>1.002067388517224</v>
+        <v>1.04092569606628</v>
       </c>
       <c r="H3">
-        <v>0.9934013853166581</v>
+        <v>0.9437325355835745</v>
       </c>
       <c r="I3">
-        <v>0.9869969083045339</v>
+        <v>0.9064381348948128</v>
       </c>
       <c r="J3">
-        <v>0.9999992269728181</v>
+        <v>0.9704008977161396</v>
       </c>
       <c r="K3">
-        <v>1.003832373476865</v>
+        <v>0.9879531479683007</v>
       </c>
       <c r="L3">
-        <v>0.9869969083045339</v>
+        <v>0.9064381348948128</v>
       </c>
       <c r="M3">
-        <v>1.002956515693745</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="N3">
-        <v>1.002956515693745</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="O3">
-        <v>1.003832373476865</v>
+        <v>0.9879531479683007</v>
       </c>
       <c r="P3">
-        <v>0.9954146408906994</v>
+        <v>0.9471956414315568</v>
       </c>
       <c r="Q3">
-        <v>1.001368368643619</v>
+        <v>0.9894573386887617</v>
       </c>
       <c r="R3">
-        <v>0.9979285991583812</v>
+        <v>0.9942076705437074</v>
       </c>
       <c r="S3">
-        <v>0.9965778818639238</v>
+        <v>0.9617842707574454</v>
       </c>
       <c r="T3">
-        <v>0.9979285991583812</v>
+        <v>0.9942076705437074</v>
       </c>
       <c r="U3">
-        <v>0.998172540321379</v>
+        <v>0.9933961352600862</v>
       </c>
       <c r="V3">
-        <v>0.9991293353958521</v>
+        <v>1.012363253961671</v>
       </c>
       <c r="W3">
-        <v>0.9989409090431283</v>
+        <v>0.9939286070599778</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006016893639718</v>
+        <v>1.079571792629526</v>
       </c>
       <c r="D4">
-        <v>1.006016893639718</v>
+        <v>1.079571792629526</v>
       </c>
       <c r="E4">
-        <v>0.9978123720790359</v>
+        <v>0.9915669413622812</v>
       </c>
       <c r="F4">
-        <v>1.006504986394483</v>
+        <v>1.020873192679841</v>
       </c>
       <c r="G4">
-        <v>1.004027148601372</v>
+        <v>1.036753575732389</v>
       </c>
       <c r="H4">
-        <v>0.9873367247666035</v>
+        <v>0.9489935790439757</v>
       </c>
       <c r="I4">
-        <v>0.9752956389863869</v>
+        <v>0.9154421956816993</v>
       </c>
       <c r="J4">
-        <v>0.9997965502323951</v>
+        <v>0.9732974158991781</v>
       </c>
       <c r="K4">
-        <v>1.007232664875254</v>
+        <v>0.9896310549422274</v>
       </c>
       <c r="L4">
-        <v>0.9752956389863869</v>
+        <v>0.9154421956816993</v>
       </c>
       <c r="M4">
-        <v>1.006016893639718</v>
+        <v>1.079571792629526</v>
       </c>
       <c r="N4">
-        <v>1.006016893639718</v>
+        <v>1.079571792629526</v>
       </c>
       <c r="O4">
-        <v>1.007232664875254</v>
+        <v>0.9896310549422274</v>
       </c>
       <c r="P4">
-        <v>0.9912641519308206</v>
+        <v>0.9525366253119634</v>
       </c>
       <c r="Q4">
-        <v>1.002522518477145</v>
+        <v>0.9905989981522543</v>
       </c>
       <c r="R4">
-        <v>0.9961817325004532</v>
+        <v>0.9948816810844843</v>
       </c>
       <c r="S4">
-        <v>0.9934468919802257</v>
+        <v>0.9655467306620693</v>
       </c>
       <c r="T4">
-        <v>0.9961817325004532</v>
+        <v>0.9948816810844842</v>
       </c>
       <c r="U4">
-        <v>0.9965893923950988</v>
+        <v>0.9940529961539334</v>
       </c>
       <c r="V4">
-        <v>0.9984748926440226</v>
+        <v>1.011156755449052</v>
       </c>
       <c r="W4">
-        <v>0.9980028724469061</v>
+        <v>0.9945162184963896</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011312838154048</v>
+        <v>1.105514154016173</v>
       </c>
       <c r="D5">
-        <v>1.011312838154048</v>
+        <v>1.105514154016173</v>
       </c>
       <c r="E5">
-        <v>0.9959928421298179</v>
+        <v>0.9897097431536388</v>
       </c>
       <c r="F5">
-        <v>1.012361298605362</v>
+        <v>1.026499006927224</v>
       </c>
       <c r="G5">
-        <v>1.00781371654569</v>
+        <v>1.049103990781671</v>
       </c>
       <c r="H5">
-        <v>0.975689755795913</v>
+        <v>0.9334767550943399</v>
       </c>
       <c r="I5">
-        <v>0.952217909665286</v>
+        <v>0.8890352064851755</v>
       </c>
       <c r="J5">
-        <v>0.9997715883621379</v>
+        <v>0.9646218533962245</v>
       </c>
       <c r="K5">
-        <v>1.013789444209849</v>
+        <v>0.984517451509433</v>
       </c>
       <c r="L5">
-        <v>0.952217909665286</v>
+        <v>0.8890352064851755</v>
       </c>
       <c r="M5">
-        <v>1.011312838154048</v>
+        <v>1.105514154016173</v>
       </c>
       <c r="N5">
-        <v>1.011312838154048</v>
+        <v>1.105514154016173</v>
       </c>
       <c r="O5">
-        <v>1.013789444209849</v>
+        <v>0.984517451509433</v>
       </c>
       <c r="P5">
-        <v>0.9830036769375674</v>
+        <v>0.9367763289973043</v>
       </c>
       <c r="Q5">
-        <v>1.004891143169834</v>
+        <v>0.9871135973315359</v>
       </c>
       <c r="R5">
-        <v>0.9924400640097275</v>
+        <v>0.9930222706702606</v>
       </c>
       <c r="S5">
-        <v>0.9873333986683175</v>
+        <v>0.9544208003827492</v>
       </c>
       <c r="T5">
-        <v>0.9924400640097276</v>
+        <v>0.9930222706702606</v>
       </c>
       <c r="U5">
-        <v>0.9933282585397503</v>
+        <v>0.9921941387911051</v>
       </c>
       <c r="V5">
-        <v>0.9969251744626098</v>
+        <v>1.014858141836119</v>
       </c>
       <c r="W5">
-        <v>0.996118674183513</v>
+        <v>0.992809770170485</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.01732324580489</v>
+        <v>1.122645174090909</v>
       </c>
       <c r="D6">
-        <v>1.01732324580489</v>
+        <v>1.122645174090909</v>
       </c>
       <c r="E6">
-        <v>0.9939570538572485</v>
+        <v>0.988419609772727</v>
       </c>
       <c r="F6">
-        <v>1.017758024603245</v>
+        <v>1.030064990795454</v>
       </c>
       <c r="G6">
-        <v>1.011233696438057</v>
+        <v>1.05704326465909</v>
       </c>
       <c r="H6">
-        <v>0.9642637848614346</v>
+        <v>0.9235864281818185</v>
       </c>
       <c r="I6">
-        <v>0.929668471180939</v>
+        <v>0.8724255391250005</v>
       </c>
       <c r="J6">
-        <v>1.000142054010323</v>
+        <v>0.9588950932954545</v>
       </c>
       <c r="K6">
-        <v>1.020171649120035</v>
+        <v>0.9810132321022733</v>
       </c>
       <c r="L6">
-        <v>0.929668471180939</v>
+        <v>0.8724255391250005</v>
       </c>
       <c r="M6">
-        <v>1.01732324580489</v>
+        <v>1.122645174090909</v>
       </c>
       <c r="N6">
-        <v>1.01732324580489</v>
+        <v>1.122645174090909</v>
       </c>
       <c r="O6">
-        <v>1.020171649120035</v>
+        <v>0.9810132321022733</v>
       </c>
       <c r="P6">
-        <v>0.9749200601504868</v>
+        <v>0.9267193856136369</v>
       </c>
       <c r="Q6">
-        <v>1.007064351488641</v>
+        <v>0.9847164209375001</v>
       </c>
       <c r="R6">
-        <v>0.9890544553686214</v>
+        <v>0.9920279817727277</v>
       </c>
       <c r="S6">
-        <v>0.9812657247194073</v>
+        <v>0.9472861270000003</v>
       </c>
       <c r="T6">
-        <v>0.9890544553686212</v>
+        <v>0.9920279817727278</v>
       </c>
       <c r="U6">
-        <v>0.990280104990778</v>
+        <v>0.9911258887727276</v>
       </c>
       <c r="V6">
-        <v>0.9956887331536004</v>
+        <v>1.017429745836364</v>
       </c>
       <c r="W6">
-        <v>0.9943147474845215</v>
+        <v>0.9917616665028409</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.0008708982998</v>
+        <v>1.397085350797461</v>
       </c>
       <c r="D7">
-        <v>1.0008708982998</v>
+        <v>1.397085350797461</v>
       </c>
       <c r="E7">
-        <v>0.9999329075164985</v>
+        <v>0.9358495141405242</v>
       </c>
       <c r="F7">
-        <v>1.000164127330511</v>
+        <v>1.025247703123689</v>
       </c>
       <c r="G7">
-        <v>1.000387199837107</v>
+        <v>1.090009836293927</v>
       </c>
       <c r="H7">
-        <v>0.9995362526252539</v>
+        <v>0.9295540436267298</v>
       </c>
       <c r="I7">
-        <v>0.9992412515377891</v>
+        <v>1.01102800969056</v>
       </c>
       <c r="J7">
-        <v>0.9997047074823391</v>
+        <v>0.8523959388414133</v>
       </c>
       <c r="K7">
-        <v>0.9997991618690032</v>
+        <v>0.868963578548655</v>
       </c>
       <c r="L7">
-        <v>0.9992412515377891</v>
+        <v>1.01102800969056</v>
       </c>
       <c r="M7">
-        <v>1.0008708982998</v>
+        <v>1.397085350797461</v>
       </c>
       <c r="N7">
-        <v>1.0008708982998</v>
+        <v>1.397085350797461</v>
       </c>
       <c r="O7">
-        <v>0.9997991618690032</v>
+        <v>0.868963578548655</v>
       </c>
       <c r="P7">
-        <v>0.9995202067033961</v>
+        <v>0.9399957941196073</v>
       </c>
       <c r="Q7">
-        <v>0.9998660346927508</v>
+        <v>0.9024065463445896</v>
       </c>
       <c r="R7">
-        <v>0.9999704372355308</v>
+        <v>1.092358979678892</v>
       </c>
       <c r="S7">
-        <v>0.999657773641097</v>
+        <v>0.9386137007932462</v>
       </c>
       <c r="T7">
-        <v>0.9999704372355307</v>
+        <v>1.092358979678892</v>
       </c>
       <c r="U7">
-        <v>0.9999610548057727</v>
+        <v>1.0532316132943</v>
       </c>
       <c r="V7">
-        <v>1.000143023504578</v>
+        <v>1.122002360794932</v>
       </c>
       <c r="W7">
-        <v>0.9999545633122876</v>
+        <v>1.01376674688287</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002661933091686</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="D8">
-        <v>1.002661933091686</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="E8">
-        <v>0.9997384173394929</v>
+        <v>0.9355151632165263</v>
       </c>
       <c r="F8">
-        <v>1.00051383515951</v>
+        <v>1.026165493438321</v>
       </c>
       <c r="G8">
-        <v>1.001118629263254</v>
+        <v>1.091641389853606</v>
       </c>
       <c r="H8">
-        <v>0.9986159617837161</v>
+        <v>0.9271796133506524</v>
       </c>
       <c r="I8">
-        <v>0.9978385087582404</v>
+        <v>1.006839268817642</v>
       </c>
       <c r="J8">
-        <v>0.9990988565145386</v>
+        <v>0.8513589182185937</v>
       </c>
       <c r="K8">
-        <v>0.9994265087688696</v>
+        <v>0.8685884042816097</v>
       </c>
       <c r="L8">
-        <v>0.9978385087582404</v>
+        <v>1.006839268817642</v>
       </c>
       <c r="M8">
-        <v>1.002661933091686</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="N8">
-        <v>1.002661933091686</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="O8">
-        <v>0.9994265087688696</v>
+        <v>0.8685884042816097</v>
       </c>
       <c r="P8">
-        <v>0.998632508763555</v>
+        <v>0.9377138365496258</v>
       </c>
       <c r="Q8">
-        <v>0.9995824630541812</v>
+        <v>0.902051783749068</v>
       </c>
       <c r="R8">
-        <v>0.9999756502062654</v>
+        <v>1.091997891711481</v>
       </c>
       <c r="S8">
-        <v>0.9990011449555344</v>
+        <v>0.9369809454385926</v>
       </c>
       <c r="T8">
-        <v>0.9999756502062654</v>
+        <v>1.091997891711481</v>
       </c>
       <c r="U8">
-        <v>0.9999163419895724</v>
+        <v>1.052877209587742</v>
       </c>
       <c r="V8">
-        <v>1.000465460209995</v>
+        <v>1.122414968077231</v>
       </c>
       <c r="W8">
-        <v>0.9998765813349135</v>
+        <v>1.013481781651518</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004572544922851</v>
+        <v>1.401560432755857</v>
       </c>
       <c r="D9">
-        <v>1.004572544922851</v>
+        <v>1.401560432755857</v>
       </c>
       <c r="E9">
-        <v>0.999426481019796</v>
+        <v>0.9355553323442947</v>
       </c>
       <c r="F9">
-        <v>1.000826679798017</v>
+        <v>1.026829955751654</v>
       </c>
       <c r="G9">
-        <v>1.001663148757902</v>
+        <v>1.092647165189164</v>
       </c>
       <c r="H9">
-        <v>0.9978368948471185</v>
+        <v>0.9255925301749033</v>
       </c>
       <c r="I9">
-        <v>0.9968152682467116</v>
+        <v>1.003584024115259</v>
       </c>
       <c r="J9">
-        <v>0.9985191782112194</v>
+        <v>0.8510417715217145</v>
       </c>
       <c r="K9">
-        <v>0.9991023983159563</v>
+        <v>0.8688101861128837</v>
       </c>
       <c r="L9">
-        <v>0.9968152682467116</v>
+        <v>1.003584024115259</v>
       </c>
       <c r="M9">
-        <v>1.004572544922851</v>
+        <v>1.401560432755857</v>
       </c>
       <c r="N9">
-        <v>1.004572544922851</v>
+        <v>1.401560432755857</v>
       </c>
       <c r="O9">
-        <v>0.9991023983159563</v>
+        <v>0.8688101861128837</v>
       </c>
       <c r="P9">
-        <v>0.9979588332813339</v>
+        <v>0.9361971051140716</v>
       </c>
       <c r="Q9">
-        <v>0.9992644396678761</v>
+        <v>0.9021827592285891</v>
       </c>
       <c r="R9">
-        <v>1.000163403828506</v>
+        <v>1.091318214328</v>
       </c>
       <c r="S9">
-        <v>0.9984480491941546</v>
+        <v>0.9359831808574793</v>
       </c>
       <c r="T9">
-        <v>1.000163403828506</v>
+        <v>1.091318214328</v>
       </c>
       <c r="U9">
-        <v>0.9999791731263287</v>
+        <v>1.052377493832074</v>
       </c>
       <c r="V9">
-        <v>1.000897847485633</v>
+        <v>1.12221408161683</v>
       </c>
       <c r="W9">
-        <v>0.9998453242649463</v>
+        <v>1.013202674745716</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.008944120282477</v>
+        <v>1.416496323569203</v>
       </c>
       <c r="D10">
-        <v>1.008944120282477</v>
+        <v>1.416496323569203</v>
       </c>
       <c r="E10">
-        <v>0.9989887400122766</v>
+        <v>0.9332201920360298</v>
       </c>
       <c r="F10">
-        <v>1.001684981202122</v>
+        <v>1.030578759326016</v>
       </c>
       <c r="G10">
-        <v>1.003475647236108</v>
+        <v>1.098179473692131</v>
       </c>
       <c r="H10">
-        <v>0.9955145836906326</v>
+        <v>0.9167874632561844</v>
       </c>
       <c r="I10">
-        <v>0.9930958968393968</v>
+        <v>0.9897901237264255</v>
       </c>
       <c r="J10">
-        <v>0.9970971378349336</v>
+        <v>0.8465835606836754</v>
       </c>
       <c r="K10">
-        <v>0.9982369127921441</v>
+        <v>0.8676281182485149</v>
       </c>
       <c r="L10">
-        <v>0.9930958968393968</v>
+        <v>0.9897901237264255</v>
       </c>
       <c r="M10">
-        <v>1.008944120282477</v>
+        <v>1.416496323569203</v>
       </c>
       <c r="N10">
-        <v>1.008944120282477</v>
+        <v>1.416496323569203</v>
       </c>
       <c r="O10">
-        <v>0.9982369127921441</v>
+        <v>0.8676281182485149</v>
       </c>
       <c r="P10">
-        <v>0.9956664048157704</v>
+        <v>0.9287091209874703</v>
       </c>
       <c r="Q10">
-        <v>0.9986128264022103</v>
+        <v>0.9004241551422724</v>
       </c>
       <c r="R10">
-        <v>1.000092309971339</v>
+        <v>1.091304855181381</v>
       </c>
       <c r="S10">
-        <v>0.9967738498812725</v>
+        <v>0.9302128113369901</v>
       </c>
       <c r="T10">
-        <v>1.000092309971339</v>
+        <v>1.091304855181381</v>
       </c>
       <c r="U10">
-        <v>0.9998164174815736</v>
+        <v>1.051783689395043</v>
       </c>
       <c r="V10">
-        <v>1.001641958041754</v>
+        <v>1.124726216229875</v>
       </c>
       <c r="W10">
-        <v>0.9996297524862612</v>
+        <v>1.012408001817272</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.017133997421867</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="D11">
-        <v>1.017133997421867</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="E11">
-        <v>0.9979216079872988</v>
+        <v>0.9983867570646217</v>
       </c>
       <c r="F11">
-        <v>1.002949716216169</v>
+        <v>1.003489437365741</v>
       </c>
       <c r="G11">
-        <v>1.006231951801949</v>
+        <v>1.002698739995631</v>
       </c>
       <c r="H11">
-        <v>0.9920939701832984</v>
+        <v>0.9930097509751052</v>
       </c>
       <c r="I11">
-        <v>0.9884218430270313</v>
+        <v>0.9874142764490363</v>
       </c>
       <c r="J11">
-        <v>0.9944335533590142</v>
+        <v>0.9988348833777717</v>
       </c>
       <c r="K11">
-        <v>0.996396636037419</v>
+        <v>1.00268061970699</v>
       </c>
       <c r="L11">
-        <v>0.9884218430270313</v>
+        <v>0.9874142764490363</v>
       </c>
       <c r="M11">
-        <v>1.017133997421867</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="N11">
-        <v>1.017133997421867</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="O11">
-        <v>0.996396636037419</v>
+        <v>1.00268061970699</v>
       </c>
       <c r="P11">
-        <v>0.9924092395322252</v>
+        <v>0.995047448078013</v>
       </c>
       <c r="Q11">
-        <v>0.9971591220123589</v>
+        <v>1.000533688385806</v>
       </c>
       <c r="R11">
-        <v>1.000650825495439</v>
+        <v>0.9987370252380976</v>
       </c>
       <c r="S11">
-        <v>0.9942466956839163</v>
+        <v>0.9961605510735492</v>
       </c>
       <c r="T11">
-        <v>1.000650825495439</v>
+        <v>0.9987370252380976</v>
       </c>
       <c r="U11">
-        <v>0.9999685211184042</v>
+        <v>0.9986494581947286</v>
       </c>
       <c r="V11">
-        <v>1.003401616379097</v>
+        <v>1.000142802467436</v>
       </c>
       <c r="W11">
-        <v>0.9994479095042559</v>
+        <v>0.9990788305616454</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8743057963633019</v>
+        <v>1.00329510430566</v>
       </c>
       <c r="D12">
-        <v>0.8743057963633019</v>
+        <v>1.00329510430566</v>
       </c>
       <c r="E12">
-        <v>1.063588675254941</v>
+        <v>0.9990358758930508</v>
       </c>
       <c r="F12">
-        <v>0.9311903311937384</v>
+        <v>1.002084396055287</v>
       </c>
       <c r="G12">
-        <v>0.9846354010220275</v>
+        <v>1.001497928567924</v>
       </c>
       <c r="H12">
-        <v>1.090384057009017</v>
+        <v>0.9959940662828475</v>
       </c>
       <c r="I12">
-        <v>1.077848287530474</v>
+        <v>0.9929276495176913</v>
       </c>
       <c r="J12">
-        <v>1.045309007642355</v>
+        <v>0.9993099248124997</v>
       </c>
       <c r="K12">
-        <v>0.9423442047973815</v>
+        <v>1.001708765383236</v>
       </c>
       <c r="L12">
-        <v>1.077848287530474</v>
+        <v>0.9929276495176913</v>
       </c>
       <c r="M12">
-        <v>0.8743057963633019</v>
+        <v>1.00329510430566</v>
       </c>
       <c r="N12">
-        <v>0.8743057963633019</v>
+        <v>1.00329510430566</v>
       </c>
       <c r="O12">
-        <v>0.9423442047973815</v>
+        <v>1.001708765383236</v>
       </c>
       <c r="P12">
-        <v>1.010096246163928</v>
+        <v>0.9973182074504635</v>
       </c>
       <c r="Q12">
-        <v>1.002966440026162</v>
+        <v>1.000372320638143</v>
       </c>
       <c r="R12">
-        <v>0.9648327628970526</v>
+        <v>0.9993105064021958</v>
       </c>
       <c r="S12">
-        <v>1.027927055860933</v>
+        <v>0.9978907635979927</v>
       </c>
       <c r="T12">
-        <v>0.9648327628970526</v>
+        <v>0.9993105064021958</v>
       </c>
       <c r="U12">
-        <v>0.9895217409865248</v>
+        <v>0.9992418487749095</v>
       </c>
       <c r="V12">
-        <v>0.9664785520618802</v>
+        <v>1.00005249988106</v>
       </c>
       <c r="W12">
-        <v>1.001200720101655</v>
+        <v>0.9994817138522745</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004824134484926</v>
+        <v>1.011701827713886</v>
       </c>
       <c r="D13">
-        <v>1.004824134484926</v>
+        <v>1.011701827713886</v>
       </c>
       <c r="E13">
-        <v>0.966640151501355</v>
+        <v>0.9962666714180843</v>
       </c>
       <c r="F13">
-        <v>1.007839094371018</v>
+        <v>1.008563659595781</v>
       </c>
       <c r="G13">
-        <v>0.9624409191507911</v>
+        <v>1.005737950233119</v>
       </c>
       <c r="H13">
-        <v>1.024858044456502</v>
+        <v>0.9838219198303358</v>
       </c>
       <c r="I13">
-        <v>1.109876416108743</v>
+        <v>0.9709545731225906</v>
       </c>
       <c r="J13">
-        <v>0.9915174289986017</v>
+        <v>0.9977528622037043</v>
       </c>
       <c r="K13">
-        <v>1.025922240914058</v>
+        <v>1.007700965341285</v>
       </c>
       <c r="L13">
-        <v>1.109876416108743</v>
+        <v>0.9709545731225906</v>
       </c>
       <c r="M13">
-        <v>1.004824134484926</v>
+        <v>1.011701827713886</v>
       </c>
       <c r="N13">
-        <v>1.004824134484926</v>
+        <v>1.011701827713886</v>
       </c>
       <c r="O13">
-        <v>1.025922240914058</v>
+        <v>1.007700965341285</v>
       </c>
       <c r="P13">
-        <v>1.067899328511401</v>
+        <v>0.989327769231938</v>
       </c>
       <c r="Q13">
-        <v>0.9962811962077067</v>
+        <v>1.001983818379685</v>
       </c>
       <c r="R13">
-        <v>1.046874263835909</v>
+        <v>0.9967857887259206</v>
       </c>
       <c r="S13">
-        <v>1.034146269508052</v>
+        <v>0.99164073662732</v>
       </c>
       <c r="T13">
-        <v>1.046874263835909</v>
+        <v>0.9967857887259206</v>
       </c>
       <c r="U13">
-        <v>1.026815735752271</v>
+        <v>0.9966560093989616</v>
       </c>
       <c r="V13">
-        <v>1.022417415498802</v>
+        <v>0.9996651730619466</v>
       </c>
       <c r="W13">
-        <v>1.011739803748249</v>
+        <v>0.9978125536823482</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9087880591994199</v>
+        <v>1.008629093430553</v>
       </c>
       <c r="D14">
-        <v>0.9087880591994199</v>
+        <v>1.008629093430553</v>
       </c>
       <c r="E14">
-        <v>0.838933621594107</v>
+        <v>0.9968071814429053</v>
       </c>
       <c r="F14">
-        <v>1.300853129480476</v>
+        <v>1.009500917325926</v>
       </c>
       <c r="G14">
-        <v>0.9679033127066247</v>
+        <v>1.005873886731965</v>
       </c>
       <c r="H14">
-        <v>0.6212119471671718</v>
+        <v>0.9816106247059531</v>
       </c>
       <c r="I14">
-        <v>0.3997616772347007</v>
+        <v>0.9642737839352749</v>
       </c>
       <c r="J14">
-        <v>1.052605284117847</v>
+        <v>0.9996365725883191</v>
       </c>
       <c r="K14">
-        <v>1.511779163827498</v>
+        <v>1.010509552447093</v>
       </c>
       <c r="L14">
-        <v>0.3997616772347007</v>
+        <v>0.9642737839352749</v>
       </c>
       <c r="M14">
-        <v>0.9087880591994199</v>
+        <v>1.008629093430553</v>
       </c>
       <c r="N14">
-        <v>0.9087880591994199</v>
+        <v>1.008629093430553</v>
       </c>
       <c r="O14">
-        <v>1.511779163827498</v>
+        <v>1.010509552447093</v>
       </c>
       <c r="P14">
-        <v>0.9557704205310995</v>
+        <v>0.9873916681911838</v>
       </c>
       <c r="Q14">
-        <v>1.175356392710803</v>
+        <v>1.003658366944999</v>
       </c>
       <c r="R14">
-        <v>0.9401096334205397</v>
+        <v>0.9944708099376403</v>
       </c>
       <c r="S14">
-        <v>0.9168248208854353</v>
+        <v>0.9905301726084242</v>
       </c>
       <c r="T14">
-        <v>0.9401096334205397</v>
+        <v>0.9944708099376403</v>
       </c>
       <c r="U14">
-        <v>0.9148156304639314</v>
+        <v>0.9950549028139565</v>
       </c>
       <c r="V14">
-        <v>0.9136101162110292</v>
+        <v>0.9977697409372757</v>
       </c>
       <c r="W14">
-        <v>0.9502295244159807</v>
+        <v>0.9971052015759985</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.221534064635412</v>
+        <v>1.002956515693745</v>
       </c>
       <c r="D15">
-        <v>1.221534064635412</v>
+        <v>1.002956515693745</v>
       </c>
       <c r="E15">
-        <v>1.032031689822053</v>
+        <v>0.9989043638103726</v>
       </c>
       <c r="F15">
-        <v>0.9689806783205963</v>
+        <v>1.00336911025281</v>
       </c>
       <c r="G15">
-        <v>1.108543999367504</v>
+        <v>1.002067388517224</v>
       </c>
       <c r="H15">
-        <v>0.962826678194716</v>
+        <v>0.9934013853166581</v>
       </c>
       <c r="I15">
-        <v>0.8981189257257405</v>
+        <v>0.9869969083045339</v>
       </c>
       <c r="J15">
-        <v>0.9297425911601358</v>
+        <v>0.9999992269728181</v>
       </c>
       <c r="K15">
-        <v>0.8338698244311145</v>
+        <v>1.003832373476865</v>
       </c>
       <c r="L15">
-        <v>0.8981189257257405</v>
+        <v>0.9869969083045339</v>
       </c>
       <c r="M15">
-        <v>1.221534064635412</v>
+        <v>1.002956515693745</v>
       </c>
       <c r="N15">
-        <v>1.221534064635412</v>
+        <v>1.002956515693745</v>
       </c>
       <c r="O15">
-        <v>0.8338698244311145</v>
+        <v>1.003832373476865</v>
       </c>
       <c r="P15">
-        <v>0.8659943750784275</v>
+        <v>0.9954146408906994</v>
       </c>
       <c r="Q15">
-        <v>0.9329507571265836</v>
+        <v>1.001368368643619</v>
       </c>
       <c r="R15">
-        <v>0.9845076049307556</v>
+        <v>0.9979285991583812</v>
       </c>
       <c r="S15">
-        <v>0.9213401466596359</v>
+        <v>0.9965778818639238</v>
       </c>
       <c r="T15">
-        <v>0.9845076049307556</v>
+        <v>0.9979285991583812</v>
       </c>
       <c r="U15">
-        <v>0.9963886261535799</v>
+        <v>0.998172540321379</v>
       </c>
       <c r="V15">
-        <v>1.041417713849946</v>
+        <v>0.9991293353958521</v>
       </c>
       <c r="W15">
-        <v>0.994456056457159</v>
+        <v>0.9989409090431283</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.063186583948774</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="D16">
-        <v>1.063186583948774</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="E16">
-        <v>0.9765450023083503</v>
+        <v>0.9978123720790359</v>
       </c>
       <c r="F16">
-        <v>1.066471066128814</v>
+        <v>1.006504986394483</v>
       </c>
       <c r="G16">
-        <v>1.040699364707289</v>
+        <v>1.004027148601372</v>
       </c>
       <c r="H16">
-        <v>0.8725491750273999</v>
+        <v>0.9873367247666035</v>
       </c>
       <c r="I16">
-        <v>0.7551988162401087</v>
+        <v>0.9752956389863869</v>
       </c>
       <c r="J16">
-        <v>0.9957266857953674</v>
+        <v>0.9997965502323951</v>
       </c>
       <c r="K16">
-        <v>1.072272029962238</v>
+        <v>1.007232664875254</v>
       </c>
       <c r="L16">
-        <v>0.7551988162401087</v>
+        <v>0.9752956389863869</v>
       </c>
       <c r="M16">
-        <v>1.063186583948774</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="N16">
-        <v>1.063186583948774</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="O16">
-        <v>1.072272029962238</v>
+        <v>1.007232664875254</v>
       </c>
       <c r="P16">
-        <v>0.9137354231011732</v>
+        <v>0.9912641519308206</v>
       </c>
       <c r="Q16">
-        <v>1.024408516135294</v>
+        <v>1.002522518477145</v>
       </c>
       <c r="R16">
-        <v>0.9635524767170401</v>
+        <v>0.9961817325004532</v>
       </c>
       <c r="S16">
-        <v>0.9346719495035655</v>
+        <v>0.9934468919802257</v>
       </c>
       <c r="T16">
-        <v>0.9635524767170401</v>
+        <v>0.9961817325004532</v>
       </c>
       <c r="U16">
-        <v>0.9668006081148677</v>
+        <v>0.9965893923950988</v>
       </c>
       <c r="V16">
-        <v>0.9860778032816491</v>
+        <v>0.9984748926440226</v>
       </c>
       <c r="W16">
-        <v>0.9803310905147926</v>
+        <v>0.9980028724469061</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.066795255109263</v>
+        <v>1.011312838154048</v>
       </c>
       <c r="D17">
-        <v>1.066795255109263</v>
+        <v>1.011312838154048</v>
       </c>
       <c r="E17">
-        <v>0.9816246153232024</v>
+        <v>0.9959928421298179</v>
       </c>
       <c r="F17">
-        <v>1.050862880304247</v>
+        <v>1.012361298605362</v>
       </c>
       <c r="G17">
-        <v>1.038399743003107</v>
+        <v>1.00781371654569</v>
       </c>
       <c r="H17">
-        <v>0.8992036782819388</v>
+        <v>0.975689755795913</v>
       </c>
       <c r="I17">
-        <v>0.8106858539714256</v>
+        <v>0.952217909665286</v>
       </c>
       <c r="J17">
-        <v>0.9888976860964304</v>
+        <v>0.9997715883621379</v>
       </c>
       <c r="K17">
-        <v>1.045142227259643</v>
+        <v>1.013789444209849</v>
       </c>
       <c r="L17">
-        <v>0.8106858539714256</v>
+        <v>0.952217909665286</v>
       </c>
       <c r="M17">
-        <v>1.066795255109263</v>
+        <v>1.011312838154048</v>
       </c>
       <c r="N17">
-        <v>1.066795255109263</v>
+        <v>1.011312838154048</v>
       </c>
       <c r="O17">
-        <v>1.045142227259643</v>
+        <v>1.013789444209849</v>
       </c>
       <c r="P17">
-        <v>0.9279140406155344</v>
+        <v>0.9830036769375674</v>
       </c>
       <c r="Q17">
-        <v>1.013383421291423</v>
+        <v>1.004891143169834</v>
       </c>
       <c r="R17">
-        <v>0.9742077787801108</v>
+        <v>0.9924400640097275</v>
       </c>
       <c r="S17">
-        <v>0.9458175655180904</v>
+        <v>0.9873333986683175</v>
       </c>
       <c r="T17">
-        <v>0.9742077787801108</v>
+        <v>0.9924400640097276</v>
       </c>
       <c r="U17">
-        <v>0.9760619879158836</v>
+        <v>0.9933282585397503</v>
       </c>
       <c r="V17">
-        <v>0.9942086413545596</v>
+        <v>0.9969251744626098</v>
       </c>
       <c r="W17">
-        <v>0.9852014924186572</v>
+        <v>0.996118674183513</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.074440647955978</v>
+        <v>1.01732324580489</v>
       </c>
       <c r="D18">
-        <v>1.074440647955978</v>
+        <v>1.01732324580489</v>
       </c>
       <c r="E18">
-        <v>0.991550630818366</v>
+        <v>0.9939570538572485</v>
       </c>
       <c r="F18">
-        <v>1.019830056770532</v>
+        <v>1.017758024603245</v>
       </c>
       <c r="G18">
-        <v>1.033755349226515</v>
+        <v>1.011233696438057</v>
       </c>
       <c r="H18">
-        <v>0.9522587959098618</v>
+        <v>0.9642637848614346</v>
       </c>
       <c r="I18">
-        <v>0.9214083672947762</v>
+        <v>0.929668471180939</v>
       </c>
       <c r="J18">
-        <v>0.9751845801821827</v>
+        <v>1.000142054010323</v>
       </c>
       <c r="K18">
-        <v>0.9911069354233498</v>
+        <v>1.020171649120035</v>
       </c>
       <c r="L18">
-        <v>0.9214083672947762</v>
+        <v>0.929668471180939</v>
       </c>
       <c r="M18">
-        <v>1.074440647955978</v>
+        <v>1.01732324580489</v>
       </c>
       <c r="N18">
-        <v>1.074440647955978</v>
+        <v>1.01732324580489</v>
       </c>
       <c r="O18">
-        <v>0.9911069354233498</v>
+        <v>1.020171649120035</v>
       </c>
       <c r="P18">
-        <v>0.956257651359063</v>
+        <v>0.9749200601504868</v>
       </c>
       <c r="Q18">
-        <v>0.9913287831208579</v>
+        <v>1.007064351488641</v>
       </c>
       <c r="R18">
-        <v>0.9956519835580346</v>
+        <v>0.9890544553686214</v>
       </c>
       <c r="S18">
-        <v>0.9680219778454974</v>
+        <v>0.9812657247194073</v>
       </c>
       <c r="T18">
-        <v>0.9956519835580346</v>
+        <v>0.9890544553686212</v>
       </c>
       <c r="U18">
-        <v>0.9946266453731175</v>
+        <v>0.990280104990778</v>
       </c>
       <c r="V18">
-        <v>1.01058944588969</v>
+        <v>0.9956887331536004</v>
       </c>
       <c r="W18">
-        <v>0.9949419204476952</v>
+        <v>0.9943147474845215</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.081921996020512</v>
+        <v>1.0008708982998</v>
       </c>
       <c r="D19">
-        <v>1.081921996020512</v>
+        <v>1.0008708982998</v>
       </c>
       <c r="E19">
-        <v>0.9970793604319512</v>
+        <v>0.9999329075164985</v>
       </c>
       <c r="F19">
-        <v>1.016643847264671</v>
+        <v>1.000164127330511</v>
       </c>
       <c r="G19">
-        <v>1.042086876695466</v>
+        <v>1.000387199837107</v>
       </c>
       <c r="H19">
-        <v>0.9499456887121231</v>
+        <v>0.9995362526252539</v>
       </c>
       <c r="I19">
-        <v>0.9092074729069566</v>
+        <v>0.9992412515377891</v>
       </c>
       <c r="J19">
-        <v>0.972977254368005</v>
+        <v>0.9997047074823391</v>
       </c>
       <c r="K19">
-        <v>0.9801227376046059</v>
+        <v>0.9997991618690032</v>
       </c>
       <c r="L19">
-        <v>0.9092074729069566</v>
+        <v>0.9992412515377891</v>
       </c>
       <c r="M19">
-        <v>1.081921996020512</v>
+        <v>1.0008708982998</v>
       </c>
       <c r="N19">
-        <v>1.081921996020512</v>
+        <v>1.0008708982998</v>
       </c>
       <c r="O19">
-        <v>0.9801227376046059</v>
+        <v>0.9997991618690032</v>
       </c>
       <c r="P19">
-        <v>0.9446651052557813</v>
+        <v>0.9995202067033961</v>
       </c>
       <c r="Q19">
-        <v>0.9886010490182786</v>
+        <v>0.9998660346927508</v>
       </c>
       <c r="R19">
-        <v>0.9904174021773583</v>
+        <v>0.9999704372355308</v>
       </c>
       <c r="S19">
-        <v>0.962136523647838</v>
+        <v>0.999657773641097</v>
       </c>
       <c r="T19">
-        <v>0.9904174021773583</v>
+        <v>0.9999704372355307</v>
       </c>
       <c r="U19">
-        <v>0.9920828917410065</v>
+        <v>0.9999610548057727</v>
       </c>
       <c r="V19">
-        <v>1.010050712596908</v>
+        <v>1.000143023504578</v>
       </c>
       <c r="W19">
-        <v>0.9937481542505364</v>
+        <v>0.9999545633122876</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9987642202217908</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="D20">
-        <v>0.9987642202217908</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="E20">
-        <v>0.9997630810529149</v>
+        <v>0.9997384173394929</v>
       </c>
       <c r="F20">
-        <v>1.00048568393452</v>
+        <v>1.00051383515951</v>
       </c>
       <c r="G20">
-        <v>0.9995621495063767</v>
+        <v>1.001118629263254</v>
       </c>
       <c r="H20">
-        <v>0.999673005436208</v>
+        <v>0.9986159617837161</v>
       </c>
       <c r="I20">
-        <v>0.9995232123082503</v>
+        <v>0.9978385087582404</v>
       </c>
       <c r="J20">
-        <v>1.000402119546383</v>
+        <v>0.9990988565145386</v>
       </c>
       <c r="K20">
-        <v>1.001327499115208</v>
+        <v>0.9994265087688696</v>
       </c>
       <c r="L20">
-        <v>0.9995232123082503</v>
+        <v>0.9978385087582404</v>
       </c>
       <c r="M20">
-        <v>0.9987642202217908</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="N20">
-        <v>0.9987642202217908</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="O20">
-        <v>1.001327499115208</v>
+        <v>0.9994265087688696</v>
       </c>
       <c r="P20">
-        <v>1.000425355711729</v>
+        <v>0.998632508763555</v>
       </c>
       <c r="Q20">
-        <v>1.000545290084061</v>
+        <v>0.9995824630541812</v>
       </c>
       <c r="R20">
-        <v>0.9998716438817494</v>
+        <v>0.9999756502062654</v>
       </c>
       <c r="S20">
-        <v>1.000204597492124</v>
+        <v>0.9990011449555344</v>
       </c>
       <c r="T20">
-        <v>0.9998716438817495</v>
+        <v>0.9999756502062654</v>
       </c>
       <c r="U20">
-        <v>0.9998445031745409</v>
+        <v>0.9999163419895724</v>
       </c>
       <c r="V20">
-        <v>0.9996284465839909</v>
+        <v>1.000465460209995</v>
       </c>
       <c r="W20">
-        <v>0.9999376213902064</v>
+        <v>0.9998765813349135</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.002764718166571</v>
+        <v>1.004572544922851</v>
       </c>
       <c r="D21">
-        <v>1.002764718166571</v>
+        <v>1.004572544922851</v>
       </c>
       <c r="E21">
-        <v>1.000355364673734</v>
+        <v>0.999426481019796</v>
       </c>
       <c r="F21">
-        <v>0.9994057223182539</v>
+        <v>1.000826679798017</v>
       </c>
       <c r="G21">
-        <v>1.001140027936693</v>
+        <v>1.001663148757902</v>
       </c>
       <c r="H21">
-        <v>1.000054985268714</v>
+        <v>0.9978368948471185</v>
       </c>
       <c r="I21">
-        <v>0.9999899090123414</v>
+        <v>0.9968152682467116</v>
       </c>
       <c r="J21">
-        <v>0.99901841805952</v>
+        <v>0.9985191782112194</v>
       </c>
       <c r="K21">
-        <v>0.9976740031647002</v>
+        <v>0.9991023983159563</v>
       </c>
       <c r="L21">
-        <v>0.9999899090123414</v>
+        <v>0.9968152682467116</v>
       </c>
       <c r="M21">
-        <v>1.002764718166571</v>
+        <v>1.004572544922851</v>
       </c>
       <c r="N21">
-        <v>1.002764718166571</v>
+        <v>1.004572544922851</v>
       </c>
       <c r="O21">
-        <v>0.9976740031647002</v>
+        <v>0.9991023983159563</v>
       </c>
       <c r="P21">
-        <v>0.9988319560885208</v>
+        <v>0.9979588332813339</v>
       </c>
       <c r="Q21">
-        <v>0.9990146839192171</v>
+        <v>0.9992644396678761</v>
       </c>
       <c r="R21">
-        <v>1.000142876781204</v>
+        <v>1.000163403828506</v>
       </c>
       <c r="S21">
-        <v>0.9993397589502585</v>
+        <v>0.9984480491941546</v>
       </c>
       <c r="T21">
-        <v>1.000142876781204</v>
+        <v>1.000163403828506</v>
       </c>
       <c r="U21">
-        <v>1.000195998754337</v>
+        <v>0.9999791731263287</v>
       </c>
       <c r="V21">
-        <v>1.000709742636783</v>
+        <v>1.000897847485633</v>
       </c>
       <c r="W21">
-        <v>1.000050393575066</v>
+        <v>0.9998453242649463</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9967708190545275</v>
+        <v>1.008944120282477</v>
       </c>
       <c r="D22">
-        <v>0.9967708190545275</v>
+        <v>1.008944120282477</v>
       </c>
       <c r="E22">
-        <v>0.9988455290386092</v>
+        <v>0.9989887400122766</v>
       </c>
       <c r="F22">
-        <v>1.002632602441451</v>
+        <v>1.001684981202122</v>
       </c>
       <c r="G22">
-        <v>0.9990746075760339</v>
+        <v>1.003475647236108</v>
       </c>
       <c r="H22">
-        <v>0.9969648206489499</v>
+        <v>0.9955145836906326</v>
       </c>
       <c r="I22">
-        <v>0.9945819883492327</v>
+        <v>0.9930958968393968</v>
       </c>
       <c r="J22">
-        <v>1.001363640962956</v>
+        <v>0.9970971378349336</v>
       </c>
       <c r="K22">
-        <v>1.00570606597644</v>
+        <v>0.9982369127921441</v>
       </c>
       <c r="L22">
-        <v>0.9945819883492327</v>
+        <v>0.9930958968393968</v>
       </c>
       <c r="M22">
-        <v>0.9967708190545275</v>
+        <v>1.008944120282477</v>
       </c>
       <c r="N22">
-        <v>0.9967708190545275</v>
+        <v>1.008944120282477</v>
       </c>
       <c r="O22">
-        <v>1.00570606597644</v>
+        <v>0.9982369127921441</v>
       </c>
       <c r="P22">
-        <v>1.000144027162836</v>
+        <v>0.9956664048157704</v>
       </c>
       <c r="Q22">
-        <v>1.002275797507524</v>
+        <v>0.9986128264022103</v>
       </c>
       <c r="R22">
-        <v>0.9990196244600665</v>
+        <v>1.000092309971339</v>
       </c>
       <c r="S22">
-        <v>0.9997111944547604</v>
+        <v>0.9967738498812725</v>
       </c>
       <c r="T22">
-        <v>0.9990196244600668</v>
+        <v>1.000092309971339</v>
       </c>
       <c r="U22">
-        <v>0.9989761006047023</v>
+        <v>0.9998164174815736</v>
       </c>
       <c r="V22">
-        <v>0.9985350442946673</v>
+        <v>1.001641958041754</v>
       </c>
       <c r="W22">
-        <v>0.9994925092560252</v>
+        <v>0.9996297524862612</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.017133997421867</v>
+      </c>
+      <c r="D23">
+        <v>1.017133997421867</v>
+      </c>
+      <c r="E23">
+        <v>0.9979216079872988</v>
+      </c>
+      <c r="F23">
+        <v>1.002949716216169</v>
+      </c>
+      <c r="G23">
+        <v>1.006231951801949</v>
+      </c>
+      <c r="H23">
+        <v>0.9920939701832984</v>
+      </c>
+      <c r="I23">
+        <v>0.9884218430270313</v>
+      </c>
+      <c r="J23">
+        <v>0.9944335533590142</v>
+      </c>
+      <c r="K23">
+        <v>0.996396636037419</v>
+      </c>
+      <c r="L23">
+        <v>0.9884218430270313</v>
+      </c>
+      <c r="M23">
+        <v>1.017133997421867</v>
+      </c>
+      <c r="N23">
+        <v>1.017133997421867</v>
+      </c>
+      <c r="O23">
+        <v>0.996396636037419</v>
+      </c>
+      <c r="P23">
+        <v>0.9924092395322252</v>
+      </c>
+      <c r="Q23">
+        <v>0.9971591220123589</v>
+      </c>
+      <c r="R23">
+        <v>1.000650825495439</v>
+      </c>
+      <c r="S23">
+        <v>0.9942466956839163</v>
+      </c>
+      <c r="T23">
+        <v>1.000650825495439</v>
+      </c>
+      <c r="U23">
+        <v>0.9999685211184042</v>
+      </c>
+      <c r="V23">
+        <v>1.003401616379097</v>
+      </c>
+      <c r="W23">
+        <v>0.9994479095042559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="D24">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="E24">
+        <v>1.063588675254941</v>
+      </c>
+      <c r="F24">
+        <v>0.9311903311937384</v>
+      </c>
+      <c r="G24">
+        <v>0.9846354010220275</v>
+      </c>
+      <c r="H24">
+        <v>1.090384057009017</v>
+      </c>
+      <c r="I24">
+        <v>1.077848287530474</v>
+      </c>
+      <c r="J24">
+        <v>1.045309007642355</v>
+      </c>
+      <c r="K24">
+        <v>0.9423442047973815</v>
+      </c>
+      <c r="L24">
+        <v>1.077848287530474</v>
+      </c>
+      <c r="M24">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="N24">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="O24">
+        <v>0.9423442047973815</v>
+      </c>
+      <c r="P24">
+        <v>1.010096246163928</v>
+      </c>
+      <c r="Q24">
+        <v>1.002966440026162</v>
+      </c>
+      <c r="R24">
+        <v>0.9648327628970526</v>
+      </c>
+      <c r="S24">
+        <v>1.027927055860933</v>
+      </c>
+      <c r="T24">
+        <v>0.9648327628970526</v>
+      </c>
+      <c r="U24">
+        <v>0.9895217409865248</v>
+      </c>
+      <c r="V24">
+        <v>0.9664785520618802</v>
+      </c>
+      <c r="W24">
+        <v>1.001200720101655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="D25">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="E25">
+        <v>0.966640151501355</v>
+      </c>
+      <c r="F25">
+        <v>1.007839094371018</v>
+      </c>
+      <c r="G25">
+        <v>0.9624409191507911</v>
+      </c>
+      <c r="H25">
+        <v>1.024858044456502</v>
+      </c>
+      <c r="I25">
+        <v>1.109876416108743</v>
+      </c>
+      <c r="J25">
+        <v>0.9915174289986017</v>
+      </c>
+      <c r="K25">
+        <v>1.025922240914058</v>
+      </c>
+      <c r="L25">
+        <v>1.109876416108743</v>
+      </c>
+      <c r="M25">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="N25">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="O25">
+        <v>1.025922240914058</v>
+      </c>
+      <c r="P25">
+        <v>1.067899328511401</v>
+      </c>
+      <c r="Q25">
+        <v>0.9962811962077067</v>
+      </c>
+      <c r="R25">
+        <v>1.046874263835909</v>
+      </c>
+      <c r="S25">
+        <v>1.034146269508052</v>
+      </c>
+      <c r="T25">
+        <v>1.046874263835909</v>
+      </c>
+      <c r="U25">
+        <v>1.026815735752271</v>
+      </c>
+      <c r="V25">
+        <v>1.022417415498802</v>
+      </c>
+      <c r="W25">
+        <v>1.011739803748249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="D26">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="E26">
+        <v>0.838933621594107</v>
+      </c>
+      <c r="F26">
+        <v>1.300853129480476</v>
+      </c>
+      <c r="G26">
+        <v>0.9679033127066247</v>
+      </c>
+      <c r="H26">
+        <v>0.6212119471671718</v>
+      </c>
+      <c r="I26">
+        <v>0.3997616772347007</v>
+      </c>
+      <c r="J26">
+        <v>1.052605284117847</v>
+      </c>
+      <c r="K26">
+        <v>1.511779163827498</v>
+      </c>
+      <c r="L26">
+        <v>0.3997616772347007</v>
+      </c>
+      <c r="M26">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="N26">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="O26">
+        <v>1.511779163827498</v>
+      </c>
+      <c r="P26">
+        <v>0.9557704205310995</v>
+      </c>
+      <c r="Q26">
+        <v>1.175356392710803</v>
+      </c>
+      <c r="R26">
+        <v>0.9401096334205397</v>
+      </c>
+      <c r="S26">
+        <v>0.9168248208854353</v>
+      </c>
+      <c r="T26">
+        <v>0.9401096334205397</v>
+      </c>
+      <c r="U26">
+        <v>0.9148156304639314</v>
+      </c>
+      <c r="V26">
+        <v>0.9136101162110292</v>
+      </c>
+      <c r="W26">
+        <v>0.9502295244159807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="D27">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="E27">
+        <v>1.032031689822053</v>
+      </c>
+      <c r="F27">
+        <v>0.9689806783205963</v>
+      </c>
+      <c r="G27">
+        <v>1.108543999367504</v>
+      </c>
+      <c r="H27">
+        <v>0.962826678194716</v>
+      </c>
+      <c r="I27">
+        <v>0.8981189257257405</v>
+      </c>
+      <c r="J27">
+        <v>0.9297425911601358</v>
+      </c>
+      <c r="K27">
+        <v>0.8338698244311145</v>
+      </c>
+      <c r="L27">
+        <v>0.8981189257257405</v>
+      </c>
+      <c r="M27">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="N27">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="O27">
+        <v>0.8338698244311145</v>
+      </c>
+      <c r="P27">
+        <v>0.8659943750784275</v>
+      </c>
+      <c r="Q27">
+        <v>0.9329507571265836</v>
+      </c>
+      <c r="R27">
+        <v>0.9845076049307556</v>
+      </c>
+      <c r="S27">
+        <v>0.9213401466596359</v>
+      </c>
+      <c r="T27">
+        <v>0.9845076049307556</v>
+      </c>
+      <c r="U27">
+        <v>0.9963886261535799</v>
+      </c>
+      <c r="V27">
+        <v>1.041417713849946</v>
+      </c>
+      <c r="W27">
+        <v>0.994456056457159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.063186583948774</v>
+      </c>
+      <c r="D28">
+        <v>1.063186583948774</v>
+      </c>
+      <c r="E28">
+        <v>0.9765450023083503</v>
+      </c>
+      <c r="F28">
+        <v>1.066471066128814</v>
+      </c>
+      <c r="G28">
+        <v>1.040699364707289</v>
+      </c>
+      <c r="H28">
+        <v>0.8725491750273999</v>
+      </c>
+      <c r="I28">
+        <v>0.7551988162401087</v>
+      </c>
+      <c r="J28">
+        <v>0.9957266857953674</v>
+      </c>
+      <c r="K28">
+        <v>1.072272029962238</v>
+      </c>
+      <c r="L28">
+        <v>0.7551988162401087</v>
+      </c>
+      <c r="M28">
+        <v>1.063186583948774</v>
+      </c>
+      <c r="N28">
+        <v>1.063186583948774</v>
+      </c>
+      <c r="O28">
+        <v>1.072272029962238</v>
+      </c>
+      <c r="P28">
+        <v>0.9137354231011732</v>
+      </c>
+      <c r="Q28">
+        <v>1.024408516135294</v>
+      </c>
+      <c r="R28">
+        <v>0.9635524767170401</v>
+      </c>
+      <c r="S28">
+        <v>0.9346719495035655</v>
+      </c>
+      <c r="T28">
+        <v>0.9635524767170401</v>
+      </c>
+      <c r="U28">
+        <v>0.9668006081148677</v>
+      </c>
+      <c r="V28">
+        <v>0.9860778032816491</v>
+      </c>
+      <c r="W28">
+        <v>0.9803310905147926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.066795255109263</v>
+      </c>
+      <c r="D29">
+        <v>1.066795255109263</v>
+      </c>
+      <c r="E29">
+        <v>0.9816246153232024</v>
+      </c>
+      <c r="F29">
+        <v>1.050862880304247</v>
+      </c>
+      <c r="G29">
+        <v>1.038399743003107</v>
+      </c>
+      <c r="H29">
+        <v>0.8992036782819388</v>
+      </c>
+      <c r="I29">
+        <v>0.8106858539714256</v>
+      </c>
+      <c r="J29">
+        <v>0.9888976860964304</v>
+      </c>
+      <c r="K29">
+        <v>1.045142227259643</v>
+      </c>
+      <c r="L29">
+        <v>0.8106858539714256</v>
+      </c>
+      <c r="M29">
+        <v>1.066795255109263</v>
+      </c>
+      <c r="N29">
+        <v>1.066795255109263</v>
+      </c>
+      <c r="O29">
+        <v>1.045142227259643</v>
+      </c>
+      <c r="P29">
+        <v>0.9279140406155344</v>
+      </c>
+      <c r="Q29">
+        <v>1.013383421291423</v>
+      </c>
+      <c r="R29">
+        <v>0.9742077787801108</v>
+      </c>
+      <c r="S29">
+        <v>0.9458175655180904</v>
+      </c>
+      <c r="T29">
+        <v>0.9742077787801108</v>
+      </c>
+      <c r="U29">
+        <v>0.9760619879158836</v>
+      </c>
+      <c r="V29">
+        <v>0.9942086413545596</v>
+      </c>
+      <c r="W29">
+        <v>0.9852014924186572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.074440647955978</v>
+      </c>
+      <c r="D30">
+        <v>1.074440647955978</v>
+      </c>
+      <c r="E30">
+        <v>0.991550630818366</v>
+      </c>
+      <c r="F30">
+        <v>1.019830056770532</v>
+      </c>
+      <c r="G30">
+        <v>1.033755349226515</v>
+      </c>
+      <c r="H30">
+        <v>0.9522587959098618</v>
+      </c>
+      <c r="I30">
+        <v>0.9214083672947762</v>
+      </c>
+      <c r="J30">
+        <v>0.9751845801821827</v>
+      </c>
+      <c r="K30">
+        <v>0.9911069354233498</v>
+      </c>
+      <c r="L30">
+        <v>0.9214083672947762</v>
+      </c>
+      <c r="M30">
+        <v>1.074440647955978</v>
+      </c>
+      <c r="N30">
+        <v>1.074440647955978</v>
+      </c>
+      <c r="O30">
+        <v>0.9911069354233498</v>
+      </c>
+      <c r="P30">
+        <v>0.956257651359063</v>
+      </c>
+      <c r="Q30">
+        <v>0.9913287831208579</v>
+      </c>
+      <c r="R30">
+        <v>0.9956519835580346</v>
+      </c>
+      <c r="S30">
+        <v>0.9680219778454974</v>
+      </c>
+      <c r="T30">
+        <v>0.9956519835580346</v>
+      </c>
+      <c r="U30">
+        <v>0.9946266453731175</v>
+      </c>
+      <c r="V30">
+        <v>1.01058944588969</v>
+      </c>
+      <c r="W30">
+        <v>0.9949419204476952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="D31">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="E31">
+        <v>0.9970793604319512</v>
+      </c>
+      <c r="F31">
+        <v>1.016643847264671</v>
+      </c>
+      <c r="G31">
+        <v>1.042086876695466</v>
+      </c>
+      <c r="H31">
+        <v>0.9499456887121231</v>
+      </c>
+      <c r="I31">
+        <v>0.9092074729069566</v>
+      </c>
+      <c r="J31">
+        <v>0.972977254368005</v>
+      </c>
+      <c r="K31">
+        <v>0.9801227376046059</v>
+      </c>
+      <c r="L31">
+        <v>0.9092074729069566</v>
+      </c>
+      <c r="M31">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="N31">
+        <v>1.081921996020512</v>
+      </c>
+      <c r="O31">
+        <v>0.9801227376046059</v>
+      </c>
+      <c r="P31">
+        <v>0.9446651052557813</v>
+      </c>
+      <c r="Q31">
+        <v>0.9886010490182786</v>
+      </c>
+      <c r="R31">
+        <v>0.9904174021773583</v>
+      </c>
+      <c r="S31">
+        <v>0.962136523647838</v>
+      </c>
+      <c r="T31">
+        <v>0.9904174021773583</v>
+      </c>
+      <c r="U31">
+        <v>0.9920828917410065</v>
+      </c>
+      <c r="V31">
+        <v>1.010050712596908</v>
+      </c>
+      <c r="W31">
+        <v>0.9937481542505364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.086172015068494</v>
+      </c>
+      <c r="D32">
+        <v>1.086172015068494</v>
+      </c>
+      <c r="E32">
+        <v>0.9671472346575347</v>
+      </c>
+      <c r="F32">
+        <v>1.085435333150685</v>
+      </c>
+      <c r="G32">
+        <v>1.050024669863014</v>
+      </c>
+      <c r="H32">
+        <v>0.837131684657534</v>
+      </c>
+      <c r="I32">
+        <v>0.690478783972603</v>
+      </c>
+      <c r="J32">
+        <v>0.9940151619178083</v>
+      </c>
+      <c r="K32">
+        <v>1.093334542054795</v>
+      </c>
+      <c r="L32">
+        <v>0.690478783972603</v>
+      </c>
+      <c r="M32">
+        <v>1.086172015068494</v>
+      </c>
+      <c r="N32">
+        <v>1.086172015068494</v>
+      </c>
+      <c r="O32">
+        <v>1.093334542054795</v>
+      </c>
+      <c r="P32">
+        <v>0.8919066630136988</v>
+      </c>
+      <c r="Q32">
+        <v>1.030240888356165</v>
+      </c>
+      <c r="R32">
+        <v>0.9566617803652971</v>
+      </c>
+      <c r="S32">
+        <v>0.9169868535616441</v>
+      </c>
+      <c r="T32">
+        <v>0.9566617803652971</v>
+      </c>
+      <c r="U32">
+        <v>0.9592831439383565</v>
+      </c>
+      <c r="V32">
+        <v>0.9846609181643838</v>
+      </c>
+      <c r="W32">
+        <v>0.9754674281678084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.100960461052632</v>
+      </c>
+      <c r="D33">
+        <v>1.100960461052632</v>
+      </c>
+      <c r="E33">
+        <v>0.8471434842105264</v>
+      </c>
+      <c r="F33">
+        <v>1.300539889473684</v>
+      </c>
+      <c r="G33">
+        <v>1.06028958631579</v>
+      </c>
+      <c r="H33">
+        <v>0.5741731294736843</v>
+      </c>
+      <c r="I33">
+        <v>0.3333299310526316</v>
+      </c>
+      <c r="J33">
+        <v>0.970772552105263</v>
+      </c>
+      <c r="K33">
+        <v>1.401508647368421</v>
+      </c>
+      <c r="L33">
+        <v>0.3333299310526316</v>
+      </c>
+      <c r="M33">
+        <v>1.100960461052632</v>
+      </c>
+      <c r="N33">
+        <v>1.100960461052632</v>
+      </c>
+      <c r="O33">
+        <v>1.401508647368421</v>
+      </c>
+      <c r="P33">
+        <v>0.8674192892105265</v>
+      </c>
+      <c r="Q33">
+        <v>1.124326065789474</v>
+      </c>
+      <c r="R33">
+        <v>0.9452663464912282</v>
+      </c>
+      <c r="S33">
+        <v>0.8606606875438598</v>
+      </c>
+      <c r="T33">
+        <v>0.9452663464912282</v>
+      </c>
+      <c r="U33">
+        <v>0.9207356309210527</v>
+      </c>
+      <c r="V33">
+        <v>0.9567805969473685</v>
+      </c>
+      <c r="W33">
+        <v>0.948589710131579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.44579859</v>
+      </c>
+      <c r="D34">
+        <v>1.44579859</v>
+      </c>
+      <c r="E34">
+        <v>0.9339327247368422</v>
+      </c>
+      <c r="F34">
+        <v>1.036826840526316</v>
+      </c>
+      <c r="G34">
+        <v>1.115914565263158</v>
+      </c>
+      <c r="H34">
+        <v>0.8956406194736842</v>
+      </c>
+      <c r="I34">
+        <v>0.9472650827368424</v>
+      </c>
+      <c r="J34">
+        <v>0.8377543599999999</v>
+      </c>
+      <c r="K34">
+        <v>0.8602364342105261</v>
+      </c>
+      <c r="L34">
+        <v>0.9472650827368424</v>
+      </c>
+      <c r="M34">
+        <v>1.44579859</v>
+      </c>
+      <c r="N34">
+        <v>1.44579859</v>
+      </c>
+      <c r="O34">
+        <v>0.8602364342105261</v>
+      </c>
+      <c r="P34">
+        <v>0.9037507584736842</v>
+      </c>
+      <c r="Q34">
+        <v>0.8970845794736841</v>
+      </c>
+      <c r="R34">
+        <v>1.084433368982456</v>
+      </c>
+      <c r="S34">
+        <v>0.913811413894737</v>
+      </c>
+      <c r="T34">
+        <v>1.084433368982456</v>
+      </c>
+      <c r="U34">
+        <v>1.046808207921053</v>
+      </c>
+      <c r="V34">
+        <v>1.126606284336842</v>
+      </c>
+      <c r="W34">
+        <v>1.009171152118421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.304525122508738</v>
+      </c>
+      <c r="D35">
+        <v>1.304525122508738</v>
+      </c>
+      <c r="E35">
+        <v>0.9948127530180264</v>
+      </c>
+      <c r="F35">
+        <v>1.055967648670695</v>
+      </c>
+      <c r="G35">
+        <v>1.163371284150873</v>
+      </c>
+      <c r="H35">
+        <v>0.8233325724062127</v>
+      </c>
+      <c r="I35">
+        <v>0.6868716159427491</v>
+      </c>
+      <c r="J35">
+        <v>0.8904188841518215</v>
+      </c>
+      <c r="K35">
+        <v>0.9101229556223095</v>
+      </c>
+      <c r="L35">
+        <v>0.6868716159427491</v>
+      </c>
+      <c r="M35">
+        <v>1.304525122508738</v>
+      </c>
+      <c r="N35">
+        <v>1.304525122508738</v>
+      </c>
+      <c r="O35">
+        <v>0.9101229556223095</v>
+      </c>
+      <c r="P35">
+        <v>0.7984972857825293</v>
+      </c>
+      <c r="Q35">
+        <v>0.9524678543201679</v>
+      </c>
+      <c r="R35">
+        <v>0.9671732313579323</v>
+      </c>
+      <c r="S35">
+        <v>0.8639357748610283</v>
+      </c>
+      <c r="T35">
+        <v>0.9671732313579323</v>
+      </c>
+      <c r="U35">
+        <v>0.9740831117729558</v>
+      </c>
+      <c r="V35">
+        <v>1.040171513920112</v>
+      </c>
+      <c r="W35">
+        <v>0.9786778545589282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="D36">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="E36">
+        <v>0.9997630810529149</v>
+      </c>
+      <c r="F36">
+        <v>1.00048568393452</v>
+      </c>
+      <c r="G36">
+        <v>0.9995621495063767</v>
+      </c>
+      <c r="H36">
+        <v>0.999673005436208</v>
+      </c>
+      <c r="I36">
+        <v>0.9995232123082503</v>
+      </c>
+      <c r="J36">
+        <v>1.000402119546383</v>
+      </c>
+      <c r="K36">
+        <v>1.001327499115208</v>
+      </c>
+      <c r="L36">
+        <v>0.9995232123082503</v>
+      </c>
+      <c r="M36">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="N36">
+        <v>0.9987642202217908</v>
+      </c>
+      <c r="O36">
+        <v>1.001327499115208</v>
+      </c>
+      <c r="P36">
+        <v>1.000425355711729</v>
+      </c>
+      <c r="Q36">
+        <v>1.000545290084061</v>
+      </c>
+      <c r="R36">
+        <v>0.9998716438817494</v>
+      </c>
+      <c r="S36">
+        <v>1.000204597492124</v>
+      </c>
+      <c r="T36">
+        <v>0.9998716438817495</v>
+      </c>
+      <c r="U36">
+        <v>0.9998445031745409</v>
+      </c>
+      <c r="V36">
+        <v>0.9996284465839909</v>
+      </c>
+      <c r="W36">
+        <v>0.9999376213902064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="D37">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="E37">
+        <v>1.000355364673734</v>
+      </c>
+      <c r="F37">
+        <v>0.9994057223182539</v>
+      </c>
+      <c r="G37">
+        <v>1.001140027936693</v>
+      </c>
+      <c r="H37">
+        <v>1.000054985268714</v>
+      </c>
+      <c r="I37">
+        <v>0.9999899090123414</v>
+      </c>
+      <c r="J37">
+        <v>0.99901841805952</v>
+      </c>
+      <c r="K37">
+        <v>0.9976740031647002</v>
+      </c>
+      <c r="L37">
+        <v>0.9999899090123414</v>
+      </c>
+      <c r="M37">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="N37">
+        <v>1.002764718166571</v>
+      </c>
+      <c r="O37">
+        <v>0.9976740031647002</v>
+      </c>
+      <c r="P37">
+        <v>0.9988319560885208</v>
+      </c>
+      <c r="Q37">
+        <v>0.9990146839192171</v>
+      </c>
+      <c r="R37">
+        <v>1.000142876781204</v>
+      </c>
+      <c r="S37">
+        <v>0.9993397589502585</v>
+      </c>
+      <c r="T37">
+        <v>1.000142876781204</v>
+      </c>
+      <c r="U37">
+        <v>1.000195998754337</v>
+      </c>
+      <c r="V37">
+        <v>1.000709742636783</v>
+      </c>
+      <c r="W37">
+        <v>1.000050393575066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="D38">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="E38">
+        <v>0.9988455290386092</v>
+      </c>
+      <c r="F38">
+        <v>1.002632602441451</v>
+      </c>
+      <c r="G38">
+        <v>0.9990746075760339</v>
+      </c>
+      <c r="H38">
+        <v>0.9969648206489499</v>
+      </c>
+      <c r="I38">
+        <v>0.9945819883492327</v>
+      </c>
+      <c r="J38">
+        <v>1.001363640962956</v>
+      </c>
+      <c r="K38">
+        <v>1.00570606597644</v>
+      </c>
+      <c r="L38">
+        <v>0.9945819883492327</v>
+      </c>
+      <c r="M38">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="N38">
+        <v>0.9967708190545275</v>
+      </c>
+      <c r="O38">
+        <v>1.00570606597644</v>
+      </c>
+      <c r="P38">
+        <v>1.000144027162836</v>
+      </c>
+      <c r="Q38">
+        <v>1.002275797507524</v>
+      </c>
+      <c r="R38">
+        <v>0.9990196244600665</v>
+      </c>
+      <c r="S38">
+        <v>0.9997111944547604</v>
+      </c>
+      <c r="T38">
+        <v>0.9990196244600668</v>
+      </c>
+      <c r="U38">
+        <v>0.9989761006047023</v>
+      </c>
+      <c r="V38">
+        <v>0.9985350442946673</v>
+      </c>
+      <c r="W38">
+        <v>0.9994925092560252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9842761149165067</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9842761149165067</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9957045602694268</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.0091339203429</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9947040013074301</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9908136732336565</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9838885254766885</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.006346834790641</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.02184816334801</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9838885254766885</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9842761149165067</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9842761149165067</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.02184816334801</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.002868344412349</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.008776361808719</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9966709345804018</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000480416364709</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9966709345804018</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.996429341002658</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9939986957854277</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9983394742106575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9888696712068198</v>
+      </c>
+      <c r="D40">
+        <v>0.9888696712068198</v>
+      </c>
+      <c r="E40">
+        <v>0.9672873733990822</v>
+      </c>
+      <c r="F40">
+        <v>1.059526726508088</v>
+      </c>
+      <c r="G40">
+        <v>0.9950840157227293</v>
+      </c>
+      <c r="H40">
+        <v>0.92495448110025</v>
+      </c>
+      <c r="I40">
+        <v>0.8839082502687687</v>
+      </c>
+      <c r="J40">
+        <v>1.007194164447466</v>
+      </c>
+      <c r="K40">
+        <v>1.098881614714952</v>
+      </c>
+      <c r="L40">
+        <v>0.8839082502687687</v>
+      </c>
+      <c r="M40">
+        <v>0.9888696712068198</v>
+      </c>
+      <c r="N40">
+        <v>0.9888696712068198</v>
+      </c>
+      <c r="O40">
+        <v>1.098881614714952</v>
+      </c>
+      <c r="P40">
+        <v>0.9913949324918606</v>
+      </c>
+      <c r="Q40">
+        <v>1.033084494057017</v>
+      </c>
+      <c r="R40">
+        <v>0.9905531787301803</v>
+      </c>
+      <c r="S40">
+        <v>0.9833590794609345</v>
+      </c>
+      <c r="T40">
+        <v>0.9905531787301802</v>
+      </c>
+      <c r="U40">
+        <v>0.9847367273974057</v>
+      </c>
+      <c r="V40">
+        <v>0.9855633161592886</v>
+      </c>
+      <c r="W40">
+        <v>0.9907132871710196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9323346409310056</v>
+      </c>
+      <c r="D41">
+        <v>0.9323346409310056</v>
+      </c>
+      <c r="E41">
+        <v>1.029868589475888</v>
+      </c>
+      <c r="F41">
+        <v>0.9432167796709965</v>
+      </c>
+      <c r="G41">
+        <v>0.9714783352083447</v>
+      </c>
+      <c r="H41">
+        <v>1.09460517266232</v>
+      </c>
+      <c r="I41">
+        <v>1.152760869990552</v>
+      </c>
+      <c r="J41">
+        <v>1.017917928576361</v>
+      </c>
+      <c r="K41">
+        <v>0.9459810149955618</v>
+      </c>
+      <c r="L41">
+        <v>1.152760869990552</v>
+      </c>
+      <c r="M41">
+        <v>0.9323346409310056</v>
+      </c>
+      <c r="N41">
+        <v>0.9323346409310056</v>
+      </c>
+      <c r="O41">
+        <v>0.9459810149955618</v>
+      </c>
+      <c r="P41">
+        <v>1.049370942493057</v>
+      </c>
+      <c r="Q41">
+        <v>0.987924802235725</v>
+      </c>
+      <c r="R41">
+        <v>1.010358841972373</v>
+      </c>
+      <c r="S41">
+        <v>1.042870158154001</v>
+      </c>
+      <c r="T41">
+        <v>1.010358841972373</v>
+      </c>
+      <c r="U41">
+        <v>1.015236278848252</v>
+      </c>
+      <c r="V41">
+        <v>0.9986559512648029</v>
+      </c>
+      <c r="W41">
+        <v>1.011020416438879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9048200790347316</v>
+      </c>
+      <c r="D42">
+        <v>0.9048200790347316</v>
+      </c>
+      <c r="E42">
+        <v>0.9805660203942601</v>
+      </c>
+      <c r="F42">
+        <v>1.052174585516255</v>
+      </c>
+      <c r="G42">
+        <v>0.9741146685156231</v>
+      </c>
+      <c r="H42">
+        <v>0.9449024267207397</v>
+      </c>
+      <c r="I42">
+        <v>0.8942050388189973</v>
+      </c>
+      <c r="J42">
+        <v>1.037051662009376</v>
+      </c>
+      <c r="K42">
+        <v>1.124838397251821</v>
+      </c>
+      <c r="L42">
+        <v>0.8942050388189973</v>
+      </c>
+      <c r="M42">
+        <v>0.9048200790347316</v>
+      </c>
+      <c r="N42">
+        <v>0.9048200790347316</v>
+      </c>
+      <c r="O42">
+        <v>1.124838397251821</v>
+      </c>
+      <c r="P42">
+        <v>1.009521718035409</v>
+      </c>
+      <c r="Q42">
+        <v>1.052702208823041</v>
+      </c>
+      <c r="R42">
+        <v>0.97462117170185</v>
+      </c>
+      <c r="S42">
+        <v>0.9998698188216929</v>
+      </c>
+      <c r="T42">
+        <v>0.97462117170185</v>
+      </c>
+      <c r="U42">
+        <v>0.9761073838749525</v>
+      </c>
+      <c r="V42">
+        <v>0.9618499229069084</v>
+      </c>
+      <c r="W42">
+        <v>0.9890841097827255</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002956515693745</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="D3">
-        <v>0.9869969083045339</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="E3">
-        <v>1.003832373476865</v>
+        <v>0.9997384173394929</v>
       </c>
       <c r="F3">
-        <v>1.002956515693745</v>
+        <v>1.00051383515951</v>
       </c>
       <c r="G3">
-        <v>0.9989043638103726</v>
+        <v>1.001118629263254</v>
       </c>
       <c r="H3">
-        <v>1.00336911025281</v>
+        <v>0.9986159617837161</v>
       </c>
       <c r="I3">
-        <v>1.002956515693745</v>
+        <v>0.9978385087582404</v>
       </c>
       <c r="J3">
-        <v>0.9869969083045339</v>
+        <v>0.9990988565145386</v>
       </c>
       <c r="K3">
-        <v>0.9999992269728181</v>
+        <v>0.9994265087688696</v>
       </c>
       <c r="L3">
-        <v>1.002067388517224</v>
+        <v>0.9978385087582404</v>
       </c>
       <c r="M3">
-        <v>0.9934013853166579</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="N3">
-        <v>1.002956515693745</v>
+        <v>1.002661933091686</v>
       </c>
       <c r="O3">
-        <v>1.003832373476865</v>
+        <v>0.9994265087688696</v>
       </c>
       <c r="P3">
-        <v>0.9954146408906994</v>
+        <v>0.998632508763555</v>
       </c>
       <c r="Q3">
-        <v>1.001368368643619</v>
+        <v>0.9995824630541812</v>
       </c>
       <c r="R3">
-        <v>0.9979285991583812</v>
+        <v>0.9999756502062654</v>
       </c>
       <c r="S3">
-        <v>0.9965778818639238</v>
+        <v>0.9990011449555344</v>
       </c>
       <c r="T3">
-        <v>0.9979285991583812</v>
+        <v>0.9999756502062654</v>
       </c>
       <c r="U3">
-        <v>0.998172540321379</v>
+        <v>0.9999163419895724</v>
       </c>
       <c r="V3">
-        <v>0.9991293353958521</v>
+        <v>1.000465460209995</v>
       </c>
       <c r="W3">
-        <v>0.9989409090431283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9998765813349135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006016893639718</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="D4">
-        <v>0.9752956389863869</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="E4">
-        <v>1.007232664875254</v>
+        <v>0.9672873733990822</v>
       </c>
       <c r="F4">
-        <v>1.006016893639718</v>
+        <v>1.059526726508088</v>
       </c>
       <c r="G4">
-        <v>0.9978123720790359</v>
+        <v>0.9950840157227293</v>
       </c>
       <c r="H4">
-        <v>1.006504986394483</v>
+        <v>0.92495448110025</v>
       </c>
       <c r="I4">
-        <v>1.006016893639718</v>
+        <v>0.8839082502687687</v>
       </c>
       <c r="J4">
-        <v>0.9752956389863869</v>
+        <v>1.007194164447466</v>
       </c>
       <c r="K4">
-        <v>0.9997965502323951</v>
+        <v>1.098881614714952</v>
       </c>
       <c r="L4">
-        <v>1.004027148601372</v>
+        <v>0.8839082502687687</v>
       </c>
       <c r="M4">
-        <v>0.9873367247666035</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="N4">
-        <v>1.006016893639718</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="O4">
-        <v>1.007232664875254</v>
+        <v>1.098881614714952</v>
       </c>
       <c r="P4">
-        <v>0.9912641519308206</v>
+        <v>0.9913949324918606</v>
       </c>
       <c r="Q4">
-        <v>1.002522518477145</v>
+        <v>1.033084494057017</v>
       </c>
       <c r="R4">
-        <v>0.9961817325004532</v>
+        <v>0.9905531787301803</v>
       </c>
       <c r="S4">
-        <v>0.9934468919802257</v>
+        <v>0.9833590794609345</v>
       </c>
       <c r="T4">
-        <v>0.9961817325004532</v>
+        <v>0.9905531787301802</v>
       </c>
       <c r="U4">
-        <v>0.9965893923950988</v>
+        <v>0.9847367273974057</v>
       </c>
       <c r="V4">
-        <v>0.9984748926440226</v>
+        <v>0.9855633161592886</v>
       </c>
       <c r="W4">
-        <v>0.9980028724469061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9907132871710196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011312838154048</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="D5">
-        <v>0.952217909665286</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="E5">
-        <v>1.013789444209849</v>
+        <v>0.9909615294092227</v>
       </c>
       <c r="F5">
-        <v>1.011312838154048</v>
+        <v>1.022785186073484</v>
       </c>
       <c r="G5">
-        <v>0.9959928421298179</v>
+        <v>1.04092569606628</v>
       </c>
       <c r="H5">
-        <v>1.012361298605362</v>
+        <v>0.9437325355835745</v>
       </c>
       <c r="I5">
-        <v>1.011312838154048</v>
+        <v>0.9064381348948128</v>
       </c>
       <c r="J5">
-        <v>0.952217909665286</v>
+        <v>0.9704008977161396</v>
       </c>
       <c r="K5">
-        <v>0.9997715883621379</v>
+        <v>0.9879531479683007</v>
       </c>
       <c r="L5">
-        <v>1.00781371654569</v>
+        <v>0.9064381348948128</v>
       </c>
       <c r="M5">
-        <v>0.975689755795913</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="N5">
-        <v>1.011312838154048</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="O5">
-        <v>1.013789444209849</v>
+        <v>0.9879531479683007</v>
       </c>
       <c r="P5">
-        <v>0.9830036769375674</v>
+        <v>0.9471956414315568</v>
       </c>
       <c r="Q5">
-        <v>1.004891143169834</v>
+        <v>0.9894573386887617</v>
       </c>
       <c r="R5">
-        <v>0.9924400640097275</v>
+        <v>0.9942076705437074</v>
       </c>
       <c r="S5">
-        <v>0.9873333986683175</v>
+        <v>0.9617842707574454</v>
       </c>
       <c r="T5">
-        <v>0.9924400640097276</v>
+        <v>0.9942076705437074</v>
       </c>
       <c r="U5">
-        <v>0.9933282585397503</v>
+        <v>0.9933961352600862</v>
       </c>
       <c r="V5">
-        <v>0.9969251744626098</v>
+        <v>1.012363253961671</v>
       </c>
       <c r="W5">
-        <v>0.996118674183513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9939286070599778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.01732324580489</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="D6">
-        <v>0.929668471180939</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="E6">
-        <v>1.020171649120035</v>
+        <v>0.9948127530180264</v>
       </c>
       <c r="F6">
-        <v>1.01732324580489</v>
+        <v>1.055967648670695</v>
       </c>
       <c r="G6">
-        <v>0.9939570538572485</v>
+        <v>1.163371284150873</v>
       </c>
       <c r="H6">
-        <v>1.017758024603245</v>
+        <v>0.8233325724062127</v>
       </c>
       <c r="I6">
-        <v>1.01732324580489</v>
+        <v>0.6868716159427491</v>
       </c>
       <c r="J6">
-        <v>0.929668471180939</v>
+        <v>0.8904188841518215</v>
       </c>
       <c r="K6">
-        <v>1.000142054010323</v>
+        <v>0.9101229556223095</v>
       </c>
       <c r="L6">
-        <v>1.011233696438057</v>
+        <v>0.6868716159427491</v>
       </c>
       <c r="M6">
-        <v>0.9642637848614346</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="N6">
-        <v>1.01732324580489</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="O6">
-        <v>1.020171649120035</v>
+        <v>0.9101229556223095</v>
       </c>
       <c r="P6">
-        <v>0.9749200601504868</v>
+        <v>0.7984972857825293</v>
       </c>
       <c r="Q6">
-        <v>1.007064351488641</v>
+        <v>0.9524678543201679</v>
       </c>
       <c r="R6">
-        <v>0.9890544553686214</v>
+        <v>0.9671732313579323</v>
       </c>
       <c r="S6">
-        <v>0.9812657247194073</v>
+        <v>0.8639357748610283</v>
       </c>
       <c r="T6">
-        <v>0.9890544553686212</v>
+        <v>0.9671732313579323</v>
       </c>
       <c r="U6">
-        <v>0.990280104990778</v>
+        <v>0.9740831117729558</v>
       </c>
       <c r="V6">
-        <v>0.9956887331536004</v>
+        <v>1.040171513920112</v>
       </c>
       <c r="W6">
-        <v>0.9943147474845215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9786778545589282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.0008708982998</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="D7">
-        <v>0.9992412515377893</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="E7">
-        <v>0.9997991618690032</v>
+        <v>0.9983867570646217</v>
       </c>
       <c r="F7">
-        <v>1.0008708982998</v>
+        <v>1.003489437365741</v>
       </c>
       <c r="G7">
-        <v>0.9999329075164989</v>
+        <v>1.002698739995631</v>
       </c>
       <c r="H7">
-        <v>1.00016412733051</v>
+        <v>0.9930097509751052</v>
       </c>
       <c r="I7">
-        <v>1.0008708982998</v>
+        <v>0.9874142764490363</v>
       </c>
       <c r="J7">
-        <v>0.9992412515377893</v>
+        <v>0.9988348833777717</v>
       </c>
       <c r="K7">
-        <v>0.9997047074823392</v>
+        <v>1.00268061970699</v>
       </c>
       <c r="L7">
-        <v>1.000387199837107</v>
+        <v>0.9874142764490363</v>
       </c>
       <c r="M7">
-        <v>0.999536252625254</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="N7">
-        <v>1.0008708982998</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="O7">
-        <v>0.9997991618690032</v>
+        <v>1.00268061970699</v>
       </c>
       <c r="P7">
-        <v>0.9995202067033963</v>
+        <v>0.995047448078013</v>
       </c>
       <c r="Q7">
-        <v>0.999866034692751</v>
+        <v>1.000533688385806</v>
       </c>
       <c r="R7">
-        <v>0.999970437235531</v>
+        <v>0.9987370252380976</v>
       </c>
       <c r="S7">
-        <v>0.9996577736410971</v>
+        <v>0.9961605510735492</v>
       </c>
       <c r="T7">
-        <v>0.999970437235531</v>
+        <v>0.9987370252380976</v>
       </c>
       <c r="U7">
-        <v>0.9999610548057729</v>
+        <v>0.9986494581947286</v>
       </c>
       <c r="V7">
-        <v>1.000143023504579</v>
+        <v>1.000142802467436</v>
       </c>
       <c r="W7">
-        <v>0.9999545633122877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9990788305616454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002661933091686</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="D8">
-        <v>0.9978385087582406</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="E8">
-        <v>0.99942650876887</v>
+        <v>1.000355364673734</v>
       </c>
       <c r="F8">
-        <v>1.002661933091686</v>
+        <v>0.9994057223182539</v>
       </c>
       <c r="G8">
-        <v>0.9997384173394925</v>
+        <v>1.001140027936693</v>
       </c>
       <c r="H8">
-        <v>1.00051383515951</v>
+        <v>1.000054985268714</v>
       </c>
       <c r="I8">
-        <v>1.002661933091686</v>
+        <v>0.9999899090123414</v>
       </c>
       <c r="J8">
-        <v>0.9978385087582406</v>
+        <v>0.99901841805952</v>
       </c>
       <c r="K8">
-        <v>0.9990988565145389</v>
+        <v>0.9976740031647002</v>
       </c>
       <c r="L8">
-        <v>1.001118629263255</v>
+        <v>0.9999899090123414</v>
       </c>
       <c r="M8">
-        <v>0.9986159617837158</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="N8">
-        <v>1.002661933091686</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="O8">
-        <v>0.99942650876887</v>
+        <v>0.9976740031647002</v>
       </c>
       <c r="P8">
-        <v>0.9986325087635552</v>
+        <v>0.9988319560885208</v>
       </c>
       <c r="Q8">
-        <v>0.9995824630541812</v>
+        <v>0.9990146839192171</v>
       </c>
       <c r="R8">
-        <v>0.9999756502062654</v>
+        <v>1.000142876781204</v>
       </c>
       <c r="S8">
-        <v>0.9990011449555344</v>
+        <v>0.9993397589502585</v>
       </c>
       <c r="T8">
-        <v>0.9999756502062657</v>
+        <v>1.000142876781204</v>
       </c>
       <c r="U8">
-        <v>0.9999163419895724</v>
+        <v>1.000195998754337</v>
       </c>
       <c r="V8">
-        <v>1.000465460209995</v>
+        <v>1.000709742636783</v>
       </c>
       <c r="W8">
-        <v>0.9998765813349135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000050393575066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004572544922851</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="D9">
-        <v>0.9968152682467116</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="E9">
-        <v>0.9991023983159563</v>
+        <v>0.9978123720790359</v>
       </c>
       <c r="F9">
-        <v>1.004572544922851</v>
+        <v>1.006504986394483</v>
       </c>
       <c r="G9">
-        <v>0.999426481019796</v>
+        <v>1.004027148601372</v>
       </c>
       <c r="H9">
-        <v>1.000826679798017</v>
+        <v>0.9873367247666035</v>
       </c>
       <c r="I9">
-        <v>1.004572544922851</v>
+        <v>0.9752956389863869</v>
       </c>
       <c r="J9">
-        <v>0.9968152682467116</v>
+        <v>0.9997965502323951</v>
       </c>
       <c r="K9">
-        <v>0.9985191782112194</v>
+        <v>1.007232664875254</v>
       </c>
       <c r="L9">
-        <v>1.001663148757902</v>
+        <v>0.9752956389863869</v>
       </c>
       <c r="M9">
-        <v>0.9978368948471185</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="N9">
-        <v>1.004572544922851</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="O9">
-        <v>0.9991023983159563</v>
+        <v>1.007232664875254</v>
       </c>
       <c r="P9">
-        <v>0.9979588332813339</v>
+        <v>0.9912641519308206</v>
       </c>
       <c r="Q9">
-        <v>0.9992644396678761</v>
+        <v>1.002522518477145</v>
       </c>
       <c r="R9">
-        <v>1.000163403828506</v>
+        <v>0.9961817325004532</v>
       </c>
       <c r="S9">
-        <v>0.9984480491941546</v>
+        <v>0.9934468919802257</v>
       </c>
       <c r="T9">
-        <v>1.000163403828506</v>
+        <v>0.9961817325004532</v>
       </c>
       <c r="U9">
-        <v>0.9999791731263287</v>
+        <v>0.9965893923950988</v>
       </c>
       <c r="V9">
-        <v>1.000897847485633</v>
+        <v>0.9984748926440226</v>
       </c>
       <c r="W9">
-        <v>0.9998453242649463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9980028724469061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.008944120282477</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="D10">
-        <v>0.9930958968393968</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="E10">
-        <v>0.9982369127921441</v>
+        <v>0.9972152777241381</v>
       </c>
       <c r="F10">
-        <v>1.008944120282477</v>
+        <v>1.054789048171467</v>
       </c>
       <c r="G10">
-        <v>0.9989887400122766</v>
+        <v>1.16804478730464</v>
       </c>
       <c r="H10">
-        <v>1.001684981202122</v>
+        <v>0.8212438350420552</v>
       </c>
       <c r="I10">
-        <v>1.008944120282477</v>
+        <v>0.6794329949523429</v>
       </c>
       <c r="J10">
-        <v>0.9930958968393968</v>
+        <v>0.888829492740952</v>
       </c>
       <c r="K10">
-        <v>0.9970971378349336</v>
+        <v>0.9045206297321394</v>
       </c>
       <c r="L10">
-        <v>1.003475647236108</v>
+        <v>0.6794329949523429</v>
       </c>
       <c r="M10">
-        <v>0.9955145836906326</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="N10">
-        <v>1.008944120282477</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="O10">
-        <v>0.9982369127921441</v>
+        <v>0.9045206297321394</v>
       </c>
       <c r="P10">
-        <v>0.9956664048157704</v>
+        <v>0.7919768123422412</v>
       </c>
       <c r="Q10">
-        <v>0.9986128264022103</v>
+        <v>0.9508679537281388</v>
       </c>
       <c r="R10">
-        <v>1.000092309971339</v>
+        <v>0.9646720392208046</v>
       </c>
       <c r="S10">
-        <v>0.9967738498812725</v>
+        <v>0.8603896341362068</v>
       </c>
       <c r="T10">
-        <v>1.000092309971339</v>
+        <v>0.9646720392208046</v>
       </c>
       <c r="U10">
-        <v>0.9998164174815736</v>
+        <v>0.972807848846638</v>
       </c>
       <c r="V10">
-        <v>1.001641958041754</v>
+        <v>1.040258777672897</v>
       </c>
       <c r="W10">
-        <v>0.9996297524862612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9780173198307083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.017133997421867</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="D11">
-        <v>0.9884218430270315</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="E11">
-        <v>0.996396636037419</v>
+        <v>0.9971432637512552</v>
       </c>
       <c r="F11">
-        <v>1.017133997421867</v>
+        <v>1.001827689049868</v>
       </c>
       <c r="G11">
-        <v>0.9979216079872987</v>
+        <v>0.964419873784525</v>
       </c>
       <c r="H11">
-        <v>1.002949716216169</v>
+        <v>1.021110085755866</v>
       </c>
       <c r="I11">
-        <v>1.017133997421867</v>
+        <v>1.038158177814327</v>
       </c>
       <c r="J11">
-        <v>0.9884218430270315</v>
+        <v>1.027289504734046</v>
       </c>
       <c r="K11">
-        <v>0.9944335533590142</v>
+        <v>1.046036505546383</v>
       </c>
       <c r="L11">
-        <v>1.006231951801949</v>
+        <v>1.038158177814327</v>
       </c>
       <c r="M11">
-        <v>0.9920939701832984</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="N11">
-        <v>1.017133997421867</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="O11">
-        <v>0.996396636037419</v>
+        <v>1.046036505546383</v>
       </c>
       <c r="P11">
-        <v>0.9924092395322253</v>
+        <v>1.042097341680355</v>
       </c>
       <c r="Q11">
-        <v>0.9971591220123588</v>
+        <v>1.021589884648819</v>
       </c>
       <c r="R11">
-        <v>1.000650825495439</v>
+        <v>1.000912268131326</v>
       </c>
       <c r="S11">
-        <v>0.9942466956839163</v>
+        <v>1.027112649037322</v>
       </c>
       <c r="T11">
-        <v>1.000650825495439</v>
+        <v>1.000912268131326</v>
       </c>
       <c r="U11">
-        <v>0.9999685211184041</v>
+        <v>0.9999700170363084</v>
       </c>
       <c r="V11">
-        <v>1.003401616379097</v>
+        <v>0.9836844378357004</v>
       </c>
       <c r="W11">
-        <v>0.9994479095042559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.001815902683692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8743057963633019</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="D12">
-        <v>1.077848287530474</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="E12">
-        <v>0.9423442047973815</v>
+        <v>0.9984348569263156</v>
       </c>
       <c r="F12">
-        <v>0.8743057963633019</v>
+        <v>1.014548685589472</v>
       </c>
       <c r="G12">
-        <v>1.063588675254941</v>
+        <v>1.048649811452629</v>
       </c>
       <c r="H12">
-        <v>0.9311903311937384</v>
+        <v>0.9489819193473695</v>
       </c>
       <c r="I12">
-        <v>0.8743057963633019</v>
+        <v>0.9085354099263173</v>
       </c>
       <c r="J12">
-        <v>1.077848287530474</v>
+        <v>0.9670700295473694</v>
       </c>
       <c r="K12">
-        <v>1.045309007642355</v>
+        <v>0.9689486096210538</v>
       </c>
       <c r="L12">
-        <v>0.9846354010220275</v>
+        <v>0.9085354099263173</v>
       </c>
       <c r="M12">
-        <v>1.090384057009017</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="N12">
-        <v>0.8743057963633019</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="O12">
-        <v>0.9423442047973815</v>
+        <v>0.9689486096210538</v>
       </c>
       <c r="P12">
-        <v>1.010096246163928</v>
+        <v>0.9387420097736856</v>
       </c>
       <c r="Q12">
-        <v>1.002966440026162</v>
+        <v>0.9836917332736848</v>
       </c>
       <c r="R12">
-        <v>0.9648327628970526</v>
+        <v>0.991364944617544</v>
       </c>
       <c r="S12">
-        <v>1.027927055860933</v>
+        <v>0.9586396254912289</v>
       </c>
       <c r="T12">
-        <v>0.9648327628970526</v>
+        <v>0.991364944617544</v>
       </c>
       <c r="U12">
-        <v>0.9895217409865248</v>
+        <v>0.9931324226947369</v>
       </c>
       <c r="V12">
-        <v>0.9664785520618802</v>
+        <v>1.013828101016842</v>
       </c>
       <c r="W12">
-        <v>1.001200720101655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9939725170894735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004824134484926</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="D13">
-        <v>1.109876416108743</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="E13">
-        <v>1.025922240914058</v>
+        <v>1.018804945208399</v>
       </c>
       <c r="F13">
-        <v>1.004824134484926</v>
+        <v>0.9747278287258589</v>
       </c>
       <c r="G13">
-        <v>0.966640151501355</v>
+        <v>0.9854758111490174</v>
       </c>
       <c r="H13">
-        <v>1.007839094371018</v>
+        <v>1.039780569698628</v>
       </c>
       <c r="I13">
-        <v>1.004824134484926</v>
+        <v>1.048547204903332</v>
       </c>
       <c r="J13">
-        <v>1.109876416108743</v>
+        <v>1.018537580449472</v>
       </c>
       <c r="K13">
-        <v>0.9915174289986018</v>
+        <v>0.9851680551891829</v>
       </c>
       <c r="L13">
-        <v>0.9624409191507911</v>
+        <v>1.048547204903332</v>
       </c>
       <c r="M13">
-        <v>1.024858044456502</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="N13">
-        <v>1.004824134484926</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="O13">
-        <v>1.025922240914058</v>
+        <v>0.9851680551891829</v>
       </c>
       <c r="P13">
-        <v>1.0678993285114</v>
+        <v>1.016857630046257</v>
       </c>
       <c r="Q13">
-        <v>0.9962811962077066</v>
+        <v>1.001986500198791</v>
       </c>
       <c r="R13">
-        <v>1.046874263835909</v>
+        <v>0.9938392180220665</v>
       </c>
       <c r="S13">
-        <v>1.034146269508052</v>
+        <v>1.017506735100304</v>
       </c>
       <c r="T13">
-        <v>1.046874263835909</v>
+        <v>0.9938392180220664</v>
       </c>
       <c r="U13">
-        <v>1.026815735752271</v>
+        <v>1.00008064981865</v>
       </c>
       <c r="V13">
-        <v>1.022417415498802</v>
+        <v>0.9896249986496567</v>
       </c>
       <c r="W13">
-        <v>1.011739803748249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.002355548662197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.90878805919942</v>
+        <v>1.5381067</v>
       </c>
       <c r="D14">
-        <v>0.3997616772347007</v>
+        <v>1.5381067</v>
       </c>
       <c r="E14">
-        <v>1.511779163827498</v>
+        <v>0.9974725100000001</v>
       </c>
       <c r="F14">
-        <v>0.90878805919942</v>
+        <v>1.093006000000001</v>
       </c>
       <c r="G14">
-        <v>0.838933621594107</v>
+        <v>1.294202600000001</v>
       </c>
       <c r="H14">
-        <v>1.300853129480476</v>
+        <v>0.6923359199999995</v>
       </c>
       <c r="I14">
-        <v>0.90878805919942</v>
+        <v>0.4491106900000006</v>
       </c>
       <c r="J14">
-        <v>0.3997616772347007</v>
+        <v>0.8046543299999986</v>
       </c>
       <c r="K14">
-        <v>1.052605284117847</v>
+        <v>0.8289779500000009</v>
       </c>
       <c r="L14">
-        <v>0.9679033127066247</v>
+        <v>0.4491106900000006</v>
       </c>
       <c r="M14">
-        <v>0.6212119471671719</v>
+        <v>1.5381067</v>
       </c>
       <c r="N14">
-        <v>0.90878805919942</v>
+        <v>1.5381067</v>
       </c>
       <c r="O14">
-        <v>1.511779163827498</v>
+        <v>0.8289779500000009</v>
       </c>
       <c r="P14">
-        <v>0.9557704205310995</v>
+        <v>0.6390443200000007</v>
       </c>
       <c r="Q14">
-        <v>1.175356392710803</v>
+        <v>0.9132252300000006</v>
       </c>
       <c r="R14">
-        <v>0.9401096334205397</v>
+        <v>0.9387317800000003</v>
       </c>
       <c r="S14">
-        <v>0.9168248208854353</v>
+        <v>0.7585203833333338</v>
       </c>
       <c r="T14">
-        <v>0.9401096334205397</v>
+        <v>0.9387317800000005</v>
       </c>
       <c r="U14">
-        <v>0.9148156304639314</v>
+        <v>0.9534169625000004</v>
       </c>
       <c r="V14">
-        <v>0.9136101162110292</v>
+        <v>1.07035491</v>
       </c>
       <c r="W14">
-        <v>0.9502295244159807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9622333375000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.221534064635412</v>
+        <v>2.955281</v>
       </c>
       <c r="D15">
-        <v>0.8981189257257405</v>
+        <v>2.955281</v>
       </c>
       <c r="E15">
-        <v>0.8338698244311145</v>
+        <v>0.66032449</v>
       </c>
       <c r="F15">
-        <v>1.221534064635412</v>
+        <v>1.3207022</v>
       </c>
       <c r="G15">
-        <v>1.032031689822053</v>
+        <v>1.538147</v>
       </c>
       <c r="H15">
-        <v>0.9689806783205963</v>
+        <v>0.22565214</v>
       </c>
       <c r="I15">
-        <v>1.221534064635412</v>
+        <v>0.054357122</v>
       </c>
       <c r="J15">
-        <v>0.8981189257257405</v>
+        <v>0.39464802</v>
       </c>
       <c r="K15">
-        <v>0.9297425911601358</v>
+        <v>0.66920919</v>
       </c>
       <c r="L15">
-        <v>1.108543999367504</v>
+        <v>0.054357122</v>
       </c>
       <c r="M15">
-        <v>0.962826678194716</v>
+        <v>2.955281</v>
       </c>
       <c r="N15">
-        <v>1.221534064635412</v>
+        <v>2.955281</v>
       </c>
       <c r="O15">
-        <v>0.8338698244311145</v>
+        <v>0.66920919</v>
       </c>
       <c r="P15">
-        <v>0.8659943750784275</v>
+        <v>0.361783156</v>
       </c>
       <c r="Q15">
-        <v>0.9329507571265836</v>
+        <v>0.66476684</v>
       </c>
       <c r="R15">
-        <v>0.9845076049307556</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="S15">
-        <v>0.9213401466596359</v>
+        <v>0.461296934</v>
       </c>
       <c r="T15">
-        <v>0.9845076049307556</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="U15">
-        <v>0.9963886261535799</v>
+        <v>1.0847929505</v>
       </c>
       <c r="V15">
-        <v>1.041417713849946</v>
+        <v>1.4588905604</v>
       </c>
       <c r="W15">
-        <v>0.994456056457159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9772901452499999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9987642202217908</v>
+        <v>0.66920919</v>
       </c>
       <c r="D16">
-        <v>0.9995232123082506</v>
+        <v>0.66920919</v>
       </c>
       <c r="E16">
-        <v>1.001327499115208</v>
+        <v>0.70096497</v>
       </c>
       <c r="F16">
-        <v>0.9987642202217908</v>
+        <v>1.50387</v>
       </c>
       <c r="G16">
-        <v>0.9997630810529149</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="H16">
-        <v>1.00048568393452</v>
+        <v>0.45733154</v>
       </c>
       <c r="I16">
-        <v>0.9987642202217908</v>
+        <v>0.21885897</v>
       </c>
       <c r="J16">
-        <v>0.9995232123082506</v>
+        <v>1.1337668</v>
       </c>
       <c r="K16">
-        <v>1.000402119546383</v>
+        <v>1.9813918</v>
       </c>
       <c r="L16">
-        <v>0.9995621495063767</v>
+        <v>0.21885897</v>
       </c>
       <c r="M16">
-        <v>0.999673005436208</v>
+        <v>0.66920919</v>
       </c>
       <c r="N16">
-        <v>0.9987642202217908</v>
+        <v>0.66920919</v>
       </c>
       <c r="O16">
-        <v>1.001327499115208</v>
+        <v>1.9813918</v>
       </c>
       <c r="P16">
-        <v>1.000425355711729</v>
+        <v>1.100125385</v>
       </c>
       <c r="Q16">
-        <v>1.000545290084061</v>
+        <v>1.341178385</v>
       </c>
       <c r="R16">
-        <v>0.9998716438817498</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="S16">
-        <v>1.000204597492124</v>
+        <v>0.9670719133333332</v>
       </c>
       <c r="T16">
-        <v>0.9998716438817498</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="U16">
-        <v>0.999844503174541</v>
+        <v>0.8926062324999999</v>
       </c>
       <c r="V16">
-        <v>0.999628446583991</v>
+        <v>0.847926824</v>
       </c>
       <c r="W16">
-        <v>0.9999376213902065</v>
+        <v>0.9367964900000001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002764718166571</v>
+        <v>1.5381672</v>
       </c>
       <c r="D17">
-        <v>0.9999899090123413</v>
+        <v>1.5381672</v>
       </c>
       <c r="E17">
-        <v>0.9976740031647002</v>
+        <v>0.99745566</v>
       </c>
       <c r="F17">
-        <v>1.002764718166571</v>
+        <v>1.0930235</v>
       </c>
       <c r="G17">
-        <v>1.000355364673734</v>
+        <v>1.2942168</v>
       </c>
       <c r="H17">
-        <v>0.9994057223182539</v>
+        <v>0.69230537</v>
       </c>
       <c r="I17">
-        <v>1.002764718166571</v>
+        <v>0.44907826</v>
       </c>
       <c r="J17">
-        <v>0.9999899090123413</v>
+        <v>0.80463448</v>
       </c>
       <c r="K17">
-        <v>0.9990184180595196</v>
+        <v>0.82897899</v>
       </c>
       <c r="L17">
-        <v>1.001140027936693</v>
+        <v>0.44907826</v>
       </c>
       <c r="M17">
-        <v>1.000054985268714</v>
+        <v>1.5381672</v>
       </c>
       <c r="N17">
-        <v>1.002764718166571</v>
+        <v>1.5381672</v>
       </c>
       <c r="O17">
-        <v>0.9976740031647002</v>
+        <v>0.82897899</v>
       </c>
       <c r="P17">
-        <v>0.9988319560885208</v>
+        <v>0.639028625</v>
       </c>
       <c r="Q17">
-        <v>0.9990146839192171</v>
+        <v>0.913217325</v>
       </c>
       <c r="R17">
-        <v>1.000142876781204</v>
+        <v>0.9387414833333333</v>
       </c>
       <c r="S17">
-        <v>0.9993397589502585</v>
+        <v>0.7585043033333333</v>
       </c>
       <c r="T17">
-        <v>1.000142876781204</v>
+        <v>0.9387414833333333</v>
       </c>
       <c r="U17">
-        <v>1.000195998754337</v>
+        <v>0.9534200275</v>
       </c>
       <c r="V17">
-        <v>1.000709742636783</v>
+        <v>1.070369462</v>
       </c>
       <c r="W17">
-        <v>1.000050393575066</v>
+        <v>0.9622325325000001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9967708190545276</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="D18">
-        <v>0.9945819883492327</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="E18">
-        <v>1.00570606597644</v>
+        <v>0.9671472346575347</v>
       </c>
       <c r="F18">
-        <v>0.9967708190545276</v>
+        <v>1.085435333150685</v>
       </c>
       <c r="G18">
-        <v>0.9988455290386097</v>
+        <v>1.050024669863014</v>
       </c>
       <c r="H18">
-        <v>1.002632602441451</v>
+        <v>0.837131684657534</v>
       </c>
       <c r="I18">
-        <v>0.9967708190545276</v>
+        <v>0.690478783972603</v>
       </c>
       <c r="J18">
-        <v>0.9945819883492327</v>
+        <v>0.9940151619178083</v>
       </c>
       <c r="K18">
-        <v>1.001363640962957</v>
+        <v>1.093334542054795</v>
       </c>
       <c r="L18">
-        <v>0.9990746075760339</v>
+        <v>0.690478783972603</v>
       </c>
       <c r="M18">
-        <v>0.9969648206489499</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="N18">
-        <v>0.9967708190545276</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="O18">
-        <v>1.00570606597644</v>
+        <v>1.093334542054795</v>
       </c>
       <c r="P18">
-        <v>1.000144027162836</v>
+        <v>0.8919066630136988</v>
       </c>
       <c r="Q18">
-        <v>1.002275797507525</v>
+        <v>1.030240888356165</v>
       </c>
       <c r="R18">
-        <v>0.9990196244600668</v>
+        <v>0.9566617803652971</v>
       </c>
       <c r="S18">
-        <v>0.9997111944547608</v>
+        <v>0.9169868535616441</v>
       </c>
       <c r="T18">
-        <v>0.9990196244600668</v>
+        <v>0.9566617803652971</v>
       </c>
       <c r="U18">
-        <v>0.9989761006047024</v>
+        <v>0.9592831439383565</v>
       </c>
       <c r="V18">
-        <v>0.9985350442946676</v>
+        <v>0.9846609181643838</v>
       </c>
       <c r="W18">
-        <v>0.9994925092560252</v>
+        <v>0.9754674281678084</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9842761149165067</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="D19">
-        <v>0.9838885254766885</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="E19">
-        <v>1.02184816334801</v>
+        <v>0.8471434842105264</v>
       </c>
       <c r="F19">
-        <v>0.9842761149165067</v>
+        <v>1.300539889473684</v>
       </c>
       <c r="G19">
-        <v>0.9957045602694269</v>
+        <v>1.06028958631579</v>
       </c>
       <c r="H19">
-        <v>1.0091339203429</v>
+        <v>0.5741731294736843</v>
       </c>
       <c r="I19">
-        <v>0.9842761149165067</v>
+        <v>0.3333299310526316</v>
       </c>
       <c r="J19">
-        <v>0.9838885254766885</v>
+        <v>0.970772552105263</v>
       </c>
       <c r="K19">
-        <v>1.006346834790641</v>
+        <v>1.401508647368421</v>
       </c>
       <c r="L19">
-        <v>0.9947040013074299</v>
+        <v>0.3333299310526316</v>
       </c>
       <c r="M19">
-        <v>0.9908136732336565</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="N19">
-        <v>0.9842761149165067</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="O19">
-        <v>1.02184816334801</v>
+        <v>1.401508647368421</v>
       </c>
       <c r="P19">
-        <v>1.002868344412349</v>
+        <v>0.8674192892105265</v>
       </c>
       <c r="Q19">
-        <v>1.008776361808719</v>
+        <v>1.124326065789474</v>
       </c>
       <c r="R19">
-        <v>0.9966709345804018</v>
+        <v>0.9452663464912282</v>
       </c>
       <c r="S19">
-        <v>1.000480416364709</v>
+        <v>0.8606606875438598</v>
       </c>
       <c r="T19">
-        <v>0.9966709345804018</v>
+        <v>0.9452663464912282</v>
       </c>
       <c r="U19">
-        <v>0.996429341002658</v>
+        <v>0.9207356309210527</v>
       </c>
       <c r="V19">
-        <v>0.9939986957854277</v>
+        <v>0.9567805969473685</v>
       </c>
       <c r="W19">
-        <v>0.9983394742106575</v>
+        <v>0.948589710131579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.44579859</v>
+      </c>
+      <c r="D20">
+        <v>1.44579859</v>
+      </c>
+      <c r="E20">
+        <v>0.9339327247368422</v>
+      </c>
+      <c r="F20">
+        <v>1.036826840526316</v>
+      </c>
+      <c r="G20">
+        <v>1.115914565263158</v>
+      </c>
+      <c r="H20">
+        <v>0.8956406194736842</v>
+      </c>
+      <c r="I20">
+        <v>0.9472650827368424</v>
+      </c>
+      <c r="J20">
+        <v>0.8377543599999999</v>
+      </c>
+      <c r="K20">
+        <v>0.8602364342105261</v>
+      </c>
+      <c r="L20">
+        <v>0.9472650827368424</v>
+      </c>
+      <c r="M20">
+        <v>1.44579859</v>
+      </c>
+      <c r="N20">
+        <v>1.44579859</v>
+      </c>
+      <c r="O20">
+        <v>0.8602364342105261</v>
+      </c>
+      <c r="P20">
+        <v>0.9037507584736842</v>
+      </c>
+      <c r="Q20">
+        <v>0.8970845794736841</v>
+      </c>
+      <c r="R20">
+        <v>1.084433368982456</v>
+      </c>
+      <c r="S20">
+        <v>0.913811413894737</v>
+      </c>
+      <c r="T20">
+        <v>1.084433368982456</v>
+      </c>
+      <c r="U20">
+        <v>1.046808207921053</v>
+      </c>
+      <c r="V20">
+        <v>1.126606284336842</v>
+      </c>
+      <c r="W20">
+        <v>1.009171152118421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="D21">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="E21">
+        <v>0.838933621594107</v>
+      </c>
+      <c r="F21">
+        <v>1.300853129480476</v>
+      </c>
+      <c r="G21">
+        <v>0.9679033127066247</v>
+      </c>
+      <c r="H21">
+        <v>0.6212119471671718</v>
+      </c>
+      <c r="I21">
+        <v>0.3997616772347007</v>
+      </c>
+      <c r="J21">
+        <v>1.052605284117847</v>
+      </c>
+      <c r="K21">
+        <v>1.511779163827498</v>
+      </c>
+      <c r="L21">
+        <v>0.3997616772347007</v>
+      </c>
+      <c r="M21">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="N21">
+        <v>0.9087880591994199</v>
+      </c>
+      <c r="O21">
+        <v>1.511779163827498</v>
+      </c>
+      <c r="P21">
+        <v>0.9557704205310995</v>
+      </c>
+      <c r="Q21">
+        <v>1.175356392710803</v>
+      </c>
+      <c r="R21">
+        <v>0.9401096334205397</v>
+      </c>
+      <c r="S21">
+        <v>0.9168248208854353</v>
+      </c>
+      <c r="T21">
+        <v>0.9401096334205397</v>
+      </c>
+      <c r="U21">
+        <v>0.9148156304639314</v>
+      </c>
+      <c r="V21">
+        <v>0.9136101162110292</v>
+      </c>
+      <c r="W21">
+        <v>0.9502295244159807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="D22">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="E22">
+        <v>1.032031689822053</v>
+      </c>
+      <c r="F22">
+        <v>0.9689806783205963</v>
+      </c>
+      <c r="G22">
+        <v>1.108543999367504</v>
+      </c>
+      <c r="H22">
+        <v>0.962826678194716</v>
+      </c>
+      <c r="I22">
+        <v>0.8981189257257405</v>
+      </c>
+      <c r="J22">
+        <v>0.9297425911601358</v>
+      </c>
+      <c r="K22">
+        <v>0.8338698244311145</v>
+      </c>
+      <c r="L22">
+        <v>0.8981189257257405</v>
+      </c>
+      <c r="M22">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="N22">
+        <v>1.221534064635412</v>
+      </c>
+      <c r="O22">
+        <v>0.8338698244311145</v>
+      </c>
+      <c r="P22">
+        <v>0.8659943750784275</v>
+      </c>
+      <c r="Q22">
+        <v>0.9329507571265836</v>
+      </c>
+      <c r="R22">
+        <v>0.9845076049307556</v>
+      </c>
+      <c r="S22">
+        <v>0.9213401466596359</v>
+      </c>
+      <c r="T22">
+        <v>0.9845076049307556</v>
+      </c>
+      <c r="U22">
+        <v>0.9963886261535799</v>
+      </c>
+      <c r="V22">
+        <v>1.041417713849946</v>
+      </c>
+      <c r="W22">
+        <v>0.994456056457159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="D23">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="E23">
+        <v>1.063588675254941</v>
+      </c>
+      <c r="F23">
+        <v>0.9311903311937384</v>
+      </c>
+      <c r="G23">
+        <v>0.9846354010220275</v>
+      </c>
+      <c r="H23">
+        <v>1.090384057009017</v>
+      </c>
+      <c r="I23">
+        <v>1.077848287530474</v>
+      </c>
+      <c r="J23">
+        <v>1.045309007642355</v>
+      </c>
+      <c r="K23">
+        <v>0.9423442047973815</v>
+      </c>
+      <c r="L23">
+        <v>1.077848287530474</v>
+      </c>
+      <c r="M23">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="N23">
+        <v>0.8743057963633019</v>
+      </c>
+      <c r="O23">
+        <v>0.9423442047973815</v>
+      </c>
+      <c r="P23">
+        <v>1.010096246163928</v>
+      </c>
+      <c r="Q23">
+        <v>1.002966440026162</v>
+      </c>
+      <c r="R23">
+        <v>0.9648327628970526</v>
+      </c>
+      <c r="S23">
+        <v>1.027927055860933</v>
+      </c>
+      <c r="T23">
+        <v>0.9648327628970526</v>
+      </c>
+      <c r="U23">
+        <v>0.9895217409865248</v>
+      </c>
+      <c r="V23">
+        <v>0.9664785520618802</v>
+      </c>
+      <c r="W23">
+        <v>1.001200720101655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="D24">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="E24">
+        <v>0.966640151501355</v>
+      </c>
+      <c r="F24">
+        <v>1.007839094371018</v>
+      </c>
+      <c r="G24">
+        <v>0.9624409191507911</v>
+      </c>
+      <c r="H24">
+        <v>1.024858044456502</v>
+      </c>
+      <c r="I24">
+        <v>1.109876416108743</v>
+      </c>
+      <c r="J24">
+        <v>0.9915174289986017</v>
+      </c>
+      <c r="K24">
+        <v>1.025922240914058</v>
+      </c>
+      <c r="L24">
+        <v>1.109876416108743</v>
+      </c>
+      <c r="M24">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="N24">
+        <v>1.004824134484926</v>
+      </c>
+      <c r="O24">
+        <v>1.025922240914058</v>
+      </c>
+      <c r="P24">
+        <v>1.067899328511401</v>
+      </c>
+      <c r="Q24">
+        <v>0.9962811962077067</v>
+      </c>
+      <c r="R24">
+        <v>1.046874263835909</v>
+      </c>
+      <c r="S24">
+        <v>1.034146269508052</v>
+      </c>
+      <c r="T24">
+        <v>1.046874263835909</v>
+      </c>
+      <c r="U24">
+        <v>1.026815735752271</v>
+      </c>
+      <c r="V24">
+        <v>1.022417415498802</v>
+      </c>
+      <c r="W24">
+        <v>1.011739803748249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9228322620894721</v>
+      </c>
+      <c r="D25">
+        <v>0.9228322620894721</v>
+      </c>
+      <c r="E25">
+        <v>1.066814798466765</v>
+      </c>
+      <c r="F25">
+        <v>0.8035783469349088</v>
+      </c>
+      <c r="G25">
+        <v>0.9159837909008685</v>
+      </c>
+      <c r="H25">
+        <v>1.33626489330243</v>
+      </c>
+      <c r="I25">
+        <v>1.637713877199761</v>
+      </c>
+      <c r="J25">
+        <v>0.9943835439913082</v>
+      </c>
+      <c r="K25">
+        <v>0.7501783244515378</v>
+      </c>
+      <c r="L25">
+        <v>1.637713877199761</v>
+      </c>
+      <c r="M25">
+        <v>0.9228322620894721</v>
+      </c>
+      <c r="N25">
+        <v>0.9228322620894721</v>
+      </c>
+      <c r="O25">
+        <v>0.7501783244515378</v>
+      </c>
+      <c r="P25">
+        <v>1.19394610082565</v>
+      </c>
+      <c r="Q25">
+        <v>0.9084965614591516</v>
+      </c>
+      <c r="R25">
+        <v>1.103574821246924</v>
+      </c>
+      <c r="S25">
+        <v>1.151569000039355</v>
+      </c>
+      <c r="T25">
+        <v>1.103574821246924</v>
+      </c>
+      <c r="U25">
+        <v>1.094384815551884</v>
+      </c>
+      <c r="V25">
+        <v>1.060074304859402</v>
+      </c>
+      <c r="W25">
+        <v>1.053468729667131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8182966446144272</v>
+      </c>
+      <c r="D26">
+        <v>0.8182966446144272</v>
+      </c>
+      <c r="E26">
+        <v>1.07287602383903</v>
+      </c>
+      <c r="F26">
+        <v>0.9444961641413987</v>
+      </c>
+      <c r="G26">
+        <v>0.9817787650583222</v>
+      </c>
+      <c r="H26">
+        <v>1.059422759062827</v>
+      </c>
+      <c r="I26">
+        <v>0.9738448137654412</v>
+      </c>
+      <c r="J26">
+        <v>1.079804111484616</v>
+      </c>
+      <c r="K26">
+        <v>0.9900463380445352</v>
+      </c>
+      <c r="L26">
+        <v>0.9738448137654412</v>
+      </c>
+      <c r="M26">
+        <v>0.8182966446144272</v>
+      </c>
+      <c r="N26">
+        <v>0.8182966446144272</v>
+      </c>
+      <c r="O26">
+        <v>0.9900463380445352</v>
+      </c>
+      <c r="P26">
+        <v>0.9819455759049882</v>
+      </c>
+      <c r="Q26">
+        <v>1.031461180941783</v>
+      </c>
+      <c r="R26">
+        <v>0.9273959321414679</v>
+      </c>
+      <c r="S26">
+        <v>1.012255725216335</v>
+      </c>
+      <c r="T26">
+        <v>0.9273959321414678</v>
+      </c>
+      <c r="U26">
+        <v>0.9637659550658583</v>
+      </c>
+      <c r="V26">
+        <v>0.9346720929755721</v>
+      </c>
+      <c r="W26">
+        <v>0.9900707025013247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="D27">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="E27">
+        <v>0.9654907001741058</v>
+      </c>
+      <c r="F27">
+        <v>1.03710780699597</v>
+      </c>
+      <c r="G27">
+        <v>0.993750372380754</v>
+      </c>
+      <c r="H27">
+        <v>0.9761564371880601</v>
+      </c>
+      <c r="I27">
+        <v>1.027982943318867</v>
+      </c>
+      <c r="J27">
+        <v>0.9739849374715743</v>
+      </c>
+      <c r="K27">
+        <v>1.042924535010403</v>
+      </c>
+      <c r="L27">
+        <v>1.027982943318867</v>
+      </c>
+      <c r="M27">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="N27">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="O27">
+        <v>1.042924535010403</v>
+      </c>
+      <c r="P27">
+        <v>1.035453739164635</v>
+      </c>
+      <c r="Q27">
+        <v>1.004207617592255</v>
+      </c>
+      <c r="R27">
+        <v>1.02907296394124</v>
+      </c>
+      <c r="S27">
+        <v>1.012132726167792</v>
+      </c>
+      <c r="T27">
+        <v>1.02907296394124</v>
+      </c>
+      <c r="U27">
+        <v>1.013177397999457</v>
+      </c>
+      <c r="V27">
+        <v>1.013804201098456</v>
+      </c>
+      <c r="W27">
+        <v>1.004213643254273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="D28">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="E28">
+        <v>0.9843289499820205</v>
+      </c>
+      <c r="F28">
+        <v>1.024658547623451</v>
+      </c>
+      <c r="G28">
+        <v>0.9947443668184176</v>
+      </c>
+      <c r="H28">
+        <v>0.9698213093356984</v>
+      </c>
+      <c r="I28">
+        <v>0.9583671396287663</v>
+      </c>
+      <c r="J28">
+        <v>1.00562925676427</v>
+      </c>
+      <c r="K28">
+        <v>1.043764036142454</v>
+      </c>
+      <c r="L28">
+        <v>0.9583671396287663</v>
+      </c>
+      <c r="M28">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="N28">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="O28">
+        <v>1.043764036142454</v>
+      </c>
+      <c r="P28">
+        <v>1.00106558788561</v>
+      </c>
+      <c r="Q28">
+        <v>1.014046493062237</v>
+      </c>
+      <c r="R28">
+        <v>0.9974324720241105</v>
+      </c>
+      <c r="S28">
+        <v>0.9954867085844136</v>
+      </c>
+      <c r="T28">
+        <v>0.9974324720241105</v>
+      </c>
+      <c r="U28">
+        <v>0.9941565915135879</v>
+      </c>
+      <c r="V28">
+        <v>0.9933585212710925</v>
+      </c>
+      <c r="W28">
+        <v>0.9964349808245236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9725133389672499</v>
+      </c>
+      <c r="D29">
+        <v>0.9725133389672499</v>
+      </c>
+      <c r="E29">
+        <v>1.017948556398969</v>
+      </c>
+      <c r="F29">
+        <v>0.9677012888370342</v>
+      </c>
+      <c r="G29">
+        <v>0.9930618459651214</v>
+      </c>
+      <c r="H29">
+        <v>1.046281956018727</v>
+      </c>
+      <c r="I29">
+        <v>1.076125035923143</v>
+      </c>
+      <c r="J29">
+        <v>1.006566630260439</v>
+      </c>
+      <c r="K29">
+        <v>0.9599169617180888</v>
+      </c>
+      <c r="L29">
+        <v>1.076125035923143</v>
+      </c>
+      <c r="M29">
+        <v>0.9725133389672499</v>
+      </c>
+      <c r="N29">
+        <v>0.9725133389672499</v>
+      </c>
+      <c r="O29">
+        <v>0.9599169617180888</v>
+      </c>
+      <c r="P29">
+        <v>1.018020998820616</v>
+      </c>
+      <c r="Q29">
+        <v>0.9889327590585288</v>
+      </c>
+      <c r="R29">
+        <v>1.002851778869494</v>
+      </c>
+      <c r="S29">
+        <v>1.017996851346734</v>
+      </c>
+      <c r="T29">
+        <v>1.002851778869494</v>
+      </c>
+      <c r="U29">
+        <v>1.006625973251863</v>
+      </c>
+      <c r="V29">
+        <v>0.9998034463949402</v>
+      </c>
+      <c r="W29">
+        <v>1.005014451761097</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9888696712068198</v>
+        <v>1.064081375591077</v>
       </c>
       <c r="D4">
-        <v>0.9888696712068198</v>
+        <v>1.064081375591077</v>
       </c>
       <c r="E4">
-        <v>0.9672873733990822</v>
+        <v>0.9935062546122492</v>
       </c>
       <c r="F4">
-        <v>1.059526726508088</v>
+        <v>1.017852990332688</v>
       </c>
       <c r="G4">
-        <v>0.9950840157227293</v>
+        <v>1.030887920925754</v>
       </c>
       <c r="H4">
-        <v>0.92495448110025</v>
+        <v>0.9566676564085901</v>
       </c>
       <c r="I4">
-        <v>0.8839082502687687</v>
+        <v>0.9267831034673433</v>
       </c>
       <c r="J4">
-        <v>1.007194164447466</v>
+        <v>0.9784473422804345</v>
       </c>
       <c r="K4">
-        <v>1.098881614714952</v>
+        <v>0.9925154148963079</v>
       </c>
       <c r="L4">
-        <v>0.8839082502687687</v>
+        <v>0.9267831034673433</v>
       </c>
       <c r="M4">
-        <v>0.9888696712068198</v>
+        <v>1.064081375591077</v>
       </c>
       <c r="N4">
-        <v>0.9888696712068198</v>
+        <v>1.064081375591077</v>
       </c>
       <c r="O4">
-        <v>1.098881614714952</v>
+        <v>0.9925154148963079</v>
       </c>
       <c r="P4">
-        <v>0.9913949324918606</v>
+        <v>0.9596492591818255</v>
       </c>
       <c r="Q4">
-        <v>1.033084494057017</v>
+        <v>0.9930108347542785</v>
       </c>
       <c r="R4">
-        <v>0.9905531787301803</v>
+        <v>0.994459964651576</v>
       </c>
       <c r="S4">
-        <v>0.9833590794609345</v>
+        <v>0.9709349243253</v>
       </c>
       <c r="T4">
-        <v>0.9905531787301802</v>
+        <v>0.994459964651576</v>
       </c>
       <c r="U4">
-        <v>0.9847367273974057</v>
+        <v>0.9942215371417443</v>
       </c>
       <c r="V4">
-        <v>0.9855633161592886</v>
+        <v>1.008193504831611</v>
       </c>
       <c r="W4">
-        <v>0.9907132871710196</v>
+        <v>0.9950927573143056</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.088231728768009</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="D5">
-        <v>1.088231728768009</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="E5">
-        <v>0.9909615294092227</v>
+        <v>0.9355151632165263</v>
       </c>
       <c r="F5">
-        <v>1.022785186073484</v>
+        <v>1.026165493438321</v>
       </c>
       <c r="G5">
-        <v>1.04092569606628</v>
+        <v>1.091641389853606</v>
       </c>
       <c r="H5">
-        <v>0.9437325355835745</v>
+        <v>0.9271796133506524</v>
       </c>
       <c r="I5">
-        <v>0.9064381348948128</v>
+        <v>1.006839268817642</v>
       </c>
       <c r="J5">
-        <v>0.9704008977161396</v>
+        <v>0.8513589182185937</v>
       </c>
       <c r="K5">
-        <v>0.9879531479683007</v>
+        <v>0.8685884042816097</v>
       </c>
       <c r="L5">
-        <v>0.9064381348948128</v>
+        <v>1.006839268817642</v>
       </c>
       <c r="M5">
-        <v>1.088231728768009</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="N5">
-        <v>1.088231728768009</v>
+        <v>1.40056600203519</v>
       </c>
       <c r="O5">
-        <v>0.9879531479683007</v>
+        <v>0.8685884042816097</v>
       </c>
       <c r="P5">
-        <v>0.9471956414315568</v>
+        <v>0.9377138365496258</v>
       </c>
       <c r="Q5">
-        <v>0.9894573386887617</v>
+        <v>0.902051783749068</v>
       </c>
       <c r="R5">
-        <v>0.9942076705437074</v>
+        <v>1.091997891711481</v>
       </c>
       <c r="S5">
-        <v>0.9617842707574454</v>
+        <v>0.9369809454385926</v>
       </c>
       <c r="T5">
-        <v>0.9942076705437074</v>
+        <v>1.091997891711481</v>
       </c>
       <c r="U5">
-        <v>0.9933961352600862</v>
+        <v>1.052877209587742</v>
       </c>
       <c r="V5">
-        <v>1.012363253961671</v>
+        <v>1.122414968077231</v>
       </c>
       <c r="W5">
-        <v>0.9939286070599778</v>
+        <v>1.013481781651518</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.304525122508738</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="D6">
-        <v>1.304525122508738</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="E6">
-        <v>0.9948127530180264</v>
+        <v>0.9672873733990822</v>
       </c>
       <c r="F6">
-        <v>1.055967648670695</v>
+        <v>1.059526726508088</v>
       </c>
       <c r="G6">
-        <v>1.163371284150873</v>
+        <v>0.9950840157227293</v>
       </c>
       <c r="H6">
-        <v>0.8233325724062127</v>
+        <v>0.92495448110025</v>
       </c>
       <c r="I6">
-        <v>0.6868716159427491</v>
+        <v>0.8839082502687687</v>
       </c>
       <c r="J6">
-        <v>0.8904188841518215</v>
+        <v>1.007194164447466</v>
       </c>
       <c r="K6">
-        <v>0.9101229556223095</v>
+        <v>1.098881614714952</v>
       </c>
       <c r="L6">
-        <v>0.6868716159427491</v>
+        <v>0.8839082502687687</v>
       </c>
       <c r="M6">
-        <v>1.304525122508738</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="N6">
-        <v>1.304525122508738</v>
+        <v>0.9888696712068198</v>
       </c>
       <c r="O6">
-        <v>0.9101229556223095</v>
+        <v>1.098881614714952</v>
       </c>
       <c r="P6">
-        <v>0.7984972857825293</v>
+        <v>0.9913949324918606</v>
       </c>
       <c r="Q6">
-        <v>0.9524678543201679</v>
+        <v>1.033084494057017</v>
       </c>
       <c r="R6">
-        <v>0.9671732313579323</v>
+        <v>0.9905531787301803</v>
       </c>
       <c r="S6">
-        <v>0.8639357748610283</v>
+        <v>0.9833590794609345</v>
       </c>
       <c r="T6">
-        <v>0.9671732313579323</v>
+        <v>0.9905531787301802</v>
       </c>
       <c r="U6">
-        <v>0.9740831117729558</v>
+        <v>0.9847367273974057</v>
       </c>
       <c r="V6">
-        <v>1.040171513920112</v>
+        <v>0.9855633161592886</v>
       </c>
       <c r="W6">
-        <v>0.9786778545589282</v>
+        <v>0.9907132871710196</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.006116179558267</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="D7">
-        <v>1.006116179558267</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="E7">
-        <v>0.9983867570646217</v>
+        <v>0.9909615294092227</v>
       </c>
       <c r="F7">
-        <v>1.003489437365741</v>
+        <v>1.022785186073484</v>
       </c>
       <c r="G7">
-        <v>1.002698739995631</v>
+        <v>1.04092569606628</v>
       </c>
       <c r="H7">
-        <v>0.9930097509751052</v>
+        <v>0.9437325355835745</v>
       </c>
       <c r="I7">
-        <v>0.9874142764490363</v>
+        <v>0.9064381348948128</v>
       </c>
       <c r="J7">
-        <v>0.9988348833777717</v>
+        <v>0.9704008977161396</v>
       </c>
       <c r="K7">
-        <v>1.00268061970699</v>
+        <v>0.9879531479683007</v>
       </c>
       <c r="L7">
-        <v>0.9874142764490363</v>
+        <v>0.9064381348948128</v>
       </c>
       <c r="M7">
-        <v>1.006116179558267</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="N7">
-        <v>1.006116179558267</v>
+        <v>1.088231728768009</v>
       </c>
       <c r="O7">
-        <v>1.00268061970699</v>
+        <v>0.9879531479683007</v>
       </c>
       <c r="P7">
-        <v>0.995047448078013</v>
+        <v>0.9471956414315568</v>
       </c>
       <c r="Q7">
-        <v>1.000533688385806</v>
+        <v>0.9894573386887617</v>
       </c>
       <c r="R7">
-        <v>0.9987370252380976</v>
+        <v>0.9942076705437074</v>
       </c>
       <c r="S7">
-        <v>0.9961605510735492</v>
+        <v>0.9617842707574454</v>
       </c>
       <c r="T7">
-        <v>0.9987370252380976</v>
+        <v>0.9942076705437074</v>
       </c>
       <c r="U7">
-        <v>0.9986494581947286</v>
+        <v>0.9933961352600862</v>
       </c>
       <c r="V7">
-        <v>1.000142802467436</v>
+        <v>1.012363253961671</v>
       </c>
       <c r="W7">
-        <v>0.9990788305616454</v>
+        <v>0.9939286070599778</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002764718166571</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="D8">
-        <v>1.002764718166571</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="E8">
-        <v>1.000355364673734</v>
+        <v>0.9948127530180264</v>
       </c>
       <c r="F8">
-        <v>0.9994057223182539</v>
+        <v>1.055967648670695</v>
       </c>
       <c r="G8">
-        <v>1.001140027936693</v>
+        <v>1.163371284150873</v>
       </c>
       <c r="H8">
-        <v>1.000054985268714</v>
+        <v>0.8233325724062127</v>
       </c>
       <c r="I8">
-        <v>0.9999899090123414</v>
+        <v>0.6868716159427491</v>
       </c>
       <c r="J8">
-        <v>0.99901841805952</v>
+        <v>0.8904188841518215</v>
       </c>
       <c r="K8">
-        <v>0.9976740031647002</v>
+        <v>0.9101229556223095</v>
       </c>
       <c r="L8">
-        <v>0.9999899090123414</v>
+        <v>0.6868716159427491</v>
       </c>
       <c r="M8">
-        <v>1.002764718166571</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="N8">
-        <v>1.002764718166571</v>
+        <v>1.304525122508738</v>
       </c>
       <c r="O8">
-        <v>0.9976740031647002</v>
+        <v>0.9101229556223095</v>
       </c>
       <c r="P8">
-        <v>0.9988319560885208</v>
+        <v>0.7984972857825293</v>
       </c>
       <c r="Q8">
-        <v>0.9990146839192171</v>
+        <v>0.9524678543201679</v>
       </c>
       <c r="R8">
-        <v>1.000142876781204</v>
+        <v>0.9671732313579323</v>
       </c>
       <c r="S8">
-        <v>0.9993397589502585</v>
+        <v>0.8639357748610283</v>
       </c>
       <c r="T8">
-        <v>1.000142876781204</v>
+        <v>0.9671732313579323</v>
       </c>
       <c r="U8">
-        <v>1.000195998754337</v>
+        <v>0.9740831117729558</v>
       </c>
       <c r="V8">
-        <v>1.000709742636783</v>
+        <v>1.040171513920112</v>
       </c>
       <c r="W8">
-        <v>1.000050393575066</v>
+        <v>0.9786778545589282</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.006016893639718</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="D9">
-        <v>1.006016893639718</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="E9">
-        <v>0.9978123720790359</v>
+        <v>0.9983867570646217</v>
       </c>
       <c r="F9">
-        <v>1.006504986394483</v>
+        <v>1.003489437365741</v>
       </c>
       <c r="G9">
-        <v>1.004027148601372</v>
+        <v>1.002698739995631</v>
       </c>
       <c r="H9">
-        <v>0.9873367247666035</v>
+        <v>0.9930097509751052</v>
       </c>
       <c r="I9">
-        <v>0.9752956389863869</v>
+        <v>0.9874142764490363</v>
       </c>
       <c r="J9">
-        <v>0.9997965502323951</v>
+        <v>0.9988348833777717</v>
       </c>
       <c r="K9">
-        <v>1.007232664875254</v>
+        <v>1.00268061970699</v>
       </c>
       <c r="L9">
-        <v>0.9752956389863869</v>
+        <v>0.9874142764490363</v>
       </c>
       <c r="M9">
-        <v>1.006016893639718</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="N9">
-        <v>1.006016893639718</v>
+        <v>1.006116179558267</v>
       </c>
       <c r="O9">
-        <v>1.007232664875254</v>
+        <v>1.00268061970699</v>
       </c>
       <c r="P9">
-        <v>0.9912641519308206</v>
+        <v>0.995047448078013</v>
       </c>
       <c r="Q9">
-        <v>1.002522518477145</v>
+        <v>1.000533688385806</v>
       </c>
       <c r="R9">
-        <v>0.9961817325004532</v>
+        <v>0.9987370252380976</v>
       </c>
       <c r="S9">
-        <v>0.9934468919802257</v>
+        <v>0.9961605510735492</v>
       </c>
       <c r="T9">
-        <v>0.9961817325004532</v>
+        <v>0.9987370252380976</v>
       </c>
       <c r="U9">
-        <v>0.9965893923950988</v>
+        <v>0.9986494581947286</v>
       </c>
       <c r="V9">
-        <v>0.9984748926440226</v>
+        <v>1.000142802467436</v>
       </c>
       <c r="W9">
-        <v>0.9980028724469061</v>
+        <v>0.9990788305616454</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.310062492977931</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="D10">
-        <v>1.310062492977931</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="E10">
-        <v>0.9972152777241381</v>
+        <v>1.000355364673734</v>
       </c>
       <c r="F10">
-        <v>1.054789048171467</v>
+        <v>0.9994057223182539</v>
       </c>
       <c r="G10">
-        <v>1.16804478730464</v>
+        <v>1.001140027936693</v>
       </c>
       <c r="H10">
-        <v>0.8212438350420552</v>
+        <v>1.000054985268714</v>
       </c>
       <c r="I10">
-        <v>0.6794329949523429</v>
+        <v>0.9999899090123414</v>
       </c>
       <c r="J10">
-        <v>0.888829492740952</v>
+        <v>0.99901841805952</v>
       </c>
       <c r="K10">
-        <v>0.9045206297321394</v>
+        <v>0.9976740031647002</v>
       </c>
       <c r="L10">
-        <v>0.6794329949523429</v>
+        <v>0.9999899090123414</v>
       </c>
       <c r="M10">
-        <v>1.310062492977931</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="N10">
-        <v>1.310062492977931</v>
+        <v>1.002764718166571</v>
       </c>
       <c r="O10">
-        <v>0.9045206297321394</v>
+        <v>0.9976740031647002</v>
       </c>
       <c r="P10">
-        <v>0.7919768123422412</v>
+        <v>0.9988319560885208</v>
       </c>
       <c r="Q10">
-        <v>0.9508679537281388</v>
+        <v>0.9990146839192171</v>
       </c>
       <c r="R10">
-        <v>0.9646720392208046</v>
+        <v>1.000142876781204</v>
       </c>
       <c r="S10">
-        <v>0.8603896341362068</v>
+        <v>0.9993397589502585</v>
       </c>
       <c r="T10">
-        <v>0.9646720392208046</v>
+        <v>1.000142876781204</v>
       </c>
       <c r="U10">
-        <v>0.972807848846638</v>
+        <v>1.000195998754337</v>
       </c>
       <c r="V10">
-        <v>1.040258777672897</v>
+        <v>1.000709742636783</v>
       </c>
       <c r="W10">
-        <v>0.9780173198307083</v>
+        <v>1.000050393575066</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9185421210332686</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="D11">
-        <v>0.9185421210332686</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="E11">
-        <v>0.9971432637512552</v>
+        <v>0.9978123720790359</v>
       </c>
       <c r="F11">
-        <v>1.001827689049868</v>
+        <v>1.006504986394483</v>
       </c>
       <c r="G11">
-        <v>0.964419873784525</v>
+        <v>1.004027148601372</v>
       </c>
       <c r="H11">
-        <v>1.021110085755866</v>
+        <v>0.9873367247666035</v>
       </c>
       <c r="I11">
-        <v>1.038158177814327</v>
+        <v>0.9752956389863869</v>
       </c>
       <c r="J11">
-        <v>1.027289504734046</v>
+        <v>0.9997965502323951</v>
       </c>
       <c r="K11">
-        <v>1.046036505546383</v>
+        <v>1.007232664875254</v>
       </c>
       <c r="L11">
-        <v>1.038158177814327</v>
+        <v>0.9752956389863869</v>
       </c>
       <c r="M11">
-        <v>0.9185421210332686</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="N11">
-        <v>0.9185421210332686</v>
+        <v>1.006016893639718</v>
       </c>
       <c r="O11">
-        <v>1.046036505546383</v>
+        <v>1.007232664875254</v>
       </c>
       <c r="P11">
-        <v>1.042097341680355</v>
+        <v>0.9912641519308206</v>
       </c>
       <c r="Q11">
-        <v>1.021589884648819</v>
+        <v>1.002522518477145</v>
       </c>
       <c r="R11">
-        <v>1.000912268131326</v>
+        <v>0.9961817325004532</v>
       </c>
       <c r="S11">
-        <v>1.027112649037322</v>
+        <v>0.9934468919802257</v>
       </c>
       <c r="T11">
-        <v>1.000912268131326</v>
+        <v>0.9961817325004532</v>
       </c>
       <c r="U11">
-        <v>0.9999700170363084</v>
+        <v>0.9965893923950988</v>
       </c>
       <c r="V11">
-        <v>0.9836844378357004</v>
+        <v>0.9984748926440226</v>
       </c>
       <c r="W11">
-        <v>1.001815902683692</v>
+        <v>0.9980028724469061</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.096610814305261</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="D12">
-        <v>1.096610814305261</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="E12">
-        <v>0.9984348569263156</v>
+        <v>0.9972152777241381</v>
       </c>
       <c r="F12">
-        <v>1.014548685589472</v>
+        <v>1.054789048171467</v>
       </c>
       <c r="G12">
-        <v>1.048649811452629</v>
+        <v>1.16804478730464</v>
       </c>
       <c r="H12">
-        <v>0.9489819193473695</v>
+        <v>0.8212438350420552</v>
       </c>
       <c r="I12">
-        <v>0.9085354099263173</v>
+        <v>0.6794329949523429</v>
       </c>
       <c r="J12">
-        <v>0.9670700295473694</v>
+        <v>0.888829492740952</v>
       </c>
       <c r="K12">
-        <v>0.9689486096210538</v>
+        <v>0.9045206297321394</v>
       </c>
       <c r="L12">
-        <v>0.9085354099263173</v>
+        <v>0.6794329949523429</v>
       </c>
       <c r="M12">
-        <v>1.096610814305261</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="N12">
-        <v>1.096610814305261</v>
+        <v>1.310062492977931</v>
       </c>
       <c r="O12">
-        <v>0.9689486096210538</v>
+        <v>0.9045206297321394</v>
       </c>
       <c r="P12">
-        <v>0.9387420097736856</v>
+        <v>0.7919768123422412</v>
       </c>
       <c r="Q12">
-        <v>0.9836917332736848</v>
+        <v>0.9508679537281388</v>
       </c>
       <c r="R12">
-        <v>0.991364944617544</v>
+        <v>0.9646720392208046</v>
       </c>
       <c r="S12">
-        <v>0.9586396254912289</v>
+        <v>0.8603896341362068</v>
       </c>
       <c r="T12">
-        <v>0.991364944617544</v>
+        <v>0.9646720392208046</v>
       </c>
       <c r="U12">
-        <v>0.9931324226947369</v>
+        <v>0.972807848846638</v>
       </c>
       <c r="V12">
-        <v>1.013828101016842</v>
+        <v>1.040258777672897</v>
       </c>
       <c r="W12">
-        <v>0.9939725170894735</v>
+        <v>0.9780173198307083</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9478023939736848</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="D13">
-        <v>0.9478023939736848</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="E13">
-        <v>1.018804945208399</v>
+        <v>0.9971432637512552</v>
       </c>
       <c r="F13">
-        <v>0.9747278287258589</v>
+        <v>1.001827689049868</v>
       </c>
       <c r="G13">
-        <v>0.9854758111490174</v>
+        <v>0.964419873784525</v>
       </c>
       <c r="H13">
-        <v>1.039780569698628</v>
+        <v>1.021110085755866</v>
       </c>
       <c r="I13">
-        <v>1.048547204903332</v>
+        <v>1.038158177814327</v>
       </c>
       <c r="J13">
-        <v>1.018537580449472</v>
+        <v>1.027289504734046</v>
       </c>
       <c r="K13">
-        <v>0.9851680551891829</v>
+        <v>1.046036505546383</v>
       </c>
       <c r="L13">
-        <v>1.048547204903332</v>
+        <v>1.038158177814327</v>
       </c>
       <c r="M13">
-        <v>0.9478023939736848</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="N13">
-        <v>0.9478023939736848</v>
+        <v>0.9185421210332686</v>
       </c>
       <c r="O13">
-        <v>0.9851680551891829</v>
+        <v>1.046036505546383</v>
       </c>
       <c r="P13">
-        <v>1.016857630046257</v>
+        <v>1.042097341680355</v>
       </c>
       <c r="Q13">
-        <v>1.001986500198791</v>
+        <v>1.021589884648819</v>
       </c>
       <c r="R13">
-        <v>0.9938392180220665</v>
+        <v>1.000912268131326</v>
       </c>
       <c r="S13">
-        <v>1.017506735100304</v>
+        <v>1.027112649037322</v>
       </c>
       <c r="T13">
-        <v>0.9938392180220664</v>
+        <v>1.000912268131326</v>
       </c>
       <c r="U13">
-        <v>1.00008064981865</v>
+        <v>0.9999700170363084</v>
       </c>
       <c r="V13">
-        <v>0.9896249986496567</v>
+        <v>0.9836844378357004</v>
       </c>
       <c r="W13">
-        <v>1.002355548662197</v>
+        <v>1.001815902683692</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.5381067</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="D14">
-        <v>1.5381067</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="E14">
-        <v>0.9974725100000001</v>
+        <v>0.9984348569263156</v>
       </c>
       <c r="F14">
-        <v>1.093006000000001</v>
+        <v>1.014548685589472</v>
       </c>
       <c r="G14">
-        <v>1.294202600000001</v>
+        <v>1.048649811452629</v>
       </c>
       <c r="H14">
-        <v>0.6923359199999995</v>
+        <v>0.9489819193473695</v>
       </c>
       <c r="I14">
-        <v>0.4491106900000006</v>
+        <v>0.9085354099263173</v>
       </c>
       <c r="J14">
-        <v>0.8046543299999986</v>
+        <v>0.9670700295473694</v>
       </c>
       <c r="K14">
-        <v>0.8289779500000009</v>
+        <v>0.9689486096210538</v>
       </c>
       <c r="L14">
-        <v>0.4491106900000006</v>
+        <v>0.9085354099263173</v>
       </c>
       <c r="M14">
-        <v>1.5381067</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="N14">
-        <v>1.5381067</v>
+        <v>1.096610814305261</v>
       </c>
       <c r="O14">
-        <v>0.8289779500000009</v>
+        <v>0.9689486096210538</v>
       </c>
       <c r="P14">
-        <v>0.6390443200000007</v>
+        <v>0.9387420097736856</v>
       </c>
       <c r="Q14">
-        <v>0.9132252300000006</v>
+        <v>0.9836917332736848</v>
       </c>
       <c r="R14">
-        <v>0.9387317800000003</v>
+        <v>0.991364944617544</v>
       </c>
       <c r="S14">
-        <v>0.7585203833333338</v>
+        <v>0.9586396254912289</v>
       </c>
       <c r="T14">
-        <v>0.9387317800000005</v>
+        <v>0.991364944617544</v>
       </c>
       <c r="U14">
-        <v>0.9534169625000004</v>
+        <v>0.9931324226947369</v>
       </c>
       <c r="V14">
-        <v>1.07035491</v>
+        <v>1.013828101016842</v>
       </c>
       <c r="W14">
-        <v>0.9622333375000003</v>
+        <v>0.9939725170894735</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.955281</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="D15">
-        <v>2.955281</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="E15">
-        <v>0.66032449</v>
+        <v>1.018804945208399</v>
       </c>
       <c r="F15">
-        <v>1.3207022</v>
+        <v>0.9747278287258589</v>
       </c>
       <c r="G15">
-        <v>1.538147</v>
+        <v>0.9854758111490174</v>
       </c>
       <c r="H15">
-        <v>0.22565214</v>
+        <v>1.039780569698628</v>
       </c>
       <c r="I15">
-        <v>0.054357122</v>
+        <v>1.048547204903332</v>
       </c>
       <c r="J15">
-        <v>0.39464802</v>
+        <v>1.018537580449472</v>
       </c>
       <c r="K15">
-        <v>0.66920919</v>
+        <v>0.9851680551891829</v>
       </c>
       <c r="L15">
-        <v>0.054357122</v>
+        <v>1.048547204903332</v>
       </c>
       <c r="M15">
-        <v>2.955281</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="N15">
-        <v>2.955281</v>
+        <v>0.9478023939736848</v>
       </c>
       <c r="O15">
-        <v>0.66920919</v>
+        <v>0.9851680551891829</v>
       </c>
       <c r="P15">
-        <v>0.361783156</v>
+        <v>1.016857630046257</v>
       </c>
       <c r="Q15">
-        <v>0.66476684</v>
+        <v>1.001986500198791</v>
       </c>
       <c r="R15">
-        <v>1.226282437333333</v>
+        <v>0.9938392180220665</v>
       </c>
       <c r="S15">
-        <v>0.461296934</v>
+        <v>1.017506735100304</v>
       </c>
       <c r="T15">
-        <v>1.226282437333333</v>
+        <v>0.9938392180220664</v>
       </c>
       <c r="U15">
-        <v>1.0847929505</v>
+        <v>1.00008064981865</v>
       </c>
       <c r="V15">
-        <v>1.4588905604</v>
+        <v>0.9896249986496567</v>
       </c>
       <c r="W15">
-        <v>0.9772901452499999</v>
+        <v>1.002355548662197</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.66920919</v>
+        <v>1.5381067</v>
       </c>
       <c r="D16">
-        <v>0.66920919</v>
+        <v>1.5381067</v>
       </c>
       <c r="E16">
-        <v>0.70096497</v>
+        <v>0.9974725100000001</v>
       </c>
       <c r="F16">
-        <v>1.50387</v>
+        <v>1.093006000000001</v>
       </c>
       <c r="G16">
-        <v>0.8289786500000002</v>
+        <v>1.294202600000001</v>
       </c>
       <c r="H16">
-        <v>0.45733154</v>
+        <v>0.6923359199999995</v>
       </c>
       <c r="I16">
-        <v>0.21885897</v>
+        <v>0.4491106900000006</v>
       </c>
       <c r="J16">
-        <v>1.1337668</v>
+        <v>0.8046543299999986</v>
       </c>
       <c r="K16">
-        <v>1.9813918</v>
+        <v>0.8289779500000009</v>
       </c>
       <c r="L16">
-        <v>0.21885897</v>
+        <v>0.4491106900000006</v>
       </c>
       <c r="M16">
-        <v>0.66920919</v>
+        <v>1.5381067</v>
       </c>
       <c r="N16">
-        <v>0.66920919</v>
+        <v>1.5381067</v>
       </c>
       <c r="O16">
-        <v>1.9813918</v>
+        <v>0.8289779500000009</v>
       </c>
       <c r="P16">
-        <v>1.100125385</v>
+        <v>0.6390443200000007</v>
       </c>
       <c r="Q16">
-        <v>1.341178385</v>
+        <v>0.9132252300000006</v>
       </c>
       <c r="R16">
-        <v>0.9564866533333333</v>
+        <v>0.9387317800000003</v>
       </c>
       <c r="S16">
-        <v>0.9670719133333332</v>
+        <v>0.7585203833333338</v>
       </c>
       <c r="T16">
-        <v>0.9564866533333333</v>
+        <v>0.9387317800000005</v>
       </c>
       <c r="U16">
-        <v>0.8926062324999999</v>
+        <v>0.9534169625000004</v>
       </c>
       <c r="V16">
-        <v>0.847926824</v>
+        <v>1.07035491</v>
       </c>
       <c r="W16">
-        <v>0.9367964900000001</v>
+        <v>0.9622333375000003</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.5381672</v>
+        <v>2.955281</v>
       </c>
       <c r="D17">
-        <v>1.5381672</v>
+        <v>2.955281</v>
       </c>
       <c r="E17">
-        <v>0.99745566</v>
+        <v>0.66032449</v>
       </c>
       <c r="F17">
-        <v>1.0930235</v>
+        <v>1.3207022</v>
       </c>
       <c r="G17">
-        <v>1.2942168</v>
+        <v>1.538147</v>
       </c>
       <c r="H17">
-        <v>0.69230537</v>
+        <v>0.22565214</v>
       </c>
       <c r="I17">
-        <v>0.44907826</v>
+        <v>0.054357122</v>
       </c>
       <c r="J17">
-        <v>0.80463448</v>
+        <v>0.39464802</v>
       </c>
       <c r="K17">
-        <v>0.82897899</v>
+        <v>0.66920919</v>
       </c>
       <c r="L17">
-        <v>0.44907826</v>
+        <v>0.054357122</v>
       </c>
       <c r="M17">
-        <v>1.5381672</v>
+        <v>2.955281</v>
       </c>
       <c r="N17">
-        <v>1.5381672</v>
+        <v>2.955281</v>
       </c>
       <c r="O17">
-        <v>0.82897899</v>
+        <v>0.66920919</v>
       </c>
       <c r="P17">
-        <v>0.639028625</v>
+        <v>0.361783156</v>
       </c>
       <c r="Q17">
-        <v>0.913217325</v>
+        <v>0.66476684</v>
       </c>
       <c r="R17">
-        <v>0.9387414833333333</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="S17">
-        <v>0.7585043033333333</v>
+        <v>0.461296934</v>
       </c>
       <c r="T17">
-        <v>0.9387414833333333</v>
+        <v>1.226282437333333</v>
       </c>
       <c r="U17">
-        <v>0.9534200275</v>
+        <v>1.0847929505</v>
       </c>
       <c r="V17">
-        <v>1.070369462</v>
+        <v>1.4588905604</v>
       </c>
       <c r="W17">
-        <v>0.9622325325000001</v>
+        <v>0.9772901452499999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.086172015068494</v>
+        <v>0.66920919</v>
       </c>
       <c r="D18">
-        <v>1.086172015068494</v>
+        <v>0.66920919</v>
       </c>
       <c r="E18">
-        <v>0.9671472346575347</v>
+        <v>0.70096497</v>
       </c>
       <c r="F18">
-        <v>1.085435333150685</v>
+        <v>1.50387</v>
       </c>
       <c r="G18">
-        <v>1.050024669863014</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="H18">
-        <v>0.837131684657534</v>
+        <v>0.45733154</v>
       </c>
       <c r="I18">
-        <v>0.690478783972603</v>
+        <v>0.21885897</v>
       </c>
       <c r="J18">
-        <v>0.9940151619178083</v>
+        <v>1.1337668</v>
       </c>
       <c r="K18">
-        <v>1.093334542054795</v>
+        <v>1.9813918</v>
       </c>
       <c r="L18">
-        <v>0.690478783972603</v>
+        <v>0.21885897</v>
       </c>
       <c r="M18">
-        <v>1.086172015068494</v>
+        <v>0.66920919</v>
       </c>
       <c r="N18">
-        <v>1.086172015068494</v>
+        <v>0.66920919</v>
       </c>
       <c r="O18">
-        <v>1.093334542054795</v>
+        <v>1.9813918</v>
       </c>
       <c r="P18">
-        <v>0.8919066630136988</v>
+        <v>1.100125385</v>
       </c>
       <c r="Q18">
-        <v>1.030240888356165</v>
+        <v>1.341178385</v>
       </c>
       <c r="R18">
-        <v>0.9566617803652971</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="S18">
-        <v>0.9169868535616441</v>
+        <v>0.9670719133333332</v>
       </c>
       <c r="T18">
-        <v>0.9566617803652971</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="U18">
-        <v>0.9592831439383565</v>
+        <v>0.8926062324999999</v>
       </c>
       <c r="V18">
-        <v>0.9846609181643838</v>
+        <v>0.847926824</v>
       </c>
       <c r="W18">
-        <v>0.9754674281678084</v>
+        <v>0.9367964900000001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.100960461052632</v>
+        <v>1.5381672</v>
       </c>
       <c r="D19">
-        <v>1.100960461052632</v>
+        <v>1.5381672</v>
       </c>
       <c r="E19">
-        <v>0.8471434842105264</v>
+        <v>0.99745566</v>
       </c>
       <c r="F19">
-        <v>1.300539889473684</v>
+        <v>1.0930235</v>
       </c>
       <c r="G19">
-        <v>1.06028958631579</v>
+        <v>1.2942168</v>
       </c>
       <c r="H19">
-        <v>0.5741731294736843</v>
+        <v>0.69230537</v>
       </c>
       <c r="I19">
-        <v>0.3333299310526316</v>
+        <v>0.44907826</v>
       </c>
       <c r="J19">
-        <v>0.970772552105263</v>
+        <v>0.80463448</v>
       </c>
       <c r="K19">
-        <v>1.401508647368421</v>
+        <v>0.82897899</v>
       </c>
       <c r="L19">
-        <v>0.3333299310526316</v>
+        <v>0.44907826</v>
       </c>
       <c r="M19">
-        <v>1.100960461052632</v>
+        <v>1.5381672</v>
       </c>
       <c r="N19">
-        <v>1.100960461052632</v>
+        <v>1.5381672</v>
       </c>
       <c r="O19">
-        <v>1.401508647368421</v>
+        <v>0.82897899</v>
       </c>
       <c r="P19">
-        <v>0.8674192892105265</v>
+        <v>0.639028625</v>
       </c>
       <c r="Q19">
-        <v>1.124326065789474</v>
+        <v>0.913217325</v>
       </c>
       <c r="R19">
-        <v>0.9452663464912282</v>
+        <v>0.9387414833333333</v>
       </c>
       <c r="S19">
-        <v>0.8606606875438598</v>
+        <v>0.7585043033333333</v>
       </c>
       <c r="T19">
-        <v>0.9452663464912282</v>
+        <v>0.9387414833333333</v>
       </c>
       <c r="U19">
-        <v>0.9207356309210527</v>
+        <v>0.9534200275</v>
       </c>
       <c r="V19">
-        <v>0.9567805969473685</v>
+        <v>1.070369462</v>
       </c>
       <c r="W19">
-        <v>0.948589710131579</v>
+        <v>0.9622325325000001</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.44579859</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="D20">
-        <v>1.44579859</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="E20">
-        <v>0.9339327247368422</v>
+        <v>0.9671472346575347</v>
       </c>
       <c r="F20">
-        <v>1.036826840526316</v>
+        <v>1.085435333150685</v>
       </c>
       <c r="G20">
-        <v>1.115914565263158</v>
+        <v>1.050024669863014</v>
       </c>
       <c r="H20">
-        <v>0.8956406194736842</v>
+        <v>0.837131684657534</v>
       </c>
       <c r="I20">
-        <v>0.9472650827368424</v>
+        <v>0.690478783972603</v>
       </c>
       <c r="J20">
-        <v>0.8377543599999999</v>
+        <v>0.9940151619178083</v>
       </c>
       <c r="K20">
-        <v>0.8602364342105261</v>
+        <v>1.093334542054795</v>
       </c>
       <c r="L20">
-        <v>0.9472650827368424</v>
+        <v>0.690478783972603</v>
       </c>
       <c r="M20">
-        <v>1.44579859</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="N20">
-        <v>1.44579859</v>
+        <v>1.086172015068494</v>
       </c>
       <c r="O20">
-        <v>0.8602364342105261</v>
+        <v>1.093334542054795</v>
       </c>
       <c r="P20">
-        <v>0.9037507584736842</v>
+        <v>0.8919066630136988</v>
       </c>
       <c r="Q20">
-        <v>0.8970845794736841</v>
+        <v>1.030240888356165</v>
       </c>
       <c r="R20">
-        <v>1.084433368982456</v>
+        <v>0.9566617803652971</v>
       </c>
       <c r="S20">
-        <v>0.913811413894737</v>
+        <v>0.9169868535616441</v>
       </c>
       <c r="T20">
-        <v>1.084433368982456</v>
+        <v>0.9566617803652971</v>
       </c>
       <c r="U20">
-        <v>1.046808207921053</v>
+        <v>0.9592831439383565</v>
       </c>
       <c r="V20">
-        <v>1.126606284336842</v>
+        <v>0.9846609181643838</v>
       </c>
       <c r="W20">
-        <v>1.009171152118421</v>
+        <v>0.9754674281678084</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9087880591994199</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="D21">
-        <v>0.9087880591994199</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="E21">
-        <v>0.838933621594107</v>
+        <v>0.8471434842105264</v>
       </c>
       <c r="F21">
-        <v>1.300853129480476</v>
+        <v>1.300539889473684</v>
       </c>
       <c r="G21">
-        <v>0.9679033127066247</v>
+        <v>1.06028958631579</v>
       </c>
       <c r="H21">
-        <v>0.6212119471671718</v>
+        <v>0.5741731294736843</v>
       </c>
       <c r="I21">
-        <v>0.3997616772347007</v>
+        <v>0.3333299310526316</v>
       </c>
       <c r="J21">
-        <v>1.052605284117847</v>
+        <v>0.970772552105263</v>
       </c>
       <c r="K21">
-        <v>1.511779163827498</v>
+        <v>1.401508647368421</v>
       </c>
       <c r="L21">
-        <v>0.3997616772347007</v>
+        <v>0.3333299310526316</v>
       </c>
       <c r="M21">
-        <v>0.9087880591994199</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="N21">
-        <v>0.9087880591994199</v>
+        <v>1.100960461052632</v>
       </c>
       <c r="O21">
-        <v>1.511779163827498</v>
+        <v>1.401508647368421</v>
       </c>
       <c r="P21">
-        <v>0.9557704205310995</v>
+        <v>0.8674192892105265</v>
       </c>
       <c r="Q21">
-        <v>1.175356392710803</v>
+        <v>1.124326065789474</v>
       </c>
       <c r="R21">
-        <v>0.9401096334205397</v>
+        <v>0.9452663464912282</v>
       </c>
       <c r="S21">
-        <v>0.9168248208854353</v>
+        <v>0.8606606875438598</v>
       </c>
       <c r="T21">
-        <v>0.9401096334205397</v>
+        <v>0.9452663464912282</v>
       </c>
       <c r="U21">
-        <v>0.9148156304639314</v>
+        <v>0.9207356309210527</v>
       </c>
       <c r="V21">
-        <v>0.9136101162110292</v>
+        <v>0.9567805969473685</v>
       </c>
       <c r="W21">
-        <v>0.9502295244159807</v>
+        <v>0.948589710131579</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.221534064635412</v>
+        <v>1.44579859</v>
       </c>
       <c r="D22">
-        <v>1.221534064635412</v>
+        <v>1.44579859</v>
       </c>
       <c r="E22">
-        <v>1.032031689822053</v>
+        <v>0.9339327247368422</v>
       </c>
       <c r="F22">
-        <v>0.9689806783205963</v>
+        <v>1.036826840526316</v>
       </c>
       <c r="G22">
-        <v>1.108543999367504</v>
+        <v>1.115914565263158</v>
       </c>
       <c r="H22">
-        <v>0.962826678194716</v>
+        <v>0.8956406194736842</v>
       </c>
       <c r="I22">
-        <v>0.8981189257257405</v>
+        <v>0.9472650827368424</v>
       </c>
       <c r="J22">
-        <v>0.9297425911601358</v>
+        <v>0.8377543599999999</v>
       </c>
       <c r="K22">
-        <v>0.8338698244311145</v>
+        <v>0.8602364342105261</v>
       </c>
       <c r="L22">
-        <v>0.8981189257257405</v>
+        <v>0.9472650827368424</v>
       </c>
       <c r="M22">
-        <v>1.221534064635412</v>
+        <v>1.44579859</v>
       </c>
       <c r="N22">
-        <v>1.221534064635412</v>
+        <v>1.44579859</v>
       </c>
       <c r="O22">
-        <v>0.8338698244311145</v>
+        <v>0.8602364342105261</v>
       </c>
       <c r="P22">
-        <v>0.8659943750784275</v>
+        <v>0.9037507584736842</v>
       </c>
       <c r="Q22">
-        <v>0.9329507571265836</v>
+        <v>0.8970845794736841</v>
       </c>
       <c r="R22">
-        <v>0.9845076049307556</v>
+        <v>1.084433368982456</v>
       </c>
       <c r="S22">
-        <v>0.9213401466596359</v>
+        <v>0.913811413894737</v>
       </c>
       <c r="T22">
-        <v>0.9845076049307556</v>
+        <v>1.084433368982456</v>
       </c>
       <c r="U22">
-        <v>0.9963886261535799</v>
+        <v>1.046808207921053</v>
       </c>
       <c r="V22">
-        <v>1.041417713849946</v>
+        <v>1.126606284336842</v>
       </c>
       <c r="W22">
-        <v>0.994456056457159</v>
+        <v>1.009171152118421</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8743057963633019</v>
+        <v>0.9087880591994199</v>
       </c>
       <c r="D23">
-        <v>0.8743057963633019</v>
+        <v>0.9087880591994199</v>
       </c>
       <c r="E23">
-        <v>1.063588675254941</v>
+        <v>0.838933621594107</v>
       </c>
       <c r="F23">
-        <v>0.9311903311937384</v>
+        <v>1.300853129480476</v>
       </c>
       <c r="G23">
-        <v>0.9846354010220275</v>
+        <v>0.9679033127066247</v>
       </c>
       <c r="H23">
-        <v>1.090384057009017</v>
+        <v>0.6212119471671718</v>
       </c>
       <c r="I23">
-        <v>1.077848287530474</v>
+        <v>0.3997616772347007</v>
       </c>
       <c r="J23">
-        <v>1.045309007642355</v>
+        <v>1.052605284117847</v>
       </c>
       <c r="K23">
-        <v>0.9423442047973815</v>
+        <v>1.511779163827498</v>
       </c>
       <c r="L23">
-        <v>1.077848287530474</v>
+        <v>0.3997616772347007</v>
       </c>
       <c r="M23">
-        <v>0.8743057963633019</v>
+        <v>0.9087880591994199</v>
       </c>
       <c r="N23">
-        <v>0.8743057963633019</v>
+        <v>0.9087880591994199</v>
       </c>
       <c r="O23">
-        <v>0.9423442047973815</v>
+        <v>1.511779163827498</v>
       </c>
       <c r="P23">
-        <v>1.010096246163928</v>
+        <v>0.9557704205310995</v>
       </c>
       <c r="Q23">
-        <v>1.002966440026162</v>
+        <v>1.175356392710803</v>
       </c>
       <c r="R23">
-        <v>0.9648327628970526</v>
+        <v>0.9401096334205397</v>
       </c>
       <c r="S23">
-        <v>1.027927055860933</v>
+        <v>0.9168248208854353</v>
       </c>
       <c r="T23">
-        <v>0.9648327628970526</v>
+        <v>0.9401096334205397</v>
       </c>
       <c r="U23">
-        <v>0.9895217409865248</v>
+        <v>0.9148156304639314</v>
       </c>
       <c r="V23">
-        <v>0.9664785520618802</v>
+        <v>0.9136101162110292</v>
       </c>
       <c r="W23">
-        <v>1.001200720101655</v>
+        <v>0.9502295244159807</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.004824134484926</v>
+        <v>1.221534064635412</v>
       </c>
       <c r="D24">
-        <v>1.004824134484926</v>
+        <v>1.221534064635412</v>
       </c>
       <c r="E24">
-        <v>0.966640151501355</v>
+        <v>1.032031689822053</v>
       </c>
       <c r="F24">
-        <v>1.007839094371018</v>
+        <v>0.9689806783205963</v>
       </c>
       <c r="G24">
-        <v>0.9624409191507911</v>
+        <v>1.108543999367504</v>
       </c>
       <c r="H24">
-        <v>1.024858044456502</v>
+        <v>0.962826678194716</v>
       </c>
       <c r="I24">
-        <v>1.109876416108743</v>
+        <v>0.8981189257257405</v>
       </c>
       <c r="J24">
-        <v>0.9915174289986017</v>
+        <v>0.9297425911601358</v>
       </c>
       <c r="K24">
-        <v>1.025922240914058</v>
+        <v>0.8338698244311145</v>
       </c>
       <c r="L24">
-        <v>1.109876416108743</v>
+        <v>0.8981189257257405</v>
       </c>
       <c r="M24">
-        <v>1.004824134484926</v>
+        <v>1.221534064635412</v>
       </c>
       <c r="N24">
-        <v>1.004824134484926</v>
+        <v>1.221534064635412</v>
       </c>
       <c r="O24">
-        <v>1.025922240914058</v>
+        <v>0.8338698244311145</v>
       </c>
       <c r="P24">
-        <v>1.067899328511401</v>
+        <v>0.8659943750784275</v>
       </c>
       <c r="Q24">
-        <v>0.9962811962077067</v>
+        <v>0.9329507571265836</v>
       </c>
       <c r="R24">
-        <v>1.046874263835909</v>
+        <v>0.9845076049307556</v>
       </c>
       <c r="S24">
-        <v>1.034146269508052</v>
+        <v>0.9213401466596359</v>
       </c>
       <c r="T24">
-        <v>1.046874263835909</v>
+        <v>0.9845076049307556</v>
       </c>
       <c r="U24">
-        <v>1.026815735752271</v>
+        <v>0.9963886261535799</v>
       </c>
       <c r="V24">
-        <v>1.022417415498802</v>
+        <v>1.041417713849946</v>
       </c>
       <c r="W24">
-        <v>1.011739803748249</v>
+        <v>0.994456056457159</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9228322620894721</v>
+        <v>0.8743057963633019</v>
       </c>
       <c r="D25">
-        <v>0.9228322620894721</v>
+        <v>0.8743057963633019</v>
       </c>
       <c r="E25">
-        <v>1.066814798466765</v>
+        <v>1.063588675254941</v>
       </c>
       <c r="F25">
-        <v>0.8035783469349088</v>
+        <v>0.9311903311937384</v>
       </c>
       <c r="G25">
-        <v>0.9159837909008685</v>
+        <v>0.9846354010220275</v>
       </c>
       <c r="H25">
-        <v>1.33626489330243</v>
+        <v>1.090384057009017</v>
       </c>
       <c r="I25">
-        <v>1.637713877199761</v>
+        <v>1.077848287530474</v>
       </c>
       <c r="J25">
-        <v>0.9943835439913082</v>
+        <v>1.045309007642355</v>
       </c>
       <c r="K25">
-        <v>0.7501783244515378</v>
+        <v>0.9423442047973815</v>
       </c>
       <c r="L25">
-        <v>1.637713877199761</v>
+        <v>1.077848287530474</v>
       </c>
       <c r="M25">
-        <v>0.9228322620894721</v>
+        <v>0.8743057963633019</v>
       </c>
       <c r="N25">
-        <v>0.9228322620894721</v>
+        <v>0.8743057963633019</v>
       </c>
       <c r="O25">
-        <v>0.7501783244515378</v>
+        <v>0.9423442047973815</v>
       </c>
       <c r="P25">
-        <v>1.19394610082565</v>
+        <v>1.010096246163928</v>
       </c>
       <c r="Q25">
-        <v>0.9084965614591516</v>
+        <v>1.002966440026162</v>
       </c>
       <c r="R25">
-        <v>1.103574821246924</v>
+        <v>0.9648327628970526</v>
       </c>
       <c r="S25">
-        <v>1.151569000039355</v>
+        <v>1.027927055860933</v>
       </c>
       <c r="T25">
-        <v>1.103574821246924</v>
+        <v>0.9648327628970526</v>
       </c>
       <c r="U25">
-        <v>1.094384815551884</v>
+        <v>0.9895217409865248</v>
       </c>
       <c r="V25">
-        <v>1.060074304859402</v>
+        <v>0.9664785520618802</v>
       </c>
       <c r="W25">
-        <v>1.053468729667131</v>
+        <v>1.001200720101655</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8182966446144272</v>
+        <v>1.004824134484926</v>
       </c>
       <c r="D26">
-        <v>0.8182966446144272</v>
+        <v>1.004824134484926</v>
       </c>
       <c r="E26">
-        <v>1.07287602383903</v>
+        <v>0.966640151501355</v>
       </c>
       <c r="F26">
-        <v>0.9444961641413987</v>
+        <v>1.007839094371018</v>
       </c>
       <c r="G26">
-        <v>0.9817787650583222</v>
+        <v>0.9624409191507911</v>
       </c>
       <c r="H26">
-        <v>1.059422759062827</v>
+        <v>1.024858044456502</v>
       </c>
       <c r="I26">
-        <v>0.9738448137654412</v>
+        <v>1.109876416108743</v>
       </c>
       <c r="J26">
-        <v>1.079804111484616</v>
+        <v>0.9915174289986017</v>
       </c>
       <c r="K26">
-        <v>0.9900463380445352</v>
+        <v>1.025922240914058</v>
       </c>
       <c r="L26">
-        <v>0.9738448137654412</v>
+        <v>1.109876416108743</v>
       </c>
       <c r="M26">
-        <v>0.8182966446144272</v>
+        <v>1.004824134484926</v>
       </c>
       <c r="N26">
-        <v>0.8182966446144272</v>
+        <v>1.004824134484926</v>
       </c>
       <c r="O26">
-        <v>0.9900463380445352</v>
+        <v>1.025922240914058</v>
       </c>
       <c r="P26">
-        <v>0.9819455759049882</v>
+        <v>1.067899328511401</v>
       </c>
       <c r="Q26">
-        <v>1.031461180941783</v>
+        <v>0.9962811962077067</v>
       </c>
       <c r="R26">
-        <v>0.9273959321414679</v>
+        <v>1.046874263835909</v>
       </c>
       <c r="S26">
-        <v>1.012255725216335</v>
+        <v>1.034146269508052</v>
       </c>
       <c r="T26">
-        <v>0.9273959321414678</v>
+        <v>1.046874263835909</v>
       </c>
       <c r="U26">
-        <v>0.9637659550658583</v>
+        <v>1.026815735752271</v>
       </c>
       <c r="V26">
-        <v>0.9346720929755721</v>
+        <v>1.022417415498802</v>
       </c>
       <c r="W26">
-        <v>0.9900707025013247</v>
+        <v>1.011739803748249</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.016311413494451</v>
+        <v>0.9228322620894721</v>
       </c>
       <c r="D27">
-        <v>1.016311413494451</v>
+        <v>0.9228322620894721</v>
       </c>
       <c r="E27">
-        <v>0.9654907001741058</v>
+        <v>1.066814798466765</v>
       </c>
       <c r="F27">
-        <v>1.03710780699597</v>
+        <v>0.8035783469349088</v>
       </c>
       <c r="G27">
-        <v>0.993750372380754</v>
+        <v>0.9159837909008685</v>
       </c>
       <c r="H27">
-        <v>0.9761564371880601</v>
+        <v>1.33626489330243</v>
       </c>
       <c r="I27">
-        <v>1.027982943318867</v>
+        <v>1.637713877199761</v>
       </c>
       <c r="J27">
-        <v>0.9739849374715743</v>
+        <v>0.9943835439913082</v>
       </c>
       <c r="K27">
-        <v>1.042924535010403</v>
+        <v>0.7501783244515378</v>
       </c>
       <c r="L27">
-        <v>1.027982943318867</v>
+        <v>1.637713877199761</v>
       </c>
       <c r="M27">
-        <v>1.016311413494451</v>
+        <v>0.9228322620894721</v>
       </c>
       <c r="N27">
-        <v>1.016311413494451</v>
+        <v>0.9228322620894721</v>
       </c>
       <c r="O27">
-        <v>1.042924535010403</v>
+        <v>0.7501783244515378</v>
       </c>
       <c r="P27">
-        <v>1.035453739164635</v>
+        <v>1.19394610082565</v>
       </c>
       <c r="Q27">
-        <v>1.004207617592255</v>
+        <v>0.9084965614591516</v>
       </c>
       <c r="R27">
-        <v>1.02907296394124</v>
+        <v>1.103574821246924</v>
       </c>
       <c r="S27">
-        <v>1.012132726167792</v>
+        <v>1.151569000039355</v>
       </c>
       <c r="T27">
-        <v>1.02907296394124</v>
+        <v>1.103574821246924</v>
       </c>
       <c r="U27">
-        <v>1.013177397999457</v>
+        <v>1.094384815551884</v>
       </c>
       <c r="V27">
-        <v>1.013804201098456</v>
+        <v>1.060074304859402</v>
       </c>
       <c r="W27">
-        <v>1.004213643254273</v>
+        <v>1.053468729667131</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.990166240301111</v>
+        <v>0.8182966446144272</v>
       </c>
       <c r="D28">
-        <v>0.990166240301111</v>
+        <v>0.8182966446144272</v>
       </c>
       <c r="E28">
-        <v>0.9843289499820205</v>
+        <v>1.07287602383903</v>
       </c>
       <c r="F28">
-        <v>1.024658547623451</v>
+        <v>0.9444961641413987</v>
       </c>
       <c r="G28">
-        <v>0.9947443668184176</v>
+        <v>0.9817787650583222</v>
       </c>
       <c r="H28">
-        <v>0.9698213093356984</v>
+        <v>1.059422759062827</v>
       </c>
       <c r="I28">
-        <v>0.9583671396287663</v>
+        <v>0.9738448137654412</v>
       </c>
       <c r="J28">
-        <v>1.00562925676427</v>
+        <v>1.079804111484616</v>
       </c>
       <c r="K28">
-        <v>1.043764036142454</v>
+        <v>0.9900463380445352</v>
       </c>
       <c r="L28">
-        <v>0.9583671396287663</v>
+        <v>0.9738448137654412</v>
       </c>
       <c r="M28">
-        <v>0.990166240301111</v>
+        <v>0.8182966446144272</v>
       </c>
       <c r="N28">
-        <v>0.990166240301111</v>
+        <v>0.8182966446144272</v>
       </c>
       <c r="O28">
-        <v>1.043764036142454</v>
+        <v>0.9900463380445352</v>
       </c>
       <c r="P28">
-        <v>1.00106558788561</v>
+        <v>0.9819455759049882</v>
       </c>
       <c r="Q28">
-        <v>1.014046493062237</v>
+        <v>1.031461180941783</v>
       </c>
       <c r="R28">
-        <v>0.9974324720241105</v>
+        <v>0.9273959321414679</v>
       </c>
       <c r="S28">
-        <v>0.9954867085844136</v>
+        <v>1.012255725216335</v>
       </c>
       <c r="T28">
-        <v>0.9974324720241105</v>
+        <v>0.9273959321414678</v>
       </c>
       <c r="U28">
-        <v>0.9941565915135879</v>
+        <v>0.9637659550658583</v>
       </c>
       <c r="V28">
-        <v>0.9933585212710925</v>
+        <v>0.9346720929755721</v>
       </c>
       <c r="W28">
-        <v>0.9964349808245236</v>
+        <v>0.9900707025013247</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="D29">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="E29">
+        <v>0.9654907001741058</v>
+      </c>
+      <c r="F29">
+        <v>1.03710780699597</v>
+      </c>
+      <c r="G29">
+        <v>0.993750372380754</v>
+      </c>
+      <c r="H29">
+        <v>0.9761564371880601</v>
+      </c>
+      <c r="I29">
+        <v>1.027982943318867</v>
+      </c>
+      <c r="J29">
+        <v>0.9739849374715743</v>
+      </c>
+      <c r="K29">
+        <v>1.042924535010403</v>
+      </c>
+      <c r="L29">
+        <v>1.027982943318867</v>
+      </c>
+      <c r="M29">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="N29">
+        <v>1.016311413494451</v>
+      </c>
+      <c r="O29">
+        <v>1.042924535010403</v>
+      </c>
+      <c r="P29">
+        <v>1.035453739164635</v>
+      </c>
+      <c r="Q29">
+        <v>1.004207617592255</v>
+      </c>
+      <c r="R29">
+        <v>1.02907296394124</v>
+      </c>
+      <c r="S29">
+        <v>1.012132726167792</v>
+      </c>
+      <c r="T29">
+        <v>1.02907296394124</v>
+      </c>
+      <c r="U29">
+        <v>1.013177397999457</v>
+      </c>
+      <c r="V29">
+        <v>1.013804201098456</v>
+      </c>
+      <c r="W29">
+        <v>1.004213643254273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="D30">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="E30">
+        <v>0.9843289499820205</v>
+      </c>
+      <c r="F30">
+        <v>1.024658547623451</v>
+      </c>
+      <c r="G30">
+        <v>0.9947443668184176</v>
+      </c>
+      <c r="H30">
+        <v>0.9698213093356984</v>
+      </c>
+      <c r="I30">
+        <v>0.9583671396287663</v>
+      </c>
+      <c r="J30">
+        <v>1.00562925676427</v>
+      </c>
+      <c r="K30">
+        <v>1.043764036142454</v>
+      </c>
+      <c r="L30">
+        <v>0.9583671396287663</v>
+      </c>
+      <c r="M30">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="N30">
+        <v>0.990166240301111</v>
+      </c>
+      <c r="O30">
+        <v>1.043764036142454</v>
+      </c>
+      <c r="P30">
+        <v>1.00106558788561</v>
+      </c>
+      <c r="Q30">
+        <v>1.014046493062237</v>
+      </c>
+      <c r="R30">
+        <v>0.9974324720241105</v>
+      </c>
+      <c r="S30">
+        <v>0.9954867085844136</v>
+      </c>
+      <c r="T30">
+        <v>0.9974324720241105</v>
+      </c>
+      <c r="U30">
+        <v>0.9941565915135879</v>
+      </c>
+      <c r="V30">
+        <v>0.9933585212710925</v>
+      </c>
+      <c r="W30">
+        <v>0.9964349808245236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9725133389672499</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9725133389672499</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.017948556398969</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9677012888370342</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9930618459651214</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.046281956018727</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.076125035923143</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.006566630260439</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9599169617180888</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.076125035923143</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9725133389672499</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9725133389672499</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9599169617180888</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.018020998820616</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9889327590585288</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.002851778869494</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.017996851346734</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.002851778869494</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.006625973251863</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9998034463949402</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.005014451761097</v>
       </c>
     </row>
